--- a/문서파일/QuizBeeDB.xlsx
+++ b/문서파일/QuizBeeDB.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doyou\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KD03\QuizBee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D1213D4-23F9-4278-B058-51C0A4220587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="3" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="147">
   <si>
     <t>auto</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -472,10 +471,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>quiz_hint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>퀴즈 힌트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -532,40 +527,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>create table quiz_info (
-quiz_no int not null auto_increment,
-user_no int not null,
-quiz_tit varchar(40) not null,
-quiz_hint varchar(50),
-quiz_img varchar(1000),
-quiz_category int default 1,
-quiz_level int default 1,
-quiz_view int default 0,
-quiz_report varchar(100),
-quiz_day timestamp default now(),
-primary key(quiz_no),
-foreign key(user_no) references quiz_user(user_no) on delete cascade
-) comment = '퀴즈 테이블'
-engine=InnoDB;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>board_view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE TABLE board_comments (
-    comment_id INT AUTO_INCREMENT PRIMARY KEY,
-    board_no INT,
-    user_no INT,
-    comment_content TEXT,
-    parent_comment_id INT DEFAULT NULL,
-    quiz_content TEXT,
-    quiz_comment_id INT DEFAULT NULL,
-    comment_at TIMESTAMP DEFAULT CURRENT_TIMESTAMP,
-    FOREIGN KEY (board_no) REFERENCES quiz_board(board_no) on delete cascade,
-    FOREIGN KEY (user_no) REFERENCES quiz_user(user_no) on delete cascade
-);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -666,11 +628,81 @@
     <t>notice_day</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>quiz_thimg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀴즈 썸네일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quiz_comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿼즈 댓글 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE board_comments (
+    comment_id INT AUTO_INCREMENT PRIMARY KEY,
+    board_no INT,
+    user_no INT,
+    comment_content TEXT,
+    parent_comment_id INT DEFAULT NULL,
+    comment_at TIMESTAMP DEFAULT CURRENT_TIMESTAMP,
+    FOREIGN KEY (board_no) REFERENCES quiz_board(board_no) on delete cascade,
+    FOREIGN KEY (user_no) REFERENCES quiz_user(user_no) on delete cascade
+);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE quiz_comments (
+    comment_id INT AUTO_INCREMENT PRIMARY KEY,
+    quiz_no INT,
+    user_no INT,
+    quiz_content TEXT,
+    quiz_comment_id INT DEFAULT NULL,
+    comment_at TIMESTAMP DEFAULT CURRENT_TIMESTAMP,
+    FOREIGN KEY (quiz_no) REFERENCES quiz_info(quiz_no) on delete cascade,
+    FOREIGN KEY (user_no) REFERENCES quiz_user(user_no) on delete cascade
+);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quiz_hint1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quiz_hint2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table quiz_info (
+quiz_no int not null auto_increment,
+user_no int not null,
+quiz_tit varchar(40) not null,
+quiz_hint1 varchar(50),
+quiz_hint2 varchar(50),
+quiz_thimg varchar(1000),
+quiz_img varchar(1000),
+quiz_category int default 1,
+quiz_level int default 1,
+quiz_view int default 0,
+quiz_report varchar(100),
+quiz_day timestamp default now(),
+primary key(quiz_no),
+foreign key(user_no) references quiz_user(user_no) on delete cascade
+) comment = '퀴즈 테이블'
+engine=InnoDB;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1305,6 +1337,29 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1383,38 +1438,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1753,56 +1785,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C17" sqref="C17:H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.4140625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.9140625" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
-    </row>
-    <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+    </row>
+    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
-    </row>
-    <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
+    </row>
+    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -1822,7 +1854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
@@ -1842,7 +1874,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
@@ -1856,7 +1888,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
@@ -1870,7 +1902,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
@@ -1884,7 +1916,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
         <v>26</v>
       </c>
@@ -1898,7 +1930,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
         <v>28</v>
       </c>
@@ -1912,7 +1944,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="9" t="s">
         <v>30</v>
       </c>
@@ -1928,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" s="9" t="s">
         <v>31</v>
       </c>
@@ -1944,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="31" t="s">
         <v>33</v>
       </c>
@@ -1960,168 +1992,168 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="17" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-    </row>
-    <row r="18" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
-    </row>
-    <row r="19" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
-    </row>
-    <row r="20" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-    </row>
-    <row r="21" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-    </row>
-    <row r="22" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
-    </row>
-    <row r="23" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
-    </row>
-    <row r="24" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="42"/>
-    </row>
-    <row r="25" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C25" s="40"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
-    </row>
-    <row r="26" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C26" s="40"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
-    </row>
-    <row r="27" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C27" s="40"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="42"/>
-    </row>
-    <row r="28" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="42"/>
-    </row>
-    <row r="29" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="40"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="42"/>
-    </row>
-    <row r="30" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
-    </row>
-    <row r="31" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C31" s="40"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="42"/>
-    </row>
-    <row r="32" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="42"/>
-    </row>
-    <row r="33" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C33" s="40"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="42"/>
-    </row>
-    <row r="34" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C34" s="40"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="42"/>
-    </row>
-    <row r="35" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C35" s="40"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="42"/>
-    </row>
-    <row r="36" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C36" s="43"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="45"/>
+    <row r="16" spans="3:8" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
+    </row>
+    <row r="18" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="53"/>
+    </row>
+    <row r="19" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="53"/>
+    </row>
+    <row r="20" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
+    </row>
+    <row r="21" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
+    </row>
+    <row r="22" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="53"/>
+    </row>
+    <row r="23" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+    </row>
+    <row r="24" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="53"/>
+    </row>
+    <row r="25" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="53"/>
+    </row>
+    <row r="26" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
+    </row>
+    <row r="27" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="51"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="53"/>
+    </row>
+    <row r="28" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="51"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="53"/>
+    </row>
+    <row r="29" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="51"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="53"/>
+    </row>
+    <row r="30" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="51"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="53"/>
+    </row>
+    <row r="31" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="51"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="53"/>
+    </row>
+    <row r="32" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="51"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="53"/>
+    </row>
+    <row r="33" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="51"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="53"/>
+    </row>
+    <row r="34" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="51"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="53"/>
+    </row>
+    <row r="35" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="51"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="53"/>
+    </row>
+    <row r="36" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2136,61 +2168,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C1:K40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:I39"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.9140625" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.9140625" customWidth="1"/>
-    <col min="7" max="7" width="9.58203125" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" customWidth="1"/>
-    <col min="11" max="11" width="16.08203125" customWidth="1"/>
-    <col min="12" max="14" width="8.83203125" customWidth="1"/>
-    <col min="15" max="15" width="9.58203125" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="8.875" customWidth="1"/>
+    <col min="11" max="11" width="16.125" customWidth="1"/>
+    <col min="12" max="14" width="8.875" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
+    <col min="16" max="16" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
+    </row>
+    <row r="3" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54"/>
-    </row>
-    <row r="5" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+    </row>
+    <row r="5" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="21" t="s">
         <v>11</v>
       </c>
@@ -2210,7 +2242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D7" s="24" t="s">
         <v>92</v>
       </c>
@@ -2230,25 +2262,25 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="D8" s="70" t="s">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D8" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="H8" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="73"/>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D9" s="14" t="s">
         <v>93</v>
       </c>
@@ -2264,12 +2296,12 @@
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D10" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>54</v>
@@ -2280,287 +2312,318 @@
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D11" s="14" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D12" s="14" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35">
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D13" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="D13" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>2</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18">
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" s="79"/>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D14" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35">
         <v>1</v>
       </c>
-      <c r="J13" s="74" t="s">
+      <c r="J14" s="41"/>
+      <c r="K14" s="47"/>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D15" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18">
+        <v>1</v>
+      </c>
+      <c r="J15" s="41"/>
+      <c r="K15" s="47"/>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D16" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="K13" s="78"/>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="D14" s="79" t="s">
+      <c r="E16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="45"/>
+      <c r="I16" s="46">
+        <v>0</v>
+      </c>
+      <c r="J16" s="42"/>
+      <c r="K16" s="43"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D17" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="80" t="s">
+      <c r="F17" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
+    </row>
+    <row r="18" spans="4:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="80"/>
-      <c r="I14" s="81">
-        <v>0</v>
-      </c>
-      <c r="J14" s="75"/>
-      <c r="K14" s="82"/>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="D15" s="79" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="82"/>
-    </row>
-    <row r="16" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D16" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="20" t="s">
+      <c r="H18" s="19"/>
+      <c r="I18" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="76"/>
-      <c r="K16" s="77"/>
-    </row>
-    <row r="19" spans="4:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D20" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="60"/>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D21" s="61"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="63"/>
-    </row>
-    <row r="22" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D22" s="61"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="63"/>
-    </row>
-    <row r="23" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D23" s="61"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="63"/>
-    </row>
-    <row r="24" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D24" s="61"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="63"/>
-    </row>
-    <row r="25" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D25" s="61"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="63"/>
-    </row>
-    <row r="26" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D26" s="61"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="63"/>
-    </row>
-    <row r="27" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D27" s="61"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="63"/>
-    </row>
-    <row r="28" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D28" s="61"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="63"/>
-    </row>
-    <row r="29" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D29" s="61"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="63"/>
-    </row>
-    <row r="30" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D30" s="61"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="63"/>
-    </row>
-    <row r="31" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D31" s="61"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="63"/>
-    </row>
-    <row r="32" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D32" s="61"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="63"/>
-    </row>
-    <row r="33" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D33" s="61"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="63"/>
-    </row>
-    <row r="34" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D34" s="61"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="63"/>
-    </row>
-    <row r="35" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D35" s="61"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="63"/>
-    </row>
-    <row r="36" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D36" s="61"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="63"/>
-    </row>
-    <row r="37" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D37" s="61"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="63"/>
-    </row>
-    <row r="38" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D38" s="61"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="63"/>
-    </row>
-    <row r="39" spans="4:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D39" s="64"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="66"/>
-    </row>
-    <row r="40" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
+    </row>
+    <row r="21" spans="4:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="71"/>
+    </row>
+    <row r="23" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="74"/>
+    </row>
+    <row r="24" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="74"/>
+    </row>
+    <row r="25" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="72"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="74"/>
+    </row>
+    <row r="26" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="74"/>
+    </row>
+    <row r="27" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="74"/>
+    </row>
+    <row r="28" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="74"/>
+    </row>
+    <row r="29" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="72"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="74"/>
+    </row>
+    <row r="30" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="74"/>
+    </row>
+    <row r="31" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="72"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="74"/>
+    </row>
+    <row r="32" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="72"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="74"/>
+    </row>
+    <row r="33" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="72"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="74"/>
+    </row>
+    <row r="34" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="72"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="74"/>
+    </row>
+    <row r="35" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="72"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="74"/>
+    </row>
+    <row r="36" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="72"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="74"/>
+    </row>
+    <row r="37" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="72"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="74"/>
+    </row>
+    <row r="38" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="72"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="74"/>
+    </row>
+    <row r="39" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="72"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="74"/>
+    </row>
+    <row r="40" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="72"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="74"/>
+    </row>
+    <row r="41" spans="4:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D41" s="75"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="77"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="E2:I2"/>
-    <mergeCell ref="D20:I39"/>
+    <mergeCell ref="D22:I41"/>
     <mergeCell ref="J13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2570,56 +2633,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H29"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C16" sqref="C16:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.4140625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.9140625" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
-    </row>
-    <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+    </row>
+    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="69"/>
-    </row>
-    <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
+    </row>
+    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -2639,7 +2702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
         <v>58</v>
       </c>
@@ -2659,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
@@ -2677,7 +2740,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>59</v>
       </c>
@@ -2693,7 +2756,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="9" t="s">
         <v>60</v>
       </c>
@@ -2709,7 +2772,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
         <v>61</v>
       </c>
@@ -2725,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
         <v>62</v>
       </c>
@@ -2739,7 +2802,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="9" t="s">
         <v>63</v>
       </c>
@@ -2755,7 +2818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="10" t="s">
         <v>79</v>
       </c>
@@ -2769,120 +2832,120 @@
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C16" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="60"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="63"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="63"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="63"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="63"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="63"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="63"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="63"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="63"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="63"/>
-    </row>
-    <row r="29" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="66"/>
+    <row r="15" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="71"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="72"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="74"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="72"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="74"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="74"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="74"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="74"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="74"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="72"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="74"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="72"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="74"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="74"/>
+    </row>
+    <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2896,56 +2959,56 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:K29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.4140625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.9140625" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
-    </row>
-    <row r="3" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+    </row>
+    <row r="3" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="69"/>
-    </row>
-    <row r="5" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
+    </row>
+    <row r="5" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -2965,7 +3028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
         <v>47</v>
       </c>
@@ -2985,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
@@ -3003,7 +3066,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>50</v>
       </c>
@@ -3019,7 +3082,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C10" s="9" t="s">
         <v>51</v>
       </c>
@@ -3033,9 +3096,9 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>41</v>
@@ -3049,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
         <v>52</v>
       </c>
@@ -3068,7 +3131,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C13" s="9" t="s">
         <v>73</v>
       </c>
@@ -3082,113 +3145,113 @@
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="15" spans="3:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="3:11" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="17" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="63"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="63"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="63"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="63"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="63"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="63"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="63"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="63"/>
-    </row>
-    <row r="29" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="66"/>
+    <row r="15" spans="3:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="3:11" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="71"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="72"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="74"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="74"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="74"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="74"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="74"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="72"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="74"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="72"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="74"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="74"/>
+    </row>
+    <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3203,56 +3266,87 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D7E422-E148-4B4B-81EF-A18D1E2A7056}">
-  <dimension ref="C1:H30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:H30"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="25.75" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.08203125" customWidth="1"/>
-    <col min="7" max="7" width="15.08203125" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="14.75" customWidth="1"/>
+    <col min="13" max="13" width="17.25" customWidth="1"/>
+    <col min="14" max="14" width="14.625" customWidth="1"/>
+    <col min="15" max="15" width="16.375" customWidth="1"/>
+    <col min="16" max="16" width="14.375" customWidth="1"/>
+    <col min="17" max="17" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
-    </row>
-    <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="59"/>
+    </row>
+    <row r="3" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="69"/>
-    </row>
-    <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
+      <c r="L3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="82"/>
+    </row>
+    <row r="5" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -3271,8 +3365,26 @@
       <c r="H6" s="23" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="24" t="s">
         <v>98</v>
       </c>
@@ -3287,8 +3399,22 @@
         <v>9</v>
       </c>
       <c r="H7" s="27"/>
-    </row>
-    <row r="8" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L7" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" s="25"/>
+      <c r="P7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="27"/>
+    </row>
+    <row r="8" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="9" t="s">
         <v>47</v>
       </c>
@@ -3303,8 +3429,22 @@
         <v>57</v>
       </c>
       <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="L8" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
@@ -3319,13 +3459,27 @@
         <v>57</v>
       </c>
       <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="L9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N9" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C10" s="9" t="s">
         <v>102</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>103</v>
@@ -3333,13 +3487,25 @@
       <c r="F10" s="4"/>
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="L10" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
         <v>104</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>100</v>
@@ -3347,169 +3513,254 @@
       <c r="F11" s="4"/>
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="L11" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C13" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C14" s="9" t="s">
+      <c r="L12" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="M12" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="16" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C17" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="63"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="63"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="63"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="63"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="63"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="63"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="63"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="63"/>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C29" s="61"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="63"/>
-    </row>
-    <row r="30" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="66"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="14" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C15" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="71"/>
+      <c r="L15" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="71"/>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="74"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="74"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C17" s="72"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="74"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="74"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="74"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="74"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="74"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C21" s="72"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="74"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="74"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="74"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="74"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="74"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="74"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="74"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="74"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="74"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="74"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C26" s="72"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="74"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="74"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C27" s="72"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="74"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="74"/>
+    </row>
+    <row r="28" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="75"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="77"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="D3:H3"/>
-    <mergeCell ref="C17:H30"/>
+    <mergeCell ref="C15:H28"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="L15:Q28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3518,56 +3769,56 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.4140625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.9140625" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="57"/>
-    </row>
-    <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D2" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
+    </row>
+    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
-    </row>
-    <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="65"/>
+    </row>
+    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -3587,12 +3838,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>2</v>
@@ -3607,7 +3858,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="14" t="s">
         <v>68</v>
       </c>
@@ -3625,12 +3876,12 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>1</v>
@@ -3641,12 +3892,12 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>1</v>
@@ -3657,9 +3908,9 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>41</v>
@@ -3673,9 +3924,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>45</v>
@@ -3691,128 +3942,128 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="15" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="60"/>
-    </row>
-    <row r="16" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="61"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="63"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="63"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="63"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="63"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="63"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="63"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="63"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="63"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="63"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="63"/>
-    </row>
-    <row r="29" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="66"/>
+    <row r="14" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="71"/>
+    </row>
+    <row r="16" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="74"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="72"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="74"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="72"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="74"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="74"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="74"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="74"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="74"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="72"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="74"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="72"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="74"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="74"/>
+    </row>
+    <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/문서파일/QuizBeeDB.xlsx
+++ b/문서파일/QuizBeeDB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KD03\QuizBee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\QuizBee\문서파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="152">
   <si>
     <t>auto</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -696,6 +696,26 @@
 foreign key(user_no) references quiz_user(user_no) on delete cascade
 ) comment = '퀴즈 테이블'
 engine=InnoDB;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quiz_img2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀴즈 이미지2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정답이미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1269,7 +1289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1357,6 +1377,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1807,25 +1833,25 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
     </row>
     <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -1994,166 +2020,166 @@
     </row>
     <row r="16" spans="3:8" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="52"/>
     </row>
     <row r="18" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="55"/>
     </row>
     <row r="19" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="55"/>
     </row>
     <row r="20" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="55"/>
     </row>
     <row r="21" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="55"/>
     </row>
     <row r="22" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="55"/>
     </row>
     <row r="23" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="55"/>
     </row>
     <row r="24" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="55"/>
     </row>
     <row r="25" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="55"/>
     </row>
     <row r="26" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="55"/>
     </row>
     <row r="27" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="51"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="55"/>
     </row>
     <row r="28" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="51"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="55"/>
     </row>
     <row r="29" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="51"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="55"/>
     </row>
     <row r="30" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="51"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="55"/>
     </row>
     <row r="31" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="51"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="55"/>
     </row>
     <row r="32" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="51"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="55"/>
     </row>
     <row r="33" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="51"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="55"/>
     </row>
     <row r="34" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="51"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="55"/>
     </row>
     <row r="35" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="51"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="55"/>
     </row>
     <row r="36" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="54"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2169,10 +2195,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:K41"/>
+  <dimension ref="C1:M42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:I41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2190,39 +2216,39 @@
     <col min="16" max="16" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
-    </row>
-    <row r="3" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
+    </row>
+    <row r="3" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="65"/>
-    </row>
-    <row r="5" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
+    </row>
+    <row r="5" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="21" t="s">
         <v>11</v>
       </c>
@@ -2242,7 +2268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D7" s="24" t="s">
         <v>92</v>
       </c>
@@ -2262,7 +2288,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D8" s="37" t="s">
         <v>8</v>
       </c>
@@ -2280,7 +2306,7 @@
       </c>
       <c r="I8" s="40"/>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D9" s="14" t="s">
         <v>93</v>
       </c>
@@ -2296,7 +2322,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D10" s="14" t="s">
         <v>144</v>
       </c>
@@ -2312,7 +2338,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D11" s="14" t="s">
         <v>145</v>
       </c>
@@ -2328,7 +2354,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D12" s="14" t="s">
         <v>138</v>
       </c>
@@ -2344,7 +2370,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D13" s="14" t="s">
         <v>94</v>
       </c>
@@ -2359,271 +2385,295 @@
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="78" t="s">
+      <c r="J13" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="K13" s="79"/>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="81"/>
+      <c r="M13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D14" s="14" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35">
-        <v>1</v>
-      </c>
-      <c r="J14" s="41"/>
-      <c r="K14" s="47"/>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
+      <c r="M14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D15" s="14" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18">
+      <c r="H15" s="34"/>
+      <c r="I15" s="35">
         <v>1</v>
       </c>
       <c r="J15" s="41"/>
       <c r="K15" s="47"/>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D16" s="44" t="s">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D16" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18">
+        <v>1</v>
+      </c>
+      <c r="J16" s="41"/>
+      <c r="K16" s="47"/>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D17" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E17" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F17" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G17" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46">
+      <c r="H17" s="45"/>
+      <c r="I17" s="46">
         <v>0</v>
       </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="43"/>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D17" s="44" t="s">
+      <c r="J17" s="42"/>
+      <c r="K17" s="43"/>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D18" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E18" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F18" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="46"/>
-    </row>
-    <row r="18" spans="4:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="15" t="s">
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="46"/>
+    </row>
+    <row r="19" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G19" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20" t="s">
+      <c r="H19" s="19"/>
+      <c r="I19" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="4:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="69" t="s">
+    <row r="22" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="4:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="71"/>
-    </row>
-    <row r="23" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="74"/>
-    </row>
-    <row r="24" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="74"/>
-    </row>
-    <row r="25" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="72"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="74"/>
-    </row>
-    <row r="26" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="74"/>
-    </row>
-    <row r="27" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="72"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="74"/>
-    </row>
-    <row r="28" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="74"/>
-    </row>
-    <row r="29" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="72"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="74"/>
-    </row>
-    <row r="30" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="74"/>
-    </row>
-    <row r="31" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="72"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="74"/>
-    </row>
-    <row r="32" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="72"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="74"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="73"/>
+    </row>
+    <row r="24" spans="4:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="74"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="76"/>
+    </row>
+    <row r="25" spans="4:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="74"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="76"/>
+    </row>
+    <row r="26" spans="4:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="74"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="76"/>
+    </row>
+    <row r="27" spans="4:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="74"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="76"/>
+    </row>
+    <row r="28" spans="4:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="74"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="76"/>
+    </row>
+    <row r="29" spans="4:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="74"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
+    </row>
+    <row r="30" spans="4:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="74"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="76"/>
+    </row>
+    <row r="31" spans="4:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="74"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="76"/>
+    </row>
+    <row r="32" spans="4:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="74"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="76"/>
     </row>
     <row r="33" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="72"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="76"/>
     </row>
     <row r="34" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="72"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="76"/>
     </row>
     <row r="35" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="72"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="76"/>
     </row>
     <row r="36" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="72"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="76"/>
     </row>
     <row r="37" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="72"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="74"/>
-    </row>
-    <row r="38" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="72"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="76"/>
+    </row>
+    <row r="38" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="74"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="76"/>
     </row>
     <row r="39" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="72"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="76"/>
     </row>
     <row r="40" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="72"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="74"/>
-    </row>
-    <row r="41" spans="4:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D41" s="75"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="77"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="76"/>
+    </row>
+    <row r="41" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="74"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="76"/>
+    </row>
+    <row r="42" spans="4:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D42" s="77"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="E2:I2"/>
-    <mergeCell ref="D22:I41"/>
+    <mergeCell ref="D23:I42"/>
     <mergeCell ref="J13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2655,25 +2705,25 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
     </row>
     <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -2834,118 +2884,118 @@
     </row>
     <row r="15" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="73"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="76"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="76"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="76"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="76"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="72"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="76"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="76"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="76"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="72"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="76"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="72"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="76"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="72"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="76"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="72"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="76"/>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="72"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="76"/>
     </row>
     <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="75"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2981,25 +3031,25 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
     </row>
     <row r="3" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="5" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -3148,110 +3198,110 @@
     <row r="15" spans="3:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="3:11" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="76"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="76"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="76"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="72"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="76"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="76"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="76"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="72"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="76"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="72"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="76"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="72"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="76"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="72"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="76"/>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="72"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="76"/>
     </row>
     <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="75"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3294,45 +3344,45 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
       <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="59"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="61"/>
     </row>
     <row r="3" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
       <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="80" t="s">
+      <c r="M3" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="82"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="84"/>
     </row>
     <row r="5" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -3554,204 +3604,204 @@
     </row>
     <row r="14" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="71"/>
-      <c r="L15" s="69" t="s">
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="73"/>
+      <c r="L15" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="71"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="73"/>
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="74"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="76"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="76"/>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="74"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="76"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="76"/>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="76"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="76"/>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="76"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="76"/>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="74"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="76"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="76"/>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C21" s="72"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="74"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="76"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="76"/>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="74"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="76"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="76"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="74"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="76"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="76"/>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C24" s="72"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="74"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="76"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="76"/>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C25" s="72"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="74"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="76"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="76"/>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C26" s="72"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="74"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="76"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="76"/>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C27" s="72"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="74"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="76"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="76"/>
     </row>
     <row r="28" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="75"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="77"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="79"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3772,7 +3822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -3791,25 +3841,25 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="65"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
     </row>
     <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -3944,126 +3994,126 @@
     </row>
     <row r="14" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="73"/>
     </row>
     <row r="16" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="76"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="76"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="76"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="76"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="76"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="72"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="76"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="76"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="76"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="72"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="76"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="72"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="76"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="72"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="76"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="72"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="76"/>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="72"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="76"/>
     </row>
     <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="75"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/문서파일/QuizBeeDB.xlsx
+++ b/문서파일/QuizBeeDB.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\QuizBee\문서파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doyou\OneDrive\Desktop\QuizBee\문서파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279ED5CF-8F75-429D-9A7A-676C7C02387C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="3" r:id="rId1"/>
@@ -679,26 +680,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>create table quiz_info (
-quiz_no int not null auto_increment,
-user_no int not null,
-quiz_tit varchar(40) not null,
-quiz_hint1 varchar(50),
-quiz_hint2 varchar(50),
-quiz_thimg varchar(1000),
-quiz_img varchar(1000),
-quiz_category int default 1,
-quiz_level int default 1,
-quiz_view int default 0,
-quiz_report varchar(100),
-quiz_day timestamp default now(),
-primary key(quiz_no),
-foreign key(user_no) references quiz_user(user_no) on delete cascade
-) comment = '퀴즈 테이블'
-engine=InnoDB;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>quiz_img2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -716,13 +697,29 @@
   </si>
   <si>
     <t>정답이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE quiz_user (
+  user_no int NOT NULL AUTO_INCREMENT,
+  user_id varchar(45) NOT NULL,
+  user_nick varchar(45) NOT NULL,
+  user_email varchar(45) NOT NULL,
+  user_passwd varchar(100) ,
+  user_login_ty int DEFAULT '0',
+  user_type int DEFAULT '0',
+  user_day timestamp NULL DEFAULT CURRENT_TIMESTAMP,
+  user_num varchar(45) ,
+   deleted_at timestamp NULL DEFAULT NULL,
+  PRIMARY KEY (user_no)
+) ENGINE=InnoDB AUTO_INCREMENT=18 DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_general_ci COMMENT='유저'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1289,7 +1286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1377,13 +1374,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1467,7 +1458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1811,56 +1802,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C17" sqref="C17:H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="9.625" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.58203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.58203125" customWidth="1"/>
+    <col min="8" max="8" width="11.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
-    </row>
-    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+    </row>
+    <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
-    </row>
-    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
+    </row>
+    <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -1880,7 +1871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
@@ -1900,7 +1891,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
@@ -1914,7 +1905,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
@@ -1928,7 +1919,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
@@ -1942,7 +1933,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C11" s="9" t="s">
         <v>26</v>
       </c>
@@ -1956,7 +1947,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C12" s="9" t="s">
         <v>28</v>
       </c>
@@ -1970,7 +1961,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C13" s="9" t="s">
         <v>30</v>
       </c>
@@ -1986,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C14" s="9" t="s">
         <v>31</v>
       </c>
@@ -2002,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C15" s="31" t="s">
         <v>33</v>
       </c>
@@ -2018,168 +2009,168 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="50" t="s">
+    <row r="16" spans="3:8" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="17" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="52"/>
-    </row>
-    <row r="18" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="53"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="55"/>
-    </row>
-    <row r="19" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="53"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="55"/>
-    </row>
-    <row r="20" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="55"/>
-    </row>
-    <row r="21" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="53"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="55"/>
-    </row>
-    <row r="22" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="53"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="55"/>
-    </row>
-    <row r="23" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="53"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="55"/>
-    </row>
-    <row r="24" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="53"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="55"/>
-    </row>
-    <row r="25" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="53"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="55"/>
-    </row>
-    <row r="26" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="53"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="55"/>
-    </row>
-    <row r="27" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="53"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="55"/>
-    </row>
-    <row r="28" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="53"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="55"/>
-    </row>
-    <row r="29" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="53"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="55"/>
-    </row>
-    <row r="30" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="53"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="55"/>
-    </row>
-    <row r="31" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="53"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="55"/>
-    </row>
-    <row r="32" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="53"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="55"/>
-    </row>
-    <row r="33" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="53"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="55"/>
-    </row>
-    <row r="34" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="53"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="55"/>
-    </row>
-    <row r="35" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="53"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="55"/>
-    </row>
-    <row r="36" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="56"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="58"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
+    </row>
+    <row r="18" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="53"/>
+    </row>
+    <row r="19" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="53"/>
+    </row>
+    <row r="20" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
+    </row>
+    <row r="21" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
+    </row>
+    <row r="22" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="53"/>
+    </row>
+    <row r="23" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+    </row>
+    <row r="24" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="53"/>
+    </row>
+    <row r="25" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="53"/>
+    </row>
+    <row r="26" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
+    </row>
+    <row r="27" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C27" s="51"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="53"/>
+    </row>
+    <row r="28" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C28" s="51"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="53"/>
+    </row>
+    <row r="29" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C29" s="51"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="53"/>
+    </row>
+    <row r="30" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C30" s="51"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="53"/>
+    </row>
+    <row r="31" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C31" s="51"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="53"/>
+    </row>
+    <row r="32" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C32" s="51"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="53"/>
+    </row>
+    <row r="33" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C33" s="51"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="53"/>
+    </row>
+    <row r="34" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C34" s="51"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="53"/>
+    </row>
+    <row r="35" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C35" s="51"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="53"/>
+    </row>
+    <row r="36" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2194,61 +2185,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="D23" sqref="D23:I42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="9.625" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="8.875" customWidth="1"/>
-    <col min="11" max="11" width="16.125" customWidth="1"/>
-    <col min="12" max="14" width="8.875" customWidth="1"/>
-    <col min="15" max="15" width="9.625" customWidth="1"/>
-    <col min="16" max="16" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="11.58203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.58203125" customWidth="1"/>
+    <col min="8" max="8" width="11.58203125" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16.08203125" customWidth="1"/>
+    <col min="12" max="14" width="8.83203125" customWidth="1"/>
+    <col min="15" max="15" width="9.58203125" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.45">
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="70"/>
-    </row>
-    <row r="3" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
+    </row>
+    <row r="3" spans="3:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67"/>
-    </row>
-    <row r="5" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+    </row>
+    <row r="5" spans="3:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D6" s="21" t="s">
         <v>11</v>
       </c>
@@ -2268,7 +2259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.45">
       <c r="D7" s="24" t="s">
         <v>92</v>
       </c>
@@ -2288,7 +2279,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.45">
       <c r="D8" s="37" t="s">
         <v>8</v>
       </c>
@@ -2306,7 +2297,7 @@
       </c>
       <c r="I8" s="40"/>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.45">
       <c r="D9" s="14" t="s">
         <v>93</v>
       </c>
@@ -2322,7 +2313,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.45">
       <c r="D10" s="14" t="s">
         <v>144</v>
       </c>
@@ -2338,7 +2329,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.45">
       <c r="D11" s="14" t="s">
         <v>145</v>
       </c>
@@ -2354,7 +2345,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.45">
       <c r="D12" s="14" t="s">
         <v>138</v>
       </c>
@@ -2370,7 +2361,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.45">
       <c r="D13" s="14" t="s">
         <v>94</v>
       </c>
@@ -2385,36 +2376,36 @@
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="80" t="s">
+      <c r="J13" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="K13" s="81"/>
+      <c r="K13" s="79"/>
       <c r="M13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.45">
       <c r="D14" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="47"/>
       <c r="M14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.45">
       <c r="D15" s="14" t="s">
         <v>95</v>
       </c>
@@ -2434,7 +2425,7 @@
       <c r="J15" s="41"/>
       <c r="K15" s="47"/>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.45">
       <c r="D16" s="14" t="s">
         <v>111</v>
       </c>
@@ -2454,7 +2445,7 @@
       <c r="J16" s="41"/>
       <c r="K16" s="47"/>
     </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D17" s="44" t="s">
         <v>113</v>
       </c>
@@ -2474,7 +2465,7 @@
       <c r="J17" s="42"/>
       <c r="K17" s="43"/>
     </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D18" s="44" t="s">
         <v>115</v>
       </c>
@@ -2488,7 +2479,7 @@
       <c r="H18" s="45"/>
       <c r="I18" s="46"/>
     </row>
-    <row r="19" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D19" s="15" t="s">
         <v>96</v>
       </c>
@@ -2506,168 +2497,168 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="4:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="73"/>
-    </row>
-    <row r="24" spans="4:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="74"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="76"/>
-    </row>
-    <row r="25" spans="4:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="74"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="76"/>
-    </row>
-    <row r="26" spans="4:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="74"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="76"/>
-    </row>
-    <row r="27" spans="4:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="74"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="76"/>
-    </row>
-    <row r="28" spans="4:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="74"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="76"/>
-    </row>
-    <row r="29" spans="4:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="74"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="76"/>
-    </row>
-    <row r="30" spans="4:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="74"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="76"/>
-    </row>
-    <row r="31" spans="4:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="74"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="76"/>
-    </row>
-    <row r="32" spans="4:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="74"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="76"/>
-    </row>
-    <row r="33" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="74"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="76"/>
-    </row>
-    <row r="34" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76"/>
-    </row>
-    <row r="35" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="74"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="76"/>
-    </row>
-    <row r="36" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="74"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="76"/>
-    </row>
-    <row r="37" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="74"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="76"/>
-    </row>
-    <row r="38" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="74"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="76"/>
-    </row>
-    <row r="39" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="74"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="76"/>
-    </row>
-    <row r="40" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="74"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="76"/>
-    </row>
-    <row r="41" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="74"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="76"/>
-    </row>
-    <row r="42" spans="4:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="77"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="79"/>
+    <row r="22" spans="4:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="23" spans="4:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D23" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="71"/>
+    </row>
+    <row r="24" spans="4:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="74"/>
+    </row>
+    <row r="25" spans="4:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D25" s="72"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="74"/>
+    </row>
+    <row r="26" spans="4:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="74"/>
+    </row>
+    <row r="27" spans="4:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="74"/>
+    </row>
+    <row r="28" spans="4:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="74"/>
+    </row>
+    <row r="29" spans="4:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D29" s="72"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="74"/>
+    </row>
+    <row r="30" spans="4:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="74"/>
+    </row>
+    <row r="31" spans="4:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D31" s="72"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="74"/>
+    </row>
+    <row r="32" spans="4:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D32" s="72"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="74"/>
+    </row>
+    <row r="33" spans="4:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D33" s="72"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="74"/>
+    </row>
+    <row r="34" spans="4:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D34" s="72"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="74"/>
+    </row>
+    <row r="35" spans="4:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D35" s="72"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="74"/>
+    </row>
+    <row r="36" spans="4:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D36" s="72"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="74"/>
+    </row>
+    <row r="37" spans="4:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D37" s="72"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="74"/>
+    </row>
+    <row r="38" spans="4:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D38" s="72"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="74"/>
+    </row>
+    <row r="39" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D39" s="72"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="74"/>
+    </row>
+    <row r="40" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D40" s="72"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="74"/>
+    </row>
+    <row r="41" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D41" s="72"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="74"/>
+    </row>
+    <row r="42" spans="4:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D42" s="75"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2683,56 +2674,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C1:H29"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C16" sqref="C16:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="9.625" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.58203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.58203125" customWidth="1"/>
+    <col min="8" max="8" width="11.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
-    </row>
-    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+    </row>
+    <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
-    </row>
-    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
+    </row>
+    <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -2752,7 +2743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C7" s="24" t="s">
         <v>58</v>
       </c>
@@ -2772,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
@@ -2790,7 +2781,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C9" s="9" t="s">
         <v>59</v>
       </c>
@@ -2806,7 +2797,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C10" s="9" t="s">
         <v>60</v>
       </c>
@@ -2822,7 +2813,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C11" s="9" t="s">
         <v>61</v>
       </c>
@@ -2838,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C12" s="9" t="s">
         <v>62</v>
       </c>
@@ -2852,7 +2843,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C13" s="9" t="s">
         <v>63</v>
       </c>
@@ -2868,7 +2859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C14" s="10" t="s">
         <v>79</v>
       </c>
@@ -2882,120 +2873,120 @@
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="71" t="s">
+    <row r="15" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C16" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="73"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="74"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="76"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="76"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="76"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="74"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="76"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="74"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="76"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="74"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="76"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="74"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="76"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="76"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="74"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="76"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="74"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="76"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="74"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="76"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="74"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
-    </row>
-    <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="77"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="79"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="71"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C17" s="72"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="74"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C21" s="72"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="74"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="74"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="74"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="74"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="74"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C26" s="72"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="74"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C27" s="72"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="74"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="74"/>
+    </row>
+    <row r="29" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3009,56 +3000,56 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C1:K29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="9.625" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.58203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.58203125" customWidth="1"/>
+    <col min="8" max="8" width="11.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
-    </row>
-    <row r="3" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+    </row>
+    <row r="3" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
-    </row>
-    <row r="5" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
+    </row>
+    <row r="5" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -3078,7 +3069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C7" s="24" t="s">
         <v>47</v>
       </c>
@@ -3098,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
@@ -3116,7 +3107,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C9" s="9" t="s">
         <v>50</v>
       </c>
@@ -3132,7 +3123,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C10" s="9" t="s">
         <v>51</v>
       </c>
@@ -3146,7 +3137,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C11" s="9" t="s">
         <v>124</v>
       </c>
@@ -3162,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C12" s="9" t="s">
         <v>52</v>
       </c>
@@ -3181,7 +3172,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C13" s="9" t="s">
         <v>73</v>
       </c>
@@ -3195,113 +3186,113 @@
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="15" spans="3:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="3:11" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="71" t="s">
+    <row r="15" spans="3:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="3:11" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="17" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="73"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="76"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="76"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="74"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="76"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="74"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="76"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="74"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="76"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="74"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="76"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="76"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="74"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="76"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="74"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="76"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="74"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="76"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="74"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
-    </row>
-    <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="77"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="79"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="71"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C21" s="72"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="74"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="74"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="74"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="74"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="74"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C26" s="72"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="74"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C27" s="72"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="74"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="74"/>
+    </row>
+    <row r="29" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3316,75 +3307,75 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="25.75" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="18.875" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
-    <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.08203125" customWidth="1"/>
+    <col min="7" max="7" width="15.08203125" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
     <col min="12" max="12" width="14.75" customWidth="1"/>
     <col min="13" max="13" width="17.25" customWidth="1"/>
-    <col min="14" max="14" width="14.625" customWidth="1"/>
-    <col min="15" max="15" width="16.375" customWidth="1"/>
-    <col min="16" max="16" width="14.375" customWidth="1"/>
-    <col min="17" max="17" width="13.875" customWidth="1"/>
+    <col min="14" max="14" width="14.58203125" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
       <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="59" t="s">
+      <c r="M2" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="61"/>
-    </row>
-    <row r="3" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="59"/>
+    </row>
+    <row r="3" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
       <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="82" t="s">
+      <c r="M3" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="84"/>
-    </row>
-    <row r="5" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="82"/>
+    </row>
+    <row r="5" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -3396,7 +3387,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -3434,7 +3425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C7" s="24" t="s">
         <v>98</v>
       </c>
@@ -3464,7 +3455,7 @@
       </c>
       <c r="Q7" s="27"/>
     </row>
-    <row r="8" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C8" s="9" t="s">
         <v>47</v>
       </c>
@@ -3494,7 +3485,7 @@
       </c>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
@@ -3524,7 +3515,7 @@
       </c>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C10" s="9" t="s">
         <v>102</v>
       </c>
@@ -3550,7 +3541,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C11" s="9" t="s">
         <v>104</v>
       </c>
@@ -3576,7 +3567,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C12" s="9" t="s">
         <v>105</v>
       </c>
@@ -3602,206 +3593,206 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="14" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C15" s="71" t="s">
+    <row r="14" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C15" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="73"/>
-      <c r="L15" s="71" t="s">
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="71"/>
+      <c r="L15" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="73"/>
-    </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C16" s="74"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="76"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="76"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C17" s="74"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="76"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="76"/>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="76"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="76"/>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="76"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="76"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C20" s="74"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="76"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="76"/>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C21" s="74"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="76"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="76"/>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C22" s="74"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="76"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="76"/>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C23" s="74"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="76"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="76"/>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="76"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="76"/>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C25" s="74"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="76"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="76"/>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C26" s="74"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="76"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="76"/>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C27" s="74"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="76"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="76"/>
-    </row>
-    <row r="28" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="77"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="79"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="79"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="71"/>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="74"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="74"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C17" s="72"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="74"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="74"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="74"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="74"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="74"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C21" s="72"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="74"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="74"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="74"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="74"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="74"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="74"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="74"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="74"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="74"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="74"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C26" s="72"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="74"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="74"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C27" s="72"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="74"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="74"/>
+    </row>
+    <row r="28" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C28" s="75"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="77"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3819,56 +3810,56 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C1:H29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="9.625" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.58203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.58203125" customWidth="1"/>
+    <col min="8" max="8" width="11.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
-    </row>
-    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
+    </row>
+    <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
-    </row>
-    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="65"/>
+    </row>
+    <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -3888,7 +3879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C7" s="24" t="s">
         <v>126</v>
       </c>
@@ -3908,7 +3899,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C8" s="14" t="s">
         <v>68</v>
       </c>
@@ -3926,7 +3917,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C9" s="14" t="s">
         <v>132</v>
       </c>
@@ -3942,7 +3933,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C10" s="14" t="s">
         <v>134</v>
       </c>
@@ -3958,7 +3949,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C11" s="14" t="s">
         <v>136</v>
       </c>
@@ -3974,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C12" s="30" t="s">
         <v>137</v>
       </c>
@@ -3992,128 +3983,128 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="71" t="s">
+    <row r="14" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="15" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="73"/>
-    </row>
-    <row r="16" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="74"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="76"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="74"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="76"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="76"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="76"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="74"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="76"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="74"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="76"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="74"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="76"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="74"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="76"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="76"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="74"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="76"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="74"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="76"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="74"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="76"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="74"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
-    </row>
-    <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="77"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="79"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="71"/>
+    </row>
+    <row r="16" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="74"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C17" s="72"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="74"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C21" s="72"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="74"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="74"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="74"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="74"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="74"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C26" s="72"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="74"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C27" s="72"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="74"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="74"/>
+    </row>
+    <row r="29" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/문서파일/QuizBeeDB.xlsx
+++ b/문서파일/QuizBeeDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doyou\OneDrive\Desktop\QuizBee\문서파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279ED5CF-8F75-429D-9A7A-676C7C02387C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FD83AF-269C-4541-9FD9-D541B5EA16DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="BOARD" sheetId="10" r:id="rId4"/>
     <sheet name="COMMENT" sheetId="13" r:id="rId5"/>
     <sheet name="NOTICE" sheetId="12" r:id="rId6"/>
+    <sheet name="Reports" sheetId="14" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="162">
   <si>
     <t>auto</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -556,38 +557,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>create table quiz_board (
-board_no int not null auto_increment,
-user_no int not null,
-board_tit varchar(40) not null,
-board_content varchar(300),
-board_view int default 0,
-board_day timestamp default now(),
-board_img varchar(1000),
-primary key(board_no),
-foreign key(user_no) references quiz_user(user_no) on delete cascade
-) comment = '게시판 테이블'
-engine=InnoDB;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">create table quiz_qna(
-qna_no int not null auto_increment,
-user_no int not null,
-qna_tit varchar(40) not null,
-qna_content varchar(300) not null,
-qna_view int default 0,
-qna_ans varchar(300),
-qna_day timestamp default now(),
-qna_secret int,
-primary key(qna_no),
-foreign key(user_no) references quiz_user(user_no) on delete cascade
-) comment = '고객센터 테이블'
-engine=InnoDB;
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>create table quiz_notice(
 notice_no int not null auto_increment,
 user_no int not null,
@@ -713,6 +682,86 @@
    deleted_at timestamp NULL DEFAULT NULL,
   PRIMARY KEY (user_no)
 ) ENGINE=InnoDB AUTO_INCREMENT=18 DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_general_ci COMMENT='유저'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table quiz_qna(
+qna_no int not null auto_increment,
+user_no int not null,
+qna_tit varchar(40) not null,
+qna_content varchar(300) not null,
+qna_view int default 0,
+qna_ans varchar(300),
+qna_day timestamp default now(),
+qna_secret int,
+primary key(qna_no),
+foreign key(user_no) references quiz_user(user_no) on delete cascade
+) comment = '고객센터 테이블'
+engine=InnoDB;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table quiz_board (
+board_no int not null auto_increment,
+user_no int not null,
+board_tit varchar(40) not null,
+board_content varchar(300),
+board_view int default 0,
+board_day timestamp default now(),
+board_ans varchar(1000) not null,
+board_img varchar(1000),
+primary key(board_no),
+foreign key(user_no) references quiz_user(user_no) on delete cascade
+) comment = '게시판 테이블'
+engine=InnoDB;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table quiz_reports (
+reports_no int not null auto_increment,
+user_no int not null,
+content varchar(100),
+report_day TIMESTAMP DEFAULT CURRENT_TIMESTAMP,
+user_nick varchar(45)
+primary key(reports_no)
+) comment = '신고 테이블'
+engine=InnoDB;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quiz_reports</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reports_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report_day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> CURRENT_TIMESTAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2188,7 +2237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D23" sqref="D23:I42"/>
     </sheetView>
   </sheetViews>
@@ -2315,7 +2364,7 @@
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.45">
       <c r="D10" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>110</v>
@@ -2331,7 +2380,7 @@
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.45">
       <c r="D11" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>110</v>
@@ -2347,10 +2396,10 @@
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.45">
       <c r="D12" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>1</v>
@@ -2381,18 +2430,18 @@
       </c>
       <c r="K13" s="79"/>
       <c r="M13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.45">
       <c r="D14" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>3</v>
@@ -2402,7 +2451,7 @@
       <c r="J14" s="41"/>
       <c r="K14" s="47"/>
       <c r="M14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.45">
@@ -2500,7 +2549,7 @@
     <row r="22" spans="4:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="23" spans="4:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D23" s="69" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E23" s="70"/>
       <c r="F23" s="70"/>
@@ -2876,7 +2925,7 @@
     <row r="15" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="16" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C16" s="69" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
@@ -3004,7 +3053,7 @@
   <dimension ref="C1:K29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C17" sqref="C17:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3190,7 +3239,7 @@
     <row r="16" spans="3:11" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="17" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C17" s="69" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="D17" s="70"/>
       <c r="E17" s="70"/>
@@ -3346,7 +3395,7 @@
         <v>7</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N2" s="58"/>
       <c r="O2" s="58"/>
@@ -3584,7 +3633,7 @@
         <v>105</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>106</v>
@@ -3596,7 +3645,7 @@
     <row r="14" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="15" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C15" s="69" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D15" s="70"/>
       <c r="E15" s="70"/>
@@ -3604,7 +3653,7 @@
       <c r="G15" s="70"/>
       <c r="H15" s="71"/>
       <c r="L15" s="69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M15" s="70"/>
       <c r="N15" s="70"/>
@@ -3814,7 +3863,7 @@
   <dimension ref="C1:H29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I32" sqref="C2:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3884,7 +3933,7 @@
         <v>126</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>2</v>
@@ -3919,10 +3968,10 @@
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C9" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>1</v>
@@ -3935,10 +3984,10 @@
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C10" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>1</v>
@@ -3951,7 +4000,7 @@
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C11" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>41</v>
@@ -3967,7 +4016,7 @@
     </row>
     <row r="12" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C12" s="30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>45</v>
@@ -3986,7 +4035,7 @@
     <row r="14" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="15" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C15" s="69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D15" s="70"/>
       <c r="E15" s="70"/>
@@ -4115,4 +4164,288 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18D5A9B-4BF1-4E4D-AC2E-FABFBBA3120F}">
+  <dimension ref="C1:H28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="23.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
+    </row>
+    <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="65"/>
+    </row>
+    <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C9" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C10" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C14" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="71"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="74"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="74"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C17" s="72"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="74"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C21" s="72"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="74"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="74"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="74"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="74"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="74"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C26" s="72"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="74"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C27" s="72"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="74"/>
+    </row>
+    <row r="28" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C28" s="75"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="C14:H28"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/문서파일/QuizBeeDB.xlsx
+++ b/문서파일/QuizBeeDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doyou\OneDrive\Desktop\QuizBee\문서파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FD83AF-269C-4541-9FD9-D541B5EA16DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A8CED4-33DA-43FB-B7F0-93EF405F65B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="169">
   <si>
     <t>auto</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -538,22 +538,6 @@
   </si>
   <si>
     <t>notice_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create table quiz_user(
-user_no int not null auto_increment,
-user_nick varchar(45),
-user_id varchar(45),
-user_passwd varchar(45),
-user_email varchar(45),
-user_num varchar(45)
-user_type int default 0,
-user_login_ty int default 0,
-user_day timestamp default now(),
-primary key(user_no)
-) comment = '유저'
-engine = InnoDB;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -666,22 +650,6 @@
   </si>
   <si>
     <t>정답이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE TABLE quiz_user (
-  user_no int NOT NULL AUTO_INCREMENT,
-  user_id varchar(45) NOT NULL,
-  user_nick varchar(45) NOT NULL,
-  user_email varchar(45) NOT NULL,
-  user_passwd varchar(100) ,
-  user_login_ty int DEFAULT '0',
-  user_type int DEFAULT '0',
-  user_day timestamp NULL DEFAULT CURRENT_TIMESTAMP,
-  user_num varchar(45) ,
-   deleted_at timestamp NULL DEFAULT NULL,
-  PRIMARY KEY (user_no)
-) ENGINE=InnoDB AUTO_INCREMENT=18 DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_general_ci COMMENT='유저'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -762,6 +730,82 @@
   </si>
   <si>
     <t>닉네임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quiz_images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quiz_answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quiz_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀴즈댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀴즈내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE quiz_images (
+  id int NOT NULL AUTO_INCREMENT,
+  quiz_no int DEFAULT NULL,
+  image_path varchar(1000) DEFAULT NULL,
+  answers text,
+  hint1 varchar(100) DEFAULT NULL,
+  hint2 varchar(100) DEFAULT NULL,
+  PRIMARY KEY (id),
+  KEY quiz_no (quiz_no),
+  CONSTRAINT quiz_images_ibfk_1 FOREIGN KEY (quiz_no) REFERENCES quiz_info (quiz_no)
+) ENGINE=InnoDB AUTO_INCREMENT=75 DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_0900_ai_ci</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE quiz_info (
+  quiz_no int NOT NULL AUTO_INCREMENT,
+  user_no int DEFAULT NULL,
+  quiz_tit varchar(40) DEFAULT NULL,
+  quiz_hint1 varchar(50) DEFAULT NULL,
+  quiz_hint2 varchar(50) DEFAULT NULL,
+  quiz_thimg varchar(1000) DEFAULT NULL,
+  quiz_img text,
+  quiz_category int DEFAULT '1',
+  quiz_level int DEFAULT '1',
+  quiz_view int DEFAULT '0',
+  quiz_report varchar(100) DEFAULT NULL,
+  quiz_day timestamp NULL DEFAULT CURRENT_TIMESTAMP,
+  quiz_answer varchar(100) DEFAULT NULL,
+  quiz_content varchar(1000) DEFAULT NULL,
+  PRIMARY KEY (quiz_no),
+  KEY user_no (user_no),
+  CONSTRAINT quiz_info_ibfk_1 FOREIGN KEY (user_no) REFERENCES quiz_user (user_no) ON DELETE CASCADE
+) ENGINE=InnoDB AUTO_INCREMENT=33 DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_0900_ai_ci COMMENT='퀴즈 테이블'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table quiz_user(
+user_no int not null auto_increment,
+user_nick varchar(100),
+user_id varchar(100),
+user_passwd varchar(100),
+user_email varchar(100),
+user_num varchar(100)
+user_type int default 0,
+user_login_ty int default 0,
+user_day timestamp default now(),
+primary key(user_no)
+) comment = '유저'
+engine = InnoDB;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -841,7 +885,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1331,11 +1375,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1513,6 +1599,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1854,7 +1946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C17" sqref="C17:H36"/>
     </sheetView>
   </sheetViews>
@@ -2061,7 +2153,7 @@
     <row r="16" spans="3:8" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="17" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C17" s="48" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="49"/>
@@ -2235,10 +2327,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C1:M42"/>
+  <dimension ref="C1:T42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:I42"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23:T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2252,43 +2344,67 @@
     <col min="10" max="10" width="8.83203125" customWidth="1"/>
     <col min="11" max="11" width="16.08203125" customWidth="1"/>
     <col min="12" max="14" width="8.83203125" customWidth="1"/>
-    <col min="15" max="15" width="9.58203125" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" customWidth="1"/>
     <col min="16" max="16" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="3:20" x14ac:dyDescent="0.45">
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="66" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="F2" s="67"/>
       <c r="G2" s="67"/>
       <c r="H2" s="67"/>
       <c r="I2" s="68"/>
-    </row>
-    <row r="3" spans="3:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="O2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="68"/>
+    </row>
+    <row r="3" spans="3:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="63" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="F3" s="64"/>
       <c r="G3" s="64"/>
       <c r="H3" s="64"/>
       <c r="I3" s="65"/>
-    </row>
-    <row r="5" spans="3:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="O3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="65"/>
+    </row>
+    <row r="5" spans="3:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="3:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="3:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D6" s="21" t="s">
         <v>11</v>
       </c>
@@ -2307,10 +2423,28 @@
       <c r="I6" s="23" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="O6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="S6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.45">
       <c r="D7" s="24" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>82</v>
@@ -2327,10 +2461,28 @@
       <c r="I7" s="27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="O7" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.45">
       <c r="D8" s="37" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="E8" s="38" t="s">
         <v>49</v>
@@ -2345,8 +2497,24 @@
         <v>57</v>
       </c>
       <c r="I8" s="40"/>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="O8" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="T8" s="40"/>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.45">
       <c r="D9" s="14" t="s">
         <v>93</v>
       </c>
@@ -2361,10 +2529,24 @@
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="O9" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="5"/>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.45">
       <c r="D10" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>110</v>
@@ -2377,10 +2559,24 @@
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="O10" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="5"/>
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.45">
       <c r="D11" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>110</v>
@@ -2393,13 +2589,27 @@
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="O11" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11" s="5"/>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.45">
       <c r="D12" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>1</v>
@@ -2409,8 +2619,22 @@
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="O12" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="5"/>
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.45">
       <c r="D13" s="14" t="s">
         <v>94</v>
       </c>
@@ -2430,18 +2654,32 @@
       </c>
       <c r="K13" s="79"/>
       <c r="M13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.45">
+        <v>146</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="S13" s="5"/>
+      <c r="T13" s="6"/>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.45">
       <c r="D14" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>3</v>
@@ -2451,10 +2689,26 @@
       <c r="J14" s="41"/>
       <c r="K14" s="47"/>
       <c r="M14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.45">
+        <v>147</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="5"/>
+      <c r="T14" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.45">
       <c r="D15" s="14" t="s">
         <v>95</v>
       </c>
@@ -2473,8 +2727,24 @@
       </c>
       <c r="J15" s="41"/>
       <c r="K15" s="47"/>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="O15" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="17"/>
+      <c r="T15" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.45">
       <c r="D16" s="14" t="s">
         <v>111</v>
       </c>
@@ -2493,8 +2763,24 @@
       </c>
       <c r="J16" s="41"/>
       <c r="K16" s="47"/>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="O16" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="S16" s="45"/>
+      <c r="T16" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.45">
       <c r="D17" s="44" t="s">
         <v>113</v>
       </c>
@@ -2513,8 +2799,20 @@
       </c>
       <c r="J17" s="42"/>
       <c r="K17" s="43"/>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="O17" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q17" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="46"/>
+    </row>
+    <row r="18" spans="4:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D18" s="44" t="s">
         <v>115</v>
       </c>
@@ -2527,8 +2825,24 @@
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="46"/>
-    </row>
-    <row r="19" spans="4:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="O18" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="19"/>
+      <c r="T18" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="4:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D19" s="15" t="s">
         <v>96</v>
       </c>
@@ -2545,176 +2859,325 @@
       <c r="I19" s="20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="4:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="23" spans="4:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O19" s="83" t="s">
+        <v>161</v>
+      </c>
+      <c r="P19" s="84" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q19" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="T19" s="87"/>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="O20" s="85" t="s">
+        <v>162</v>
+      </c>
+      <c r="P20" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q20" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" s="86"/>
+      <c r="S20" s="86"/>
+      <c r="T20" s="88"/>
+    </row>
+    <row r="22" spans="4:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="23" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D23" s="69" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="E23" s="70"/>
       <c r="F23" s="70"/>
       <c r="G23" s="70"/>
       <c r="H23" s="70"/>
       <c r="I23" s="71"/>
-    </row>
-    <row r="24" spans="4:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O23" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="71"/>
+    </row>
+    <row r="24" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D24" s="72"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="73"/>
       <c r="H24" s="73"/>
       <c r="I24" s="74"/>
-    </row>
-    <row r="25" spans="4:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O24" s="72"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="74"/>
+    </row>
+    <row r="25" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D25" s="72"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="73"/>
       <c r="H25" s="73"/>
       <c r="I25" s="74"/>
-    </row>
-    <row r="26" spans="4:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O25" s="72"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="74"/>
+    </row>
+    <row r="26" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D26" s="72"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="73"/>
       <c r="H26" s="73"/>
       <c r="I26" s="74"/>
-    </row>
-    <row r="27" spans="4:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O26" s="72"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="74"/>
+    </row>
+    <row r="27" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D27" s="72"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="73"/>
       <c r="H27" s="73"/>
       <c r="I27" s="74"/>
-    </row>
-    <row r="28" spans="4:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O27" s="72"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="74"/>
+    </row>
+    <row r="28" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D28" s="72"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="73"/>
       <c r="H28" s="73"/>
       <c r="I28" s="74"/>
-    </row>
-    <row r="29" spans="4:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O28" s="72"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="74"/>
+    </row>
+    <row r="29" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D29" s="72"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="73"/>
       <c r="H29" s="73"/>
       <c r="I29" s="74"/>
-    </row>
-    <row r="30" spans="4:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O29" s="72"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="74"/>
+    </row>
+    <row r="30" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D30" s="72"/>
       <c r="E30" s="73"/>
       <c r="F30" s="73"/>
       <c r="G30" s="73"/>
       <c r="H30" s="73"/>
       <c r="I30" s="74"/>
-    </row>
-    <row r="31" spans="4:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O30" s="72"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="74"/>
+    </row>
+    <row r="31" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D31" s="72"/>
       <c r="E31" s="73"/>
       <c r="F31" s="73"/>
       <c r="G31" s="73"/>
       <c r="H31" s="73"/>
       <c r="I31" s="74"/>
-    </row>
-    <row r="32" spans="4:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O31" s="72"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="74"/>
+    </row>
+    <row r="32" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D32" s="72"/>
       <c r="E32" s="73"/>
       <c r="F32" s="73"/>
       <c r="G32" s="73"/>
       <c r="H32" s="73"/>
       <c r="I32" s="74"/>
-    </row>
-    <row r="33" spans="4:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O32" s="72"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="74"/>
+    </row>
+    <row r="33" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D33" s="72"/>
       <c r="E33" s="73"/>
       <c r="F33" s="73"/>
       <c r="G33" s="73"/>
       <c r="H33" s="73"/>
       <c r="I33" s="74"/>
-    </row>
-    <row r="34" spans="4:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O33" s="72"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="74"/>
+    </row>
+    <row r="34" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D34" s="72"/>
       <c r="E34" s="73"/>
       <c r="F34" s="73"/>
       <c r="G34" s="73"/>
       <c r="H34" s="73"/>
       <c r="I34" s="74"/>
-    </row>
-    <row r="35" spans="4:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O34" s="72"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="73"/>
+      <c r="S34" s="73"/>
+      <c r="T34" s="74"/>
+    </row>
+    <row r="35" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D35" s="72"/>
       <c r="E35" s="73"/>
       <c r="F35" s="73"/>
       <c r="G35" s="73"/>
       <c r="H35" s="73"/>
       <c r="I35" s="74"/>
-    </row>
-    <row r="36" spans="4:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O35" s="72"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="74"/>
+    </row>
+    <row r="36" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D36" s="72"/>
       <c r="E36" s="73"/>
       <c r="F36" s="73"/>
       <c r="G36" s="73"/>
       <c r="H36" s="73"/>
       <c r="I36" s="74"/>
-    </row>
-    <row r="37" spans="4:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O36" s="72"/>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="73"/>
+      <c r="S36" s="73"/>
+      <c r="T36" s="74"/>
+    </row>
+    <row r="37" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D37" s="72"/>
       <c r="E37" s="73"/>
       <c r="F37" s="73"/>
       <c r="G37" s="73"/>
       <c r="H37" s="73"/>
       <c r="I37" s="74"/>
-    </row>
-    <row r="38" spans="4:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O37" s="72"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="74"/>
+    </row>
+    <row r="38" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D38" s="72"/>
       <c r="E38" s="73"/>
       <c r="F38" s="73"/>
       <c r="G38" s="73"/>
       <c r="H38" s="73"/>
       <c r="I38" s="74"/>
-    </row>
-    <row r="39" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O38" s="72"/>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="74"/>
+    </row>
+    <row r="39" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D39" s="72"/>
       <c r="E39" s="73"/>
       <c r="F39" s="73"/>
       <c r="G39" s="73"/>
       <c r="H39" s="73"/>
       <c r="I39" s="74"/>
-    </row>
-    <row r="40" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O39" s="72"/>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="73"/>
+      <c r="T39" s="74"/>
+    </row>
+    <row r="40" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D40" s="72"/>
       <c r="E40" s="73"/>
       <c r="F40" s="73"/>
       <c r="G40" s="73"/>
       <c r="H40" s="73"/>
       <c r="I40" s="74"/>
-    </row>
-    <row r="41" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O40" s="72"/>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="73"/>
+      <c r="R40" s="73"/>
+      <c r="S40" s="73"/>
+      <c r="T40" s="74"/>
+    </row>
+    <row r="41" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D41" s="72"/>
       <c r="E41" s="73"/>
       <c r="F41" s="73"/>
       <c r="G41" s="73"/>
       <c r="H41" s="73"/>
       <c r="I41" s="74"/>
-    </row>
-    <row r="42" spans="4:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="O41" s="72"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="73"/>
+      <c r="T41" s="74"/>
+    </row>
+    <row r="42" spans="4:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D42" s="75"/>
       <c r="E42" s="76"/>
       <c r="F42" s="76"/>
       <c r="G42" s="76"/>
       <c r="H42" s="76"/>
       <c r="I42" s="77"/>
+      <c r="O42" s="75"/>
+      <c r="P42" s="76"/>
+      <c r="Q42" s="76"/>
+      <c r="R42" s="76"/>
+      <c r="S42" s="76"/>
+      <c r="T42" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="D23:I42"/>
     <mergeCell ref="J13:K13"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="O23:T42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2925,7 +3388,7 @@
     <row r="15" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="16" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C16" s="69" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
@@ -3239,7 +3702,7 @@
     <row r="16" spans="3:11" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="17" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C17" s="69" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D17" s="70"/>
       <c r="E17" s="70"/>
@@ -3395,7 +3858,7 @@
         <v>7</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N2" s="58"/>
       <c r="O2" s="58"/>
@@ -3633,7 +4096,7 @@
         <v>105</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>106</v>
@@ -3645,7 +4108,7 @@
     <row r="14" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="15" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C15" s="69" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D15" s="70"/>
       <c r="E15" s="70"/>
@@ -3653,7 +4116,7 @@
       <c r="G15" s="70"/>
       <c r="H15" s="71"/>
       <c r="L15" s="69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M15" s="70"/>
       <c r="N15" s="70"/>
@@ -3863,7 +4326,7 @@
   <dimension ref="C1:H29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I32" sqref="C2:I32"/>
+      <selection activeCell="C15" sqref="C15:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3933,7 +4396,7 @@
         <v>126</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>2</v>
@@ -3968,10 +4431,10 @@
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C9" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>1</v>
@@ -3984,10 +4447,10 @@
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C10" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>1</v>
@@ -4000,7 +4463,7 @@
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C11" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>41</v>
@@ -4016,7 +4479,7 @@
     </row>
     <row r="12" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C12" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>45</v>
@@ -4035,7 +4498,7 @@
     <row r="14" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="15" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C15" s="69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" s="70"/>
       <c r="E15" s="70"/>
@@ -4170,7 +4633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18D5A9B-4BF1-4E4D-AC2E-FABFBBA3120F}">
   <dimension ref="C1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -4186,7 +4649,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E2" s="67"/>
       <c r="F2" s="67"/>
@@ -4234,10 +4697,10 @@
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C7" s="24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>2</v>
@@ -4272,10 +4735,10 @@
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C9" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>1</v>
@@ -4286,10 +4749,10 @@
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C10" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>35</v>
@@ -4297,7 +4760,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="5"/>
       <c r="H10" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.45">
@@ -4305,7 +4768,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>1</v>
@@ -4319,7 +4782,7 @@
     <row r="13" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="14" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C14" s="69" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D14" s="70"/>
       <c r="E14" s="70"/>

--- a/문서파일/QuizBeeDB.xlsx
+++ b/문서파일/QuizBeeDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doyou\OneDrive\Desktop\QuizBee\문서파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A8CED4-33DA-43FB-B7F0-93EF405F65B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3657BA8-3676-4DF9-BC9C-0D4B97B4B160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="3" r:id="rId1"/>
@@ -1512,6 +1512,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1599,12 +1605,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1946,7 +1946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C17" sqref="C17:H36"/>
     </sheetView>
   </sheetViews>
@@ -1965,25 +1965,25 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
     </row>
     <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="68"/>
     </row>
     <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="1"/>
@@ -2152,166 +2152,166 @@
     </row>
     <row r="16" spans="3:8" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="17" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="56"/>
     </row>
     <row r="18" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="53"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="59"/>
     </row>
     <row r="19" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="53"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
     </row>
     <row r="20" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="59"/>
     </row>
     <row r="21" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="53"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="59"/>
     </row>
     <row r="22" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="53"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="59"/>
     </row>
     <row r="23" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="53"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
     </row>
     <row r="24" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="53"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="59"/>
     </row>
     <row r="25" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="53"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="59"/>
     </row>
     <row r="26" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="59"/>
     </row>
     <row r="27" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C27" s="51"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="53"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="59"/>
     </row>
     <row r="28" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C28" s="51"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="53"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="59"/>
     </row>
     <row r="29" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="51"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="53"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="59"/>
     </row>
     <row r="30" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C30" s="51"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="53"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="59"/>
     </row>
     <row r="31" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C31" s="51"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="53"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="59"/>
     </row>
     <row r="32" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C32" s="51"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="53"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="59"/>
     </row>
     <row r="33" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C33" s="51"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="53"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="59"/>
     </row>
     <row r="34" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C34" s="51"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="53"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="59"/>
     </row>
     <row r="35" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C35" s="51"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="53"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="59"/>
     </row>
     <row r="36" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C36" s="54"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="56"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2353,45 +2353,45 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
       <c r="O2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="66" t="s">
+      <c r="P2" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="68"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="74"/>
     </row>
     <row r="3" spans="3:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="65"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
       <c r="O3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="63" t="s">
+      <c r="P3" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="65"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="71"/>
     </row>
     <row r="5" spans="3:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="1"/>
@@ -2649,10 +2649,10 @@
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="78" t="s">
+      <c r="J13" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="K13" s="79"/>
+      <c r="K13" s="85"/>
       <c r="M13" t="s">
         <v>146</v>
       </c>
@@ -2859,19 +2859,19 @@
       <c r="I19" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="O19" s="83" t="s">
+      <c r="O19" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="P19" s="84" t="s">
+      <c r="P19" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="Q19" s="84" t="s">
+      <c r="Q19" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="T19" s="87"/>
+      <c r="T19" s="52"/>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.45">
-      <c r="O20" s="85" t="s">
+      <c r="O20" s="50" t="s">
         <v>162</v>
       </c>
       <c r="P20" s="39" t="s">
@@ -2880,294 +2880,294 @@
       <c r="Q20" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="R20" s="86"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="88"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="53"/>
     </row>
     <row r="22" spans="4:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="23" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D23" s="69" t="s">
+      <c r="D23" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="71"/>
-      <c r="O23" s="69" t="s">
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="77"/>
+      <c r="O23" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="70"/>
-      <c r="R23" s="70"/>
-      <c r="S23" s="70"/>
-      <c r="T23" s="71"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="76"/>
+      <c r="T23" s="77"/>
     </row>
     <row r="24" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="74"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="74"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="80"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="80"/>
     </row>
     <row r="25" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D25" s="72"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="74"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="74"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="80"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="80"/>
     </row>
     <row r="26" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="74"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="73"/>
-      <c r="R26" s="73"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="74"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="80"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="80"/>
     </row>
     <row r="27" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D27" s="72"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="74"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="73"/>
-      <c r="R27" s="73"/>
-      <c r="S27" s="73"/>
-      <c r="T27" s="74"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="80"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="79"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="80"/>
     </row>
     <row r="28" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="74"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="73"/>
-      <c r="R28" s="73"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="74"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="80"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="80"/>
     </row>
     <row r="29" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D29" s="72"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="74"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="74"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="80"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="80"/>
     </row>
     <row r="30" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="74"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="73"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="74"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="80"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="80"/>
     </row>
     <row r="31" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D31" s="72"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="74"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="73"/>
-      <c r="S31" s="73"/>
-      <c r="T31" s="74"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="80"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="79"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="79"/>
+      <c r="S31" s="79"/>
+      <c r="T31" s="80"/>
     </row>
     <row r="32" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D32" s="72"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="74"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="73"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="74"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="80"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="79"/>
+      <c r="Q32" s="79"/>
+      <c r="R32" s="79"/>
+      <c r="S32" s="79"/>
+      <c r="T32" s="80"/>
     </row>
     <row r="33" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D33" s="72"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="74"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="74"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="80"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="79"/>
+      <c r="Q33" s="79"/>
+      <c r="R33" s="79"/>
+      <c r="S33" s="79"/>
+      <c r="T33" s="80"/>
     </row>
     <row r="34" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D34" s="72"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="74"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="73"/>
-      <c r="Q34" s="73"/>
-      <c r="R34" s="73"/>
-      <c r="S34" s="73"/>
-      <c r="T34" s="74"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="80"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="79"/>
+      <c r="Q34" s="79"/>
+      <c r="R34" s="79"/>
+      <c r="S34" s="79"/>
+      <c r="T34" s="80"/>
     </row>
     <row r="35" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D35" s="72"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="74"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="73"/>
-      <c r="R35" s="73"/>
-      <c r="S35" s="73"/>
-      <c r="T35" s="74"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="80"/>
+      <c r="O35" s="78"/>
+      <c r="P35" s="79"/>
+      <c r="Q35" s="79"/>
+      <c r="R35" s="79"/>
+      <c r="S35" s="79"/>
+      <c r="T35" s="80"/>
     </row>
     <row r="36" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D36" s="72"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="74"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="73"/>
-      <c r="Q36" s="73"/>
-      <c r="R36" s="73"/>
-      <c r="S36" s="73"/>
-      <c r="T36" s="74"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="80"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="79"/>
+      <c r="Q36" s="79"/>
+      <c r="R36" s="79"/>
+      <c r="S36" s="79"/>
+      <c r="T36" s="80"/>
     </row>
     <row r="37" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D37" s="72"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="74"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="73"/>
-      <c r="R37" s="73"/>
-      <c r="S37" s="73"/>
-      <c r="T37" s="74"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="80"/>
+      <c r="O37" s="78"/>
+      <c r="P37" s="79"/>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="79"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="80"/>
     </row>
     <row r="38" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D38" s="72"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="74"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="73"/>
-      <c r="Q38" s="73"/>
-      <c r="R38" s="73"/>
-      <c r="S38" s="73"/>
-      <c r="T38" s="74"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="80"/>
+      <c r="O38" s="78"/>
+      <c r="P38" s="79"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="79"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="80"/>
     </row>
     <row r="39" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D39" s="72"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="74"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="73"/>
-      <c r="Q39" s="73"/>
-      <c r="R39" s="73"/>
-      <c r="S39" s="73"/>
-      <c r="T39" s="74"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="80"/>
+      <c r="O39" s="78"/>
+      <c r="P39" s="79"/>
+      <c r="Q39" s="79"/>
+      <c r="R39" s="79"/>
+      <c r="S39" s="79"/>
+      <c r="T39" s="80"/>
     </row>
     <row r="40" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D40" s="72"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="74"/>
-      <c r="O40" s="72"/>
-      <c r="P40" s="73"/>
-      <c r="Q40" s="73"/>
-      <c r="R40" s="73"/>
-      <c r="S40" s="73"/>
-      <c r="T40" s="74"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="80"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="79"/>
+      <c r="Q40" s="79"/>
+      <c r="R40" s="79"/>
+      <c r="S40" s="79"/>
+      <c r="T40" s="80"/>
     </row>
     <row r="41" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D41" s="72"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="74"/>
-      <c r="O41" s="72"/>
-      <c r="P41" s="73"/>
-      <c r="Q41" s="73"/>
-      <c r="R41" s="73"/>
-      <c r="S41" s="73"/>
-      <c r="T41" s="74"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="80"/>
+      <c r="O41" s="78"/>
+      <c r="P41" s="79"/>
+      <c r="Q41" s="79"/>
+      <c r="R41" s="79"/>
+      <c r="S41" s="79"/>
+      <c r="T41" s="80"/>
     </row>
     <row r="42" spans="4:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D42" s="75"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="77"/>
-      <c r="O42" s="75"/>
-      <c r="P42" s="76"/>
-      <c r="Q42" s="76"/>
-      <c r="R42" s="76"/>
-      <c r="S42" s="76"/>
-      <c r="T42" s="77"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="83"/>
+      <c r="O42" s="81"/>
+      <c r="P42" s="82"/>
+      <c r="Q42" s="82"/>
+      <c r="R42" s="82"/>
+      <c r="S42" s="82"/>
+      <c r="T42" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3208,25 +3208,25 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
     </row>
     <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="88"/>
     </row>
     <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="1"/>
@@ -3387,118 +3387,118 @@
     </row>
     <row r="15" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="16" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="71"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="74"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="80"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="80"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="80"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="74"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="80"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C21" s="72"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="74"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="80"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="74"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="80"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="74"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="80"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C24" s="72"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="74"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="80"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C25" s="72"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="74"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="80"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C26" s="72"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="74"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="80"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C27" s="72"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="74"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="80"/>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C28" s="72"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="74"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="80"/>
     </row>
     <row r="29" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C29" s="75"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="77"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3534,25 +3534,25 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
     </row>
     <row r="3" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="88"/>
     </row>
     <row r="5" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="1"/>
@@ -3701,110 +3701,110 @@
     <row r="15" spans="3:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="3:11" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="17" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="71"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="80"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="80"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="74"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="80"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C21" s="72"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="74"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="80"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="74"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="80"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="74"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="80"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C24" s="72"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="74"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="80"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C25" s="72"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="74"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="80"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C26" s="72"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="74"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="80"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C27" s="72"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="74"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="80"/>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C28" s="72"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="74"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="80"/>
     </row>
     <row r="29" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C29" s="75"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="77"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3822,8 +3822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15:Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3847,45 +3847,45 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
       <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="59"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="65"/>
     </row>
     <row r="3" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="88"/>
       <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="80" t="s">
+      <c r="M3" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="82"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="5" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="1"/>
@@ -4107,204 +4107,204 @@
     </row>
     <row r="14" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="15" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="71"/>
-      <c r="L15" s="69" t="s">
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="77"/>
+      <c r="L15" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="71"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="77"/>
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="74"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="74"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="80"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="80"/>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="74"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="74"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="80"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="80"/>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="74"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="80"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="80"/>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="74"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="80"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="80"/>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="74"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="74"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="80"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="80"/>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C21" s="72"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="74"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="74"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="80"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="80"/>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="74"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="74"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="80"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="80"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="74"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="74"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="80"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="80"/>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C24" s="72"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="74"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="74"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="80"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="80"/>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C25" s="72"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="74"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="74"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="80"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="80"/>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C26" s="72"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="74"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="74"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="80"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="80"/>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C27" s="72"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="74"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="74"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="80"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="80"/>
     </row>
     <row r="28" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C28" s="75"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="77"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="77"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="83"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4344,25 +4344,25 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="65"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="71"/>
     </row>
     <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="1"/>
@@ -4497,126 +4497,126 @@
     </row>
     <row r="14" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="15" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="71"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="77"/>
     </row>
     <row r="16" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="74"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="80"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="74"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="80"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="80"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="80"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="74"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="80"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C21" s="72"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="74"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="80"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="74"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="80"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="74"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="80"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C24" s="72"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="74"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="80"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C25" s="72"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="74"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="80"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C26" s="72"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="74"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="80"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C27" s="72"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="74"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="80"/>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C28" s="72"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="74"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="80"/>
     </row>
     <row r="29" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C29" s="75"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="77"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4648,25 +4648,25 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="65"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="71"/>
     </row>
     <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="1"/>
@@ -4781,126 +4781,126 @@
     </row>
     <row r="13" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="14" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="75" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="71"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="77"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="74"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="80"/>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="74"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="80"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="74"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="80"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="80"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="80"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="74"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="80"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C21" s="72"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="74"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="80"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="74"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="80"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="74"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="80"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C24" s="72"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="74"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="80"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C25" s="72"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="74"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="80"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C26" s="72"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="74"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="80"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C27" s="72"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="74"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="80"/>
     </row>
     <row r="28" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C28" s="75"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="77"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/문서파일/QuizBeeDB.xlsx
+++ b/문서파일/QuizBeeDB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\QuizBee\문서파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KD03\QuizBee\문서파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1814,7 +1814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C17" sqref="C17:H36"/>
     </sheetView>
   </sheetViews>
@@ -2197,8 +2197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2686,7 +2686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C16" sqref="C16:H29"/>
     </sheetView>
   </sheetViews>
@@ -3012,8 +3012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:K29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3319,8 +3319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15:Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3822,8 +3822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/문서파일/QuizBeeDB.xlsx
+++ b/문서파일/QuizBeeDB.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doyou\OneDrive\Desktop\QuizBee\문서파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\QuizBee\문서파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A8CED4-33DA-43FB-B7F0-93EF405F65B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="3" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="171">
   <si>
     <t>auto</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -768,6 +767,30 @@
   KEY quiz_no (quiz_no),
   CONSTRAINT quiz_images_ibfk_1 FOREIGN KEY (quiz_no) REFERENCES quiz_info (quiz_no)
 ) ENGINE=InnoDB AUTO_INCREMENT=75 DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_0900_ai_ci</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table quiz_user(
+user_no int not null auto_increment,
+user_nick varchar(100),
+user_id varchar(100),
+user_passwd varchar(100),
+user_email varchar(100),
+user_num varchar(100)
+user_type int default 0,
+user_login_ty int default 0,
+user_day timestamp default now(),
+primary key(user_no)
+) comment = '유저'
+engine = InnoDB;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -786,33 +809,18 @@
   quiz_day timestamp NULL DEFAULT CURRENT_TIMESTAMP,
   quiz_answer varchar(100) DEFAULT NULL,
   quiz_content varchar(1000) DEFAULT NULL,
+  user_count int default 0,
   PRIMARY KEY (quiz_no),
   KEY user_no (user_no),
   CONSTRAINT quiz_info_ibfk_1 FOREIGN KEY (user_no) REFERENCES quiz_user (user_no) ON DELETE CASCADE
 ) ENGINE=InnoDB AUTO_INCREMENT=33 DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_0900_ai_ci COMMENT='퀴즈 테이블'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>create table quiz_user(
-user_no int not null auto_increment,
-user_nick varchar(100),
-user_id varchar(100),
-user_passwd varchar(100),
-user_email varchar(100),
-user_num varchar(100)
-user_type int default 0,
-user_login_ty int default 0,
-user_day timestamp default now(),
-primary key(user_no)
-) comment = '유저'
-engine = InnoDB;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1400,10 +1408,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1412,16 +1420,14 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1512,6 +1518,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1599,12 +1610,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1943,56 +1952,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C17" sqref="C17:H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.08203125" customWidth="1"/>
-    <col min="5" max="5" width="11.58203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="9.58203125" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
-    </row>
-    <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
+    </row>
+    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
-    </row>
-    <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+    </row>
+    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -2012,7 +2021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
@@ -2032,7 +2041,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
@@ -2046,7 +2055,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
@@ -2060,7 +2069,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
@@ -2074,7 +2083,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
         <v>26</v>
       </c>
@@ -2088,7 +2097,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
         <v>28</v>
       </c>
@@ -2102,7 +2111,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="9" t="s">
         <v>30</v>
       </c>
@@ -2118,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" s="9" t="s">
         <v>31</v>
       </c>
@@ -2134,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="31" t="s">
         <v>33</v>
       </c>
@@ -2150,168 +2159,168 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="17" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
-    </row>
-    <row r="18" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="53"/>
-    </row>
-    <row r="19" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="53"/>
-    </row>
-    <row r="20" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
-    </row>
-    <row r="21" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="53"/>
-    </row>
-    <row r="22" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="53"/>
-    </row>
-    <row r="23" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="53"/>
-    </row>
-    <row r="24" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="53"/>
-    </row>
-    <row r="25" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="53"/>
-    </row>
-    <row r="26" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
-    </row>
-    <row r="27" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C27" s="51"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="53"/>
-    </row>
-    <row r="28" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C28" s="51"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="53"/>
-    </row>
-    <row r="29" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="51"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="53"/>
-    </row>
-    <row r="30" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C30" s="51"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="53"/>
-    </row>
-    <row r="31" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C31" s="51"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="53"/>
-    </row>
-    <row r="32" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C32" s="51"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="53"/>
-    </row>
-    <row r="33" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C33" s="51"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="53"/>
-    </row>
-    <row r="34" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C34" s="51"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="53"/>
-    </row>
-    <row r="35" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C35" s="51"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="53"/>
-    </row>
-    <row r="36" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C36" s="54"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="56"/>
+    <row r="16" spans="3:8" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="55"/>
+    </row>
+    <row r="18" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="58"/>
+    </row>
+    <row r="19" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="58"/>
+    </row>
+    <row r="20" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="58"/>
+    </row>
+    <row r="21" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="58"/>
+    </row>
+    <row r="22" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="56"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="58"/>
+    </row>
+    <row r="23" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="56"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="58"/>
+    </row>
+    <row r="24" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="56"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="58"/>
+    </row>
+    <row r="25" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="56"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="58"/>
+    </row>
+    <row r="26" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="56"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="58"/>
+    </row>
+    <row r="27" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="56"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="58"/>
+    </row>
+    <row r="28" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="56"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="58"/>
+    </row>
+    <row r="29" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="56"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="58"/>
+    </row>
+    <row r="30" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="56"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="58"/>
+    </row>
+    <row r="31" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="56"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="58"/>
+    </row>
+    <row r="32" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="56"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="58"/>
+    </row>
+    <row r="33" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="56"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="58"/>
+    </row>
+    <row r="34" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="56"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="58"/>
+    </row>
+    <row r="35" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="56"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="58"/>
+    </row>
+    <row r="36" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="59"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2326,74 +2335,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C1:T42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:T46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23:T42"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R49" sqref="R49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.58203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="9.58203125" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" customWidth="1"/>
-    <col min="11" max="11" width="16.08203125" customWidth="1"/>
-    <col min="12" max="14" width="8.83203125" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="8.875" customWidth="1"/>
+    <col min="11" max="11" width="16.125" customWidth="1"/>
+    <col min="12" max="14" width="8.875" customWidth="1"/>
+    <col min="15" max="15" width="18.375" customWidth="1"/>
+    <col min="16" max="16" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="73"/>
       <c r="O2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="66" t="s">
+      <c r="P2" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="68"/>
-    </row>
-    <row r="3" spans="3:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="73"/>
+    </row>
+    <row r="3" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="65"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70"/>
       <c r="O3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="63" t="s">
+      <c r="P3" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="65"/>
-    </row>
-    <row r="5" spans="3:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="70"/>
+    </row>
+    <row r="5" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2404,7 +2413,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="3:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="21" t="s">
         <v>11</v>
       </c>
@@ -2442,7 +2451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D7" s="24" t="s">
         <v>165</v>
       </c>
@@ -2480,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D8" s="37" t="s">
         <v>92</v>
       </c>
@@ -2514,7 +2523,7 @@
       </c>
       <c r="T8" s="40"/>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D9" s="14" t="s">
         <v>93</v>
       </c>
@@ -2544,7 +2553,7 @@
       <c r="S9" s="5"/>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D10" s="14" t="s">
         <v>141</v>
       </c>
@@ -2574,7 +2583,7 @@
       <c r="S10" s="5"/>
       <c r="T10" s="6"/>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D11" s="14" t="s">
         <v>142</v>
       </c>
@@ -2604,7 +2613,7 @@
       <c r="S11" s="5"/>
       <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D12" s="14" t="s">
         <v>135</v>
       </c>
@@ -2634,7 +2643,7 @@
       <c r="S12" s="5"/>
       <c r="T12" s="6"/>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D13" s="14" t="s">
         <v>94</v>
       </c>
@@ -2649,10 +2658,10 @@
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="78" t="s">
+      <c r="J13" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="K13" s="79"/>
+      <c r="K13" s="84"/>
       <c r="M13" t="s">
         <v>146</v>
       </c>
@@ -2671,7 +2680,7 @@
       <c r="S13" s="5"/>
       <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D14" s="14" t="s">
         <v>143</v>
       </c>
@@ -2708,7 +2717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D15" s="14" t="s">
         <v>95</v>
       </c>
@@ -2744,7 +2753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D16" s="14" t="s">
         <v>111</v>
       </c>
@@ -2780,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D17" s="44" t="s">
         <v>113</v>
       </c>
@@ -2812,7 +2821,7 @@
       <c r="S17" s="45"/>
       <c r="T17" s="46"/>
     </row>
-    <row r="18" spans="4:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D18" s="44" t="s">
         <v>115</v>
       </c>
@@ -2825,24 +2834,24 @@
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="46"/>
-      <c r="O18" s="15" t="s">
+      <c r="O18" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="P18" s="8" t="s">
+      <c r="P18" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="Q18" s="8" t="s">
+      <c r="Q18" s="5" t="s">
         <v>35</v>
       </c>
       <c r="R18" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="S18" s="19"/>
-      <c r="T18" s="20" t="s">
+      <c r="S18" s="17"/>
+      <c r="T18" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="4:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D19" s="15" t="s">
         <v>96</v>
       </c>
@@ -2859,325 +2868,367 @@
       <c r="I19" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="O19" s="83" t="s">
+      <c r="O19" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="O20" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="P19" s="84" t="s">
+      <c r="P20" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="Q19" s="84" t="s">
+      <c r="Q20" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="T19" s="87"/>
-    </row>
-    <row r="20" spans="4:20" x14ac:dyDescent="0.45">
-      <c r="O20" s="85" t="s">
+      <c r="T20" s="88"/>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="O21" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="P20" s="39" t="s">
+      <c r="P21" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="Q20" s="39" t="s">
+      <c r="Q21" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="R20" s="86"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="88"/>
-    </row>
-    <row r="22" spans="4:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="23" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D23" s="69" t="s">
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="52"/>
+    </row>
+    <row r="22" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="4:20" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="71"/>
-      <c r="O23" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="70"/>
-      <c r="R23" s="70"/>
-      <c r="S23" s="70"/>
-      <c r="T23" s="71"/>
-    </row>
-    <row r="24" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="74"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="74"/>
-    </row>
-    <row r="25" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D25" s="72"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="74"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="74"/>
-    </row>
-    <row r="26" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="74"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="73"/>
-      <c r="R26" s="73"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="74"/>
-    </row>
-    <row r="27" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D27" s="72"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="74"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="73"/>
-      <c r="R27" s="73"/>
-      <c r="S27" s="73"/>
-      <c r="T27" s="74"/>
-    </row>
-    <row r="28" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="74"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="73"/>
-      <c r="R28" s="73"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="74"/>
-    </row>
-    <row r="29" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D29" s="72"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="74"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="74"/>
-    </row>
-    <row r="30" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="74"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="73"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="74"/>
-    </row>
-    <row r="31" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D31" s="72"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="74"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="73"/>
-      <c r="S31" s="73"/>
-      <c r="T31" s="74"/>
-    </row>
-    <row r="32" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D32" s="72"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="74"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="73"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="74"/>
-    </row>
-    <row r="33" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D33" s="72"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="74"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="74"/>
-    </row>
-    <row r="34" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D34" s="72"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="74"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="73"/>
-      <c r="Q34" s="73"/>
-      <c r="R34" s="73"/>
-      <c r="S34" s="73"/>
-      <c r="T34" s="74"/>
-    </row>
-    <row r="35" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D35" s="72"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="74"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="73"/>
-      <c r="R35" s="73"/>
-      <c r="S35" s="73"/>
-      <c r="T35" s="74"/>
-    </row>
-    <row r="36" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D36" s="72"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="74"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="73"/>
-      <c r="Q36" s="73"/>
-      <c r="R36" s="73"/>
-      <c r="S36" s="73"/>
-      <c r="T36" s="74"/>
-    </row>
-    <row r="37" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D37" s="72"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="74"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="73"/>
-      <c r="R37" s="73"/>
-      <c r="S37" s="73"/>
-      <c r="T37" s="74"/>
-    </row>
-    <row r="38" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D38" s="72"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="74"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="73"/>
-      <c r="Q38" s="73"/>
-      <c r="R38" s="73"/>
-      <c r="S38" s="73"/>
-      <c r="T38" s="74"/>
-    </row>
-    <row r="39" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D39" s="72"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="74"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="73"/>
-      <c r="Q39" s="73"/>
-      <c r="R39" s="73"/>
-      <c r="S39" s="73"/>
-      <c r="T39" s="74"/>
-    </row>
-    <row r="40" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D40" s="72"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="74"/>
-      <c r="O40" s="72"/>
-      <c r="P40" s="73"/>
-      <c r="Q40" s="73"/>
-      <c r="R40" s="73"/>
-      <c r="S40" s="73"/>
-      <c r="T40" s="74"/>
-    </row>
-    <row r="41" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D41" s="72"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="74"/>
-      <c r="O41" s="72"/>
-      <c r="P41" s="73"/>
-      <c r="Q41" s="73"/>
-      <c r="R41" s="73"/>
-      <c r="S41" s="73"/>
-      <c r="T41" s="74"/>
-    </row>
-    <row r="42" spans="4:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D42" s="75"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="77"/>
-      <c r="O42" s="75"/>
-      <c r="P42" s="76"/>
-      <c r="Q42" s="76"/>
-      <c r="R42" s="76"/>
-      <c r="S42" s="76"/>
-      <c r="T42" s="77"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="76"/>
+    </row>
+    <row r="24" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="77"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="79"/>
+      <c r="O24" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="76"/>
+    </row>
+    <row r="25" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="77"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="79"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="89"/>
+      <c r="Q25" s="89"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="79"/>
+    </row>
+    <row r="26" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="77"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="79"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="79"/>
+    </row>
+    <row r="27" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="77"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="79"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="89"/>
+      <c r="T27" s="79"/>
+    </row>
+    <row r="28" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="77"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="79"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="79"/>
+    </row>
+    <row r="29" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="77"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="79"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="89"/>
+      <c r="Q29" s="89"/>
+      <c r="R29" s="89"/>
+      <c r="S29" s="89"/>
+      <c r="T29" s="79"/>
+    </row>
+    <row r="30" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="77"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="79"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="89"/>
+      <c r="R30" s="89"/>
+      <c r="S30" s="89"/>
+      <c r="T30" s="79"/>
+    </row>
+    <row r="31" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="77"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="79"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="89"/>
+      <c r="R31" s="89"/>
+      <c r="S31" s="89"/>
+      <c r="T31" s="79"/>
+    </row>
+    <row r="32" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="77"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="79"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="89"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="89"/>
+      <c r="S32" s="89"/>
+      <c r="T32" s="79"/>
+    </row>
+    <row r="33" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="77"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="79"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="89"/>
+      <c r="Q33" s="89"/>
+      <c r="R33" s="89"/>
+      <c r="S33" s="89"/>
+      <c r="T33" s="79"/>
+    </row>
+    <row r="34" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="77"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="79"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="89"/>
+      <c r="Q34" s="89"/>
+      <c r="R34" s="89"/>
+      <c r="S34" s="89"/>
+      <c r="T34" s="79"/>
+    </row>
+    <row r="35" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="77"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="79"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="89"/>
+      <c r="Q35" s="89"/>
+      <c r="R35" s="89"/>
+      <c r="S35" s="89"/>
+      <c r="T35" s="79"/>
+    </row>
+    <row r="36" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="77"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="79"/>
+      <c r="O36" s="77"/>
+      <c r="P36" s="89"/>
+      <c r="Q36" s="89"/>
+      <c r="R36" s="89"/>
+      <c r="S36" s="89"/>
+      <c r="T36" s="79"/>
+    </row>
+    <row r="37" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="77"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="79"/>
+      <c r="O37" s="77"/>
+      <c r="P37" s="89"/>
+      <c r="Q37" s="89"/>
+      <c r="R37" s="89"/>
+      <c r="S37" s="89"/>
+      <c r="T37" s="79"/>
+    </row>
+    <row r="38" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="77"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="79"/>
+      <c r="O38" s="77"/>
+      <c r="P38" s="89"/>
+      <c r="Q38" s="89"/>
+      <c r="R38" s="89"/>
+      <c r="S38" s="89"/>
+      <c r="T38" s="79"/>
+    </row>
+    <row r="39" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="77"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="79"/>
+      <c r="O39" s="77"/>
+      <c r="P39" s="89"/>
+      <c r="Q39" s="89"/>
+      <c r="R39" s="89"/>
+      <c r="S39" s="89"/>
+      <c r="T39" s="79"/>
+    </row>
+    <row r="40" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="77"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="79"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="89"/>
+      <c r="Q40" s="89"/>
+      <c r="R40" s="89"/>
+      <c r="S40" s="89"/>
+      <c r="T40" s="79"/>
+    </row>
+    <row r="41" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="77"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="79"/>
+      <c r="O41" s="77"/>
+      <c r="P41" s="89"/>
+      <c r="Q41" s="89"/>
+      <c r="R41" s="89"/>
+      <c r="S41" s="89"/>
+      <c r="T41" s="79"/>
+    </row>
+    <row r="42" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D42" s="80"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="82"/>
+      <c r="O42" s="77"/>
+      <c r="P42" s="89"/>
+      <c r="Q42" s="89"/>
+      <c r="R42" s="89"/>
+      <c r="S42" s="89"/>
+      <c r="T42" s="79"/>
+    </row>
+    <row r="43" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="O43" s="77"/>
+      <c r="P43" s="89"/>
+      <c r="Q43" s="89"/>
+      <c r="R43" s="89"/>
+      <c r="S43" s="89"/>
+      <c r="T43" s="79"/>
+    </row>
+    <row r="44" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="O44" s="77"/>
+      <c r="P44" s="89"/>
+      <c r="Q44" s="89"/>
+      <c r="R44" s="89"/>
+      <c r="S44" s="89"/>
+      <c r="T44" s="79"/>
+    </row>
+    <row r="45" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="O45" s="77"/>
+      <c r="P45" s="89"/>
+      <c r="Q45" s="89"/>
+      <c r="R45" s="89"/>
+      <c r="S45" s="89"/>
+      <c r="T45" s="79"/>
+    </row>
+    <row r="46" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O46" s="80"/>
+      <c r="P46" s="81"/>
+      <c r="Q46" s="81"/>
+      <c r="R46" s="81"/>
+      <c r="S46" s="81"/>
+      <c r="T46" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="O24:T46"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="D23:I42"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="P2:T2"/>
     <mergeCell ref="P3:T3"/>
-    <mergeCell ref="O23:T42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3186,56 +3237,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H29"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C16" sqref="C16:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.08203125" customWidth="1"/>
-    <col min="5" max="5" width="11.58203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="9.58203125" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
-    </row>
-    <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
+    </row>
+    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
-    </row>
-    <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="87"/>
+    </row>
+    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -3255,7 +3306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
         <v>58</v>
       </c>
@@ -3275,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
@@ -3293,7 +3344,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>59</v>
       </c>
@@ -3309,7 +3360,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="9" t="s">
         <v>60</v>
       </c>
@@ -3325,7 +3376,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
         <v>61</v>
       </c>
@@ -3341,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
         <v>62</v>
       </c>
@@ -3355,7 +3406,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="9" t="s">
         <v>63</v>
       </c>
@@ -3371,7 +3422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="10" t="s">
         <v>79</v>
       </c>
@@ -3385,120 +3436,120 @@
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C16" s="69" t="s">
+    <row r="15" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="71"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="74"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="74"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C21" s="72"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="74"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="74"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="74"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C24" s="72"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="74"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C25" s="72"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="74"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C26" s="72"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="74"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C27" s="72"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="74"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C28" s="72"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="74"/>
-    </row>
-    <row r="29" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C29" s="75"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="77"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="76"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="77"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="79"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="77"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="79"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="77"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="79"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="77"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="79"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="77"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="79"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="77"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="79"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="77"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="79"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="77"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="79"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="77"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="79"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="77"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="79"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="77"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="79"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="77"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="79"/>
+    </row>
+    <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="80"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3512,56 +3563,56 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:K29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C17" sqref="C17:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.08203125" customWidth="1"/>
-    <col min="5" max="5" width="11.58203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="9.58203125" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
-    </row>
-    <row r="3" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
+    </row>
+    <row r="3" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
-    </row>
-    <row r="5" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="87"/>
+    </row>
+    <row r="5" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -3581,7 +3632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
         <v>47</v>
       </c>
@@ -3601,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
@@ -3619,7 +3670,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>50</v>
       </c>
@@ -3635,7 +3686,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C10" s="9" t="s">
         <v>51</v>
       </c>
@@ -3649,7 +3700,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
         <v>124</v>
       </c>
@@ -3665,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
         <v>52</v>
       </c>
@@ -3684,7 +3735,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C13" s="9" t="s">
         <v>73</v>
       </c>
@@ -3698,113 +3749,113 @@
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="15" spans="3:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="3:11" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="17" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="69" t="s">
+    <row r="15" spans="3:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="3:11" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="71"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="74"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C21" s="72"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="74"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="74"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="74"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C24" s="72"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="74"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C25" s="72"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="74"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C26" s="72"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="74"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C27" s="72"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="74"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C28" s="72"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="74"/>
-    </row>
-    <row r="29" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C29" s="75"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="77"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="76"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="77"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="79"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="77"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="79"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="77"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="79"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="77"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="79"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="77"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="79"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="77"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="79"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="77"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="79"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="77"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="79"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="77"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="79"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="77"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="79"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="77"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="79"/>
+    </row>
+    <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="80"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3819,75 +3870,75 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="25.75" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.08203125" customWidth="1"/>
-    <col min="7" max="7" width="15.08203125" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
     <col min="12" max="12" width="14.75" customWidth="1"/>
     <col min="13" max="13" width="17.25" customWidth="1"/>
-    <col min="14" max="14" width="14.58203125" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" customWidth="1"/>
-    <col min="17" max="17" width="13.83203125" customWidth="1"/>
+    <col min="14" max="14" width="14.625" customWidth="1"/>
+    <col min="15" max="15" width="16.375" customWidth="1"/>
+    <col min="16" max="16" width="14.375" customWidth="1"/>
+    <col min="17" max="17" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
       <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="59"/>
-    </row>
-    <row r="3" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="64"/>
+    </row>
+    <row r="3" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="87"/>
       <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="80" t="s">
+      <c r="M3" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="82"/>
-    </row>
-    <row r="5" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="87"/>
+    </row>
+    <row r="5" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -3899,7 +3950,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -3937,7 +3988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="24" t="s">
         <v>98</v>
       </c>
@@ -3967,7 +4018,7 @@
       </c>
       <c r="Q7" s="27"/>
     </row>
-    <row r="8" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="9" t="s">
         <v>47</v>
       </c>
@@ -3997,7 +4048,7 @@
       </c>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
@@ -4027,7 +4078,7 @@
       </c>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C10" s="9" t="s">
         <v>102</v>
       </c>
@@ -4053,7 +4104,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
         <v>104</v>
       </c>
@@ -4079,7 +4130,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
         <v>105</v>
       </c>
@@ -4105,206 +4156,206 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="14" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C15" s="69" t="s">
+    <row r="14" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C15" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="71"/>
-      <c r="L15" s="69" t="s">
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="76"/>
+      <c r="L15" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="71"/>
-    </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="74"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="74"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="74"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="74"/>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="74"/>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="74"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="74"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="74"/>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C21" s="72"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="74"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="74"/>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="74"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="74"/>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="74"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="74"/>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C24" s="72"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="74"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="74"/>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C25" s="72"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="74"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="74"/>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C26" s="72"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="74"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="74"/>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C27" s="72"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="74"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="74"/>
-    </row>
-    <row r="28" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C28" s="75"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="77"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="77"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="76"/>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C16" s="77"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="79"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="79"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C17" s="77"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="79"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="79"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C18" s="77"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="79"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="79"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C19" s="77"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="79"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="79"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C20" s="77"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="79"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="79"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C21" s="77"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="79"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="79"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C22" s="77"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="79"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="79"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C23" s="77"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="79"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="79"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C24" s="77"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="79"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="79"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C25" s="77"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="79"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="79"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C26" s="77"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="79"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="79"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C27" s="77"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="79"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="79"/>
+    </row>
+    <row r="28" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="80"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="82"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4322,56 +4373,56 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C15" sqref="C15:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.08203125" customWidth="1"/>
-    <col min="5" max="5" width="11.58203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="9.58203125" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
-    </row>
-    <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
+    </row>
+    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="65"/>
-    </row>
-    <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="70"/>
+    </row>
+    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -4391,7 +4442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
         <v>126</v>
       </c>
@@ -4411,7 +4462,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="14" t="s">
         <v>68</v>
       </c>
@@ -4429,7 +4480,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="14" t="s">
         <v>129</v>
       </c>
@@ -4445,7 +4496,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="14" t="s">
         <v>131</v>
       </c>
@@ -4461,7 +4512,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="14" t="s">
         <v>133</v>
       </c>
@@ -4477,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="30" t="s">
         <v>134</v>
       </c>
@@ -4495,128 +4546,128 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="15" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="69" t="s">
+    <row r="14" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="71"/>
-    </row>
-    <row r="16" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="74"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="74"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="74"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C21" s="72"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="74"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="74"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="74"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C24" s="72"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="74"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C25" s="72"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="74"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C26" s="72"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="74"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C27" s="72"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="74"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C28" s="72"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="74"/>
-    </row>
-    <row r="29" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C29" s="75"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="77"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="76"/>
+    </row>
+    <row r="16" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="77"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="79"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="77"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="79"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="77"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="79"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="77"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="79"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="77"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="79"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="77"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="79"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="77"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="79"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="77"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="79"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="77"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="79"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="77"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="79"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="77"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="79"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="77"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="79"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="77"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="79"/>
+    </row>
+    <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="80"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4630,52 +4681,52 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18D5A9B-4BF1-4E4D-AC2E-FABFBBA3120F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="23.58203125" customWidth="1"/>
+    <col min="8" max="8" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
-    </row>
-    <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
+    </row>
+    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="65"/>
-    </row>
-    <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="70"/>
+    </row>
+    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -4695,7 +4746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
         <v>152</v>
       </c>
@@ -4715,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="14" t="s">
         <v>8</v>
       </c>
@@ -4733,7 +4784,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="14" t="s">
         <v>153</v>
       </c>
@@ -4747,7 +4798,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="14" t="s">
         <v>154</v>
       </c>
@@ -4763,7 +4814,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="14" t="s">
         <v>16</v>
       </c>
@@ -4779,128 +4830,128 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C14" s="69" t="s">
+    <row r="13" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="71"/>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="74"/>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="74"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="74"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="74"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C21" s="72"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="74"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="74"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="74"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C24" s="72"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="74"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C25" s="72"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="74"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C26" s="72"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="74"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C27" s="72"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="74"/>
-    </row>
-    <row r="28" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C28" s="75"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="77"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="76"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="77"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="79"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="77"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="79"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="77"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="79"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="77"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="79"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="77"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="79"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="77"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="79"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="77"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="79"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="77"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="79"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="77"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="79"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="77"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="79"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="77"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="79"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="77"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="79"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="77"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="79"/>
+    </row>
+    <row r="28" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="80"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/문서파일/QuizBeeDB.xlsx
+++ b/문서파일/QuizBeeDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doyou\OneDrive\Desktop\QuizBee\문서파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3657BA8-3676-4DF9-BC9C-0D4B97B4B160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C16D18-9C6C-4B8C-A06C-B4C362184051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="172">
   <si>
     <t>auto</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -768,6 +768,34 @@
   KEY quiz_no (quiz_no),
   CONSTRAINT quiz_images_ibfk_1 FOREIGN KEY (quiz_no) REFERENCES quiz_info (quiz_no)
 ) ENGINE=InnoDB AUTO_INCREMENT=75 DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_0900_ai_ci</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table quiz_user(
+user_no int not null auto_increment,
+user_nick varchar(100),
+user_id varchar(100),
+user_passwd varchar(100),
+user_email varchar(100),
+user_num varchar(100)
+user_type int default 0,
+user_login_ty int default 0,
+user_day timestamp default now(),
+primary key(user_no)
+) comment = '유저'
+engine = InnoDB;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">uploads_at </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푼퀴즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">timestamp </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -786,26 +814,11 @@
   quiz_day timestamp NULL DEFAULT CURRENT_TIMESTAMP,
   quiz_answer varchar(100) DEFAULT NULL,
   quiz_content varchar(1000) DEFAULT NULL,
+  uploads_at timestamp ,
   PRIMARY KEY (quiz_no),
   KEY user_no (user_no),
   CONSTRAINT quiz_info_ibfk_1 FOREIGN KEY (user_no) REFERENCES quiz_user (user_no) ON DELETE CASCADE
 ) ENGINE=InnoDB AUTO_INCREMENT=33 DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_0900_ai_ci COMMENT='퀴즈 테이블'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create table quiz_user(
-user_no int not null auto_increment,
-user_nick varchar(100),
-user_id varchar(100),
-user_passwd varchar(100),
-user_email varchar(100),
-user_num varchar(100)
-user_type int default 0,
-user_login_ty int default 0,
-user_day timestamp default now(),
-primary key(user_no)
-) comment = '유저'
-engine = InnoDB;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2153,7 +2166,7 @@
     <row r="16" spans="3:8" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="17" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C17" s="54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
@@ -2329,7 +2342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C1:T42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O23" sqref="O23:T42"/>
     </sheetView>
   </sheetViews>
@@ -2884,6 +2897,17 @@
       <c r="S20" s="51"/>
       <c r="T20" s="53"/>
     </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="O21" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="P21" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q21" s="49" t="s">
+        <v>170</v>
+      </c>
+    </row>
     <row r="22" spans="4:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="23" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D23" s="75" t="s">
@@ -2895,7 +2919,7 @@
       <c r="H23" s="76"/>
       <c r="I23" s="77"/>
       <c r="O23" s="75" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P23" s="76"/>
       <c r="Q23" s="76"/>
@@ -3822,7 +3846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15:Q28"/>
     </sheetView>
   </sheetViews>

--- a/문서파일/QuizBeeDB.xlsx
+++ b/문서파일/QuizBeeDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doyou\OneDrive\Desktop\QuizBee\문서파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C16D18-9C6C-4B8C-A06C-B4C362184051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF43D12D-7AC8-47BE-940C-04C407834D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="173">
   <si>
     <t>auto</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -819,6 +819,10 @@
   KEY user_no (user_no),
   CONSTRAINT quiz_info_ibfk_1 FOREIGN KEY (user_no) REFERENCES quiz_user (user_no) ON DELETE CASCADE
 ) ENGINE=InnoDB AUTO_INCREMENT=33 DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_0900_ai_ci COMMENT='퀴즈 테이블'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1434,7 +1438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1618,6 +1622,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2342,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23:T42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2906,6 +2911,9 @@
       </c>
       <c r="Q21" s="49" t="s">
         <v>170</v>
+      </c>
+      <c r="T21" s="89" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="4:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>

--- a/문서파일/QuizBeeDB.xlsx
+++ b/문서파일/QuizBeeDB.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="174">
   <si>
     <t>auto</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -792,6 +792,15 @@
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">uploads_at </t>
+  </si>
+  <si>
+    <t>푼퀴즈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timestamp </t>
   </si>
   <si>
     <t>CREATE TABLE quiz_info (
@@ -810,6 +819,7 @@
   quiz_answer varchar(100) DEFAULT NULL,
   quiz_content varchar(1000) DEFAULT NULL,
   user_count int default 0,
+  uploads_at timestamp,
   PRIMARY KEY (quiz_no),
   KEY user_no (user_no),
   CONSTRAINT quiz_info_ibfk_1 FOREIGN KEY (user_no) REFERENCES quiz_user (user_no) ON DELETE CASCADE
@@ -893,7 +903,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1383,51 +1393,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1518,11 +1488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1556,6 +1522,33 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1574,31 +1567,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1610,10 +1579,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1974,25 +1945,25 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
     </row>
     <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -2161,166 +2132,166 @@
     </row>
     <row r="16" spans="3:8" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="55"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="51"/>
     </row>
     <row r="18" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="58"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="54"/>
     </row>
     <row r="19" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="58"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="54"/>
     </row>
     <row r="20" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="58"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
     </row>
     <row r="21" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="56"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="58"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="54"/>
     </row>
     <row r="22" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="56"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="58"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="54"/>
     </row>
     <row r="23" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="56"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="58"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="54"/>
     </row>
     <row r="24" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="56"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="58"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="54"/>
     </row>
     <row r="25" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="56"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="58"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="54"/>
     </row>
     <row r="26" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="56"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="58"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="54"/>
     </row>
     <row r="27" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="56"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="58"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="54"/>
     </row>
     <row r="28" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="56"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="58"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="54"/>
     </row>
     <row r="29" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="56"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="58"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="54"/>
     </row>
     <row r="30" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="56"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="58"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="54"/>
     </row>
     <row r="31" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="56"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="58"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="54"/>
     </row>
     <row r="32" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="56"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="58"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="54"/>
     </row>
     <row r="33" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="56"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="58"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="54"/>
     </row>
     <row r="34" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="56"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="58"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="54"/>
     </row>
     <row r="35" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="56"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="58"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="54"/>
     </row>
     <row r="36" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="59"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="61"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2338,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R49" sqref="R49"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2362,45 +2333,45 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78"/>
       <c r="O2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="71" t="s">
+      <c r="P2" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="73"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="78"/>
     </row>
     <row r="3" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="75"/>
       <c r="O3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="68" t="s">
+      <c r="P3" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="70"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="75"/>
     </row>
     <row r="5" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -2470,22 +2441,22 @@
       <c r="I7" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="O7" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="P7" s="25" t="s">
+      <c r="P7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="Q7" s="26" t="s">
+      <c r="Q7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="R7" s="25" t="s">
+      <c r="R7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="S7" s="26" t="s">
+      <c r="S7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="T7" s="27" t="s">
+      <c r="T7" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2658,10 +2629,10 @@
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="83" t="s">
+      <c r="J13" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="K13" s="84"/>
+      <c r="K13" s="81"/>
       <c r="M13" t="s">
         <v>146</v>
       </c>
@@ -2868,18 +2839,18 @@
       <c r="I19" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="O19" s="15" t="s">
+      <c r="O19" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="P19" s="8" t="s">
+      <c r="P19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Q19" s="8" t="s">
+      <c r="Q19" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="20">
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="18">
         <v>0</v>
       </c>
     </row>
@@ -2887,16 +2858,18 @@
       <c r="O20" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="P20" s="49" t="s">
+      <c r="P20" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="Q20" s="49" t="s">
+      <c r="Q20" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="T20" s="88"/>
+      <c r="R20" s="85"/>
+      <c r="S20" s="85"/>
+      <c r="T20" s="89"/>
     </row>
     <row r="21" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="O21" s="50" t="s">
+      <c r="O21" s="48" t="s">
         <v>162</v>
       </c>
       <c r="P21" s="39" t="s">
@@ -2905,320 +2878,333 @@
       <c r="Q21" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="52"/>
-    </row>
-    <row r="22" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="85"/>
+      <c r="T21" s="89"/>
+    </row>
+    <row r="22" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O22" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="P22" s="86" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q22" s="86" t="s">
+        <v>172</v>
+      </c>
+      <c r="R22" s="87"/>
+      <c r="S22" s="87"/>
+      <c r="T22" s="90"/>
+    </row>
     <row r="23" spans="4:20" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="76"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="66"/>
     </row>
     <row r="24" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="77"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="79"/>
-      <c r="O24" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="75"/>
-      <c r="S24" s="75"/>
-      <c r="T24" s="76"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="69"/>
+      <c r="O24" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="66"/>
     </row>
     <row r="25" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="77"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="79"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="89"/>
-      <c r="Q25" s="89"/>
-      <c r="R25" s="89"/>
-      <c r="S25" s="89"/>
-      <c r="T25" s="79"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="69"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="69"/>
     </row>
     <row r="26" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="77"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="79"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="89"/>
-      <c r="Q26" s="89"/>
-      <c r="R26" s="89"/>
-      <c r="S26" s="89"/>
-      <c r="T26" s="79"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="69"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="69"/>
     </row>
     <row r="27" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="77"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="79"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="89"/>
-      <c r="Q27" s="89"/>
-      <c r="R27" s="89"/>
-      <c r="S27" s="89"/>
-      <c r="T27" s="79"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="69"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="69"/>
     </row>
     <row r="28" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="77"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="79"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="89"/>
-      <c r="Q28" s="89"/>
-      <c r="R28" s="89"/>
-      <c r="S28" s="89"/>
-      <c r="T28" s="79"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="69"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="69"/>
     </row>
     <row r="29" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="77"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="79"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="89"/>
-      <c r="Q29" s="89"/>
-      <c r="R29" s="89"/>
-      <c r="S29" s="89"/>
-      <c r="T29" s="79"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="69"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="68"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="69"/>
     </row>
     <row r="30" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="77"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="79"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="89"/>
-      <c r="Q30" s="89"/>
-      <c r="R30" s="89"/>
-      <c r="S30" s="89"/>
-      <c r="T30" s="79"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="69"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="68"/>
+      <c r="R30" s="68"/>
+      <c r="S30" s="68"/>
+      <c r="T30" s="69"/>
     </row>
     <row r="31" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="77"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="79"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="89"/>
-      <c r="R31" s="89"/>
-      <c r="S31" s="89"/>
-      <c r="T31" s="79"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="69"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="68"/>
+      <c r="R31" s="68"/>
+      <c r="S31" s="68"/>
+      <c r="T31" s="69"/>
     </row>
     <row r="32" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="77"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="79"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="89"/>
-      <c r="Q32" s="89"/>
-      <c r="R32" s="89"/>
-      <c r="S32" s="89"/>
-      <c r="T32" s="79"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="69"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="68"/>
+      <c r="S32" s="68"/>
+      <c r="T32" s="69"/>
     </row>
     <row r="33" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="77"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="79"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="89"/>
-      <c r="Q33" s="89"/>
-      <c r="R33" s="89"/>
-      <c r="S33" s="89"/>
-      <c r="T33" s="79"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="69"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="68"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="69"/>
     </row>
     <row r="34" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="77"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="79"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="89"/>
-      <c r="Q34" s="89"/>
-      <c r="R34" s="89"/>
-      <c r="S34" s="89"/>
-      <c r="T34" s="79"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="69"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="68"/>
+      <c r="S34" s="68"/>
+      <c r="T34" s="69"/>
     </row>
     <row r="35" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="77"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="79"/>
-      <c r="O35" s="77"/>
-      <c r="P35" s="89"/>
-      <c r="Q35" s="89"/>
-      <c r="R35" s="89"/>
-      <c r="S35" s="89"/>
-      <c r="T35" s="79"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="69"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="68"/>
+      <c r="S35" s="68"/>
+      <c r="T35" s="69"/>
     </row>
     <row r="36" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="77"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="79"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="89"/>
-      <c r="Q36" s="89"/>
-      <c r="R36" s="89"/>
-      <c r="S36" s="89"/>
-      <c r="T36" s="79"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="69"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="68"/>
+      <c r="R36" s="68"/>
+      <c r="S36" s="68"/>
+      <c r="T36" s="69"/>
     </row>
     <row r="37" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="77"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="79"/>
-      <c r="O37" s="77"/>
-      <c r="P37" s="89"/>
-      <c r="Q37" s="89"/>
-      <c r="R37" s="89"/>
-      <c r="S37" s="89"/>
-      <c r="T37" s="79"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="69"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="68"/>
+      <c r="S37" s="68"/>
+      <c r="T37" s="69"/>
     </row>
     <row r="38" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="77"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="79"/>
-      <c r="O38" s="77"/>
-      <c r="P38" s="89"/>
-      <c r="Q38" s="89"/>
-      <c r="R38" s="89"/>
-      <c r="S38" s="89"/>
-      <c r="T38" s="79"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="69"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="68"/>
+      <c r="R38" s="68"/>
+      <c r="S38" s="68"/>
+      <c r="T38" s="69"/>
     </row>
     <row r="39" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="77"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="79"/>
-      <c r="O39" s="77"/>
-      <c r="P39" s="89"/>
-      <c r="Q39" s="89"/>
-      <c r="R39" s="89"/>
-      <c r="S39" s="89"/>
-      <c r="T39" s="79"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="69"/>
+      <c r="O39" s="67"/>
+      <c r="P39" s="68"/>
+      <c r="Q39" s="68"/>
+      <c r="R39" s="68"/>
+      <c r="S39" s="68"/>
+      <c r="T39" s="69"/>
     </row>
     <row r="40" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="77"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="79"/>
-      <c r="O40" s="77"/>
-      <c r="P40" s="89"/>
-      <c r="Q40" s="89"/>
-      <c r="R40" s="89"/>
-      <c r="S40" s="89"/>
-      <c r="T40" s="79"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="69"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="68"/>
+      <c r="Q40" s="68"/>
+      <c r="R40" s="68"/>
+      <c r="S40" s="68"/>
+      <c r="T40" s="69"/>
     </row>
     <row r="41" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="77"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="79"/>
-      <c r="O41" s="77"/>
-      <c r="P41" s="89"/>
-      <c r="Q41" s="89"/>
-      <c r="R41" s="89"/>
-      <c r="S41" s="89"/>
-      <c r="T41" s="79"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="69"/>
+      <c r="O41" s="67"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="68"/>
+      <c r="R41" s="68"/>
+      <c r="S41" s="68"/>
+      <c r="T41" s="69"/>
     </row>
     <row r="42" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="80"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="82"/>
-      <c r="O42" s="77"/>
-      <c r="P42" s="89"/>
-      <c r="Q42" s="89"/>
-      <c r="R42" s="89"/>
-      <c r="S42" s="89"/>
-      <c r="T42" s="79"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="72"/>
+      <c r="O42" s="67"/>
+      <c r="P42" s="68"/>
+      <c r="Q42" s="68"/>
+      <c r="R42" s="68"/>
+      <c r="S42" s="68"/>
+      <c r="T42" s="69"/>
     </row>
     <row r="43" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="O43" s="77"/>
-      <c r="P43" s="89"/>
-      <c r="Q43" s="89"/>
-      <c r="R43" s="89"/>
-      <c r="S43" s="89"/>
-      <c r="T43" s="79"/>
+      <c r="O43" s="67"/>
+      <c r="P43" s="68"/>
+      <c r="Q43" s="68"/>
+      <c r="R43" s="68"/>
+      <c r="S43" s="68"/>
+      <c r="T43" s="69"/>
     </row>
     <row r="44" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="O44" s="77"/>
-      <c r="P44" s="89"/>
-      <c r="Q44" s="89"/>
-      <c r="R44" s="89"/>
-      <c r="S44" s="89"/>
-      <c r="T44" s="79"/>
+      <c r="O44" s="67"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="68"/>
+      <c r="S44" s="68"/>
+      <c r="T44" s="69"/>
     </row>
     <row r="45" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="O45" s="77"/>
-      <c r="P45" s="89"/>
-      <c r="Q45" s="89"/>
-      <c r="R45" s="89"/>
-      <c r="S45" s="89"/>
-      <c r="T45" s="79"/>
+      <c r="O45" s="67"/>
+      <c r="P45" s="68"/>
+      <c r="Q45" s="68"/>
+      <c r="R45" s="68"/>
+      <c r="S45" s="68"/>
+      <c r="T45" s="69"/>
     </row>
     <row r="46" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O46" s="80"/>
-      <c r="P46" s="81"/>
-      <c r="Q46" s="81"/>
-      <c r="R46" s="81"/>
-      <c r="S46" s="81"/>
-      <c r="T46" s="82"/>
+      <c r="O46" s="70"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="71"/>
+      <c r="T46" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3259,25 +3245,25 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="87"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -3438,118 +3424,118 @@
     </row>
     <row r="15" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="76"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="66"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="77"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="79"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="69"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="77"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="79"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="69"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="77"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="79"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="69"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="77"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="79"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="69"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="77"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="79"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="69"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="77"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="79"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="69"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="77"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="79"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="69"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="77"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="79"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="69"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="77"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="79"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="69"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="77"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="79"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="69"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="77"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="79"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="69"/>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="77"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="79"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="69"/>
     </row>
     <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="80"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="82"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3585,25 +3571,25 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="3" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="87"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="5" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -3752,110 +3738,110 @@
     <row r="15" spans="3:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="3:11" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="76"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="66"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="77"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="79"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="69"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="77"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="79"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="69"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="77"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="79"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="69"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="77"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="79"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="69"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="77"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="79"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="69"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="77"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="79"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="69"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="77"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="79"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="69"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="77"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="79"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="69"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="77"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="79"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="69"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="77"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="79"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="69"/>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="77"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="79"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="69"/>
     </row>
     <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="80"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="82"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3898,45 +3884,45 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
       <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="62" t="s">
+      <c r="M2" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="64"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="60"/>
     </row>
     <row r="3" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="87"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
       <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="85" t="s">
+      <c r="M3" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="87"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="84"/>
     </row>
     <row r="5" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -4158,204 +4144,204 @@
     </row>
     <row r="14" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
-      <c r="L15" s="74" t="s">
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66"/>
+      <c r="L15" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="76"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="66"/>
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C16" s="77"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="79"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="79"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="69"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="69"/>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C17" s="77"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="79"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="79"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="69"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="69"/>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C18" s="77"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="79"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="79"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="69"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="69"/>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C19" s="77"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="79"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="79"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="69"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="69"/>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C20" s="77"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="79"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="79"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="69"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="69"/>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C21" s="77"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="79"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="79"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="69"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="69"/>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C22" s="77"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="79"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="79"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="69"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="69"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C23" s="77"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="79"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="79"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="69"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="69"/>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C24" s="77"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="79"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="78"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="78"/>
-      <c r="Q24" s="79"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="69"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="69"/>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C25" s="77"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="79"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="78"/>
-      <c r="O25" s="78"/>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="79"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="69"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="69"/>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C26" s="77"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="79"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="79"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="69"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="69"/>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C27" s="77"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="79"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="79"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="69"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="69"/>
     </row>
     <row r="28" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="80"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="82"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="82"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="72"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4395,25 +4381,25 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="78"/>
     </row>
     <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="70"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -4548,126 +4534,126 @@
     </row>
     <row r="14" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66"/>
     </row>
     <row r="16" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="77"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="79"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="69"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="77"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="79"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="69"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="77"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="79"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="69"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="77"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="79"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="69"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="77"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="79"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="69"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="77"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="79"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="69"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="77"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="79"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="69"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="77"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="79"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="69"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="77"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="79"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="69"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="77"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="79"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="69"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="77"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="79"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="69"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="77"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="79"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="69"/>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="77"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="79"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="69"/>
     </row>
     <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="80"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="82"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4699,25 +4685,25 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="78"/>
     </row>
     <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="70"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -4832,126 +4818,126 @@
     </row>
     <row r="13" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="76"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="66"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="77"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="79"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="69"/>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="77"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="79"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="69"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="77"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="79"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="69"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="77"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="79"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="69"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="77"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="79"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="69"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="77"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="79"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="69"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="77"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="79"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="69"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="77"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="79"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="69"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="77"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="79"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="69"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="77"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="79"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="69"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="77"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="79"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="69"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="77"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="79"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="69"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="77"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="79"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="69"/>
     </row>
     <row r="28" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="80"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="82"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/문서파일/QuizBeeDB.xlsx
+++ b/문서파일/QuizBeeDB.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\QuizBee\문서파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doyou\OneDrive\Desktop\QuizBee\문서파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79E7861-8B59-4937-B2AC-CCF58BFFC404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="3" r:id="rId1"/>
@@ -770,22 +771,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>create table quiz_user(
-user_no int not null auto_increment,
-user_nick varchar(100),
-user_id varchar(100),
-user_passwd varchar(100),
-user_email varchar(100),
-user_num varchar(100)
-user_type int default 0,
-user_login_ty int default 0,
-user_day timestamp default now(),
-primary key(user_no)
-) comment = '유저'
-engine = InnoDB;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user_count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -826,11 +811,27 @@
 ) ENGINE=InnoDB AUTO_INCREMENT=33 DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_0900_ai_ci COMMENT='퀴즈 테이블'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>CREATE TABLE quiz_user (
+  user_no int NOT NULL AUTO_INCREMENT,
+  user_id varchar(45) NOT NULL,
+  user_nick varchar(45) NOT NULL,
+  user_email varchar(45) NOT NULL,
+  user_passwd varchar(100) ,
+  user_login_ty int DEFAULT '0',
+  user_type int DEFAULT '0',
+  user_day timestamp NULL DEFAULT CURRENT_TIMESTAMP,
+  user_num varchar(45) ,
+   deleted_at timestamp NULL DEFAULT NULL,
+  PRIMARY KEY (user_no)
+) ENGINE=InnoDB AUTO_INCREMENT=18 DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_general_ci COMMENT='유저'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1397,7 +1398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1489,6 +1490,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1534,7 +1541,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1567,9 +1574,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1579,12 +1583,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1923,56 +1921,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C17" sqref="C17:H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="9.625" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.58203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.58203125" customWidth="1"/>
+    <col min="8" max="8" width="11.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="60"/>
-    </row>
-    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
+    </row>
+    <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
-    </row>
-    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="69"/>
+    </row>
+    <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -1992,7 +1990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
@@ -2012,7 +2010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
@@ -2026,7 +2024,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
@@ -2040,7 +2038,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
@@ -2054,7 +2052,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C11" s="9" t="s">
         <v>26</v>
       </c>
@@ -2068,7 +2066,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C12" s="9" t="s">
         <v>28</v>
       </c>
@@ -2082,7 +2080,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C13" s="9" t="s">
         <v>30</v>
       </c>
@@ -2098,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C14" s="9" t="s">
         <v>31</v>
       </c>
@@ -2114,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C15" s="31" t="s">
         <v>33</v>
       </c>
@@ -2130,168 +2128,168 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="51"/>
-    </row>
-    <row r="18" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="54"/>
-    </row>
-    <row r="19" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="54"/>
-    </row>
-    <row r="20" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="54"/>
-    </row>
-    <row r="21" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="54"/>
-    </row>
-    <row r="22" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="54"/>
-    </row>
-    <row r="23" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="52"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="54"/>
-    </row>
-    <row r="24" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="52"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="54"/>
-    </row>
-    <row r="25" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="52"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="54"/>
-    </row>
-    <row r="26" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="52"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="54"/>
-    </row>
-    <row r="27" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="52"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="54"/>
-    </row>
-    <row r="28" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="52"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="54"/>
-    </row>
-    <row r="29" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="54"/>
-    </row>
-    <row r="30" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="52"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="54"/>
-    </row>
-    <row r="31" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="52"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="54"/>
-    </row>
-    <row r="32" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="52"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="54"/>
-    </row>
-    <row r="33" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="52"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="54"/>
-    </row>
-    <row r="34" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="52"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="54"/>
-    </row>
-    <row r="35" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="52"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="54"/>
-    </row>
-    <row r="36" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="55"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="57"/>
+    <row r="16" spans="3:8" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="17" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="57"/>
+    </row>
+    <row r="18" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="58"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="60"/>
+    </row>
+    <row r="19" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="58"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="60"/>
+    </row>
+    <row r="20" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="60"/>
+    </row>
+    <row r="21" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="60"/>
+    </row>
+    <row r="22" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="60"/>
+    </row>
+    <row r="23" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="58"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="60"/>
+    </row>
+    <row r="24" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C24" s="58"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="60"/>
+    </row>
+    <row r="25" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C25" s="58"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="60"/>
+    </row>
+    <row r="26" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C26" s="58"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="60"/>
+    </row>
+    <row r="27" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C27" s="58"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="60"/>
+    </row>
+    <row r="28" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="60"/>
+    </row>
+    <row r="29" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C29" s="58"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="60"/>
+    </row>
+    <row r="30" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C30" s="58"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="60"/>
+    </row>
+    <row r="31" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C31" s="58"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="60"/>
+    </row>
+    <row r="32" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C32" s="58"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="60"/>
+    </row>
+    <row r="33" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C33" s="58"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="60"/>
+    </row>
+    <row r="34" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C34" s="58"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="60"/>
+    </row>
+    <row r="35" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C35" s="58"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="60"/>
+    </row>
+    <row r="36" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C36" s="61"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2306,74 +2304,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="9.625" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="8.875" customWidth="1"/>
-    <col min="11" max="11" width="16.125" customWidth="1"/>
-    <col min="12" max="14" width="8.875" customWidth="1"/>
-    <col min="15" max="15" width="18.375" customWidth="1"/>
-    <col min="16" max="16" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="11.58203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.58203125" customWidth="1"/>
+    <col min="8" max="8" width="11.58203125" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16.08203125" customWidth="1"/>
+    <col min="12" max="14" width="8.83203125" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="3:20" x14ac:dyDescent="0.45">
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="84"/>
       <c r="O2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="76" t="s">
+      <c r="P2" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="78"/>
-    </row>
-    <row r="3" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="84"/>
+    </row>
+    <row r="3" spans="3:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="75"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="81"/>
       <c r="O3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="73" t="s">
+      <c r="P3" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="75"/>
-    </row>
-    <row r="5" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="81"/>
+    </row>
+    <row r="5" spans="3:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2384,7 +2382,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D6" s="21" t="s">
         <v>11</v>
       </c>
@@ -2422,7 +2420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.45">
       <c r="D7" s="24" t="s">
         <v>165</v>
       </c>
@@ -2460,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.45">
       <c r="D8" s="37" t="s">
         <v>92</v>
       </c>
@@ -2494,7 +2492,7 @@
       </c>
       <c r="T8" s="40"/>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.45">
       <c r="D9" s="14" t="s">
         <v>93</v>
       </c>
@@ -2524,7 +2522,7 @@
       <c r="S9" s="5"/>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.45">
       <c r="D10" s="14" t="s">
         <v>141</v>
       </c>
@@ -2554,7 +2552,7 @@
       <c r="S10" s="5"/>
       <c r="T10" s="6"/>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.45">
       <c r="D11" s="14" t="s">
         <v>142</v>
       </c>
@@ -2584,7 +2582,7 @@
       <c r="S11" s="5"/>
       <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.45">
       <c r="D12" s="14" t="s">
         <v>135</v>
       </c>
@@ -2614,7 +2612,7 @@
       <c r="S12" s="5"/>
       <c r="T12" s="6"/>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.45">
       <c r="D13" s="14" t="s">
         <v>94</v>
       </c>
@@ -2629,10 +2627,10 @@
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="80" t="s">
+      <c r="J13" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="K13" s="81"/>
+      <c r="K13" s="86"/>
       <c r="M13" t="s">
         <v>146</v>
       </c>
@@ -2651,7 +2649,7 @@
       <c r="S13" s="5"/>
       <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.45">
       <c r="D14" s="14" t="s">
         <v>143</v>
       </c>
@@ -2688,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.45">
       <c r="D15" s="14" t="s">
         <v>95</v>
       </c>
@@ -2724,7 +2722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.45">
       <c r="D16" s="14" t="s">
         <v>111</v>
       </c>
@@ -2760,7 +2758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:20" x14ac:dyDescent="0.45">
       <c r="D17" s="44" t="s">
         <v>113</v>
       </c>
@@ -2792,7 +2790,7 @@
       <c r="S17" s="45"/>
       <c r="T17" s="46"/>
     </row>
-    <row r="18" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:20" x14ac:dyDescent="0.45">
       <c r="D18" s="44" t="s">
         <v>115</v>
       </c>
@@ -2822,7 +2820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D19" s="15" t="s">
         <v>96</v>
       </c>
@@ -2840,13 +2838,13 @@
         <v>10</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>41</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R19" s="17"/>
       <c r="S19" s="17"/>
@@ -2854,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:20" x14ac:dyDescent="0.45">
       <c r="O20" s="48" t="s">
         <v>161</v>
       </c>
@@ -2864,11 +2862,11 @@
       <c r="Q20" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="R20" s="85"/>
-      <c r="S20" s="85"/>
-      <c r="T20" s="89"/>
-    </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="53"/>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.45">
       <c r="O21" s="48" t="s">
         <v>162</v>
       </c>
@@ -2878,333 +2876,333 @@
       <c r="Q21" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="R21" s="85"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="89"/>
-    </row>
-    <row r="22" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O22" s="88" t="s">
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="53"/>
+    </row>
+    <row r="22" spans="4:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="O22" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="P22" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="P22" s="86" t="s">
+      <c r="Q22" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="Q22" s="86" t="s">
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="54"/>
+    </row>
+    <row r="23" spans="4:20" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D23" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="72"/>
+    </row>
+    <row r="24" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D24" s="73"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="75"/>
+      <c r="O24" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="R22" s="87"/>
-      <c r="S22" s="87"/>
-      <c r="T22" s="90"/>
-    </row>
-    <row r="23" spans="4:20" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D23" s="64" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="66"/>
-    </row>
-    <row r="24" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="67"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="69"/>
-      <c r="O24" s="64" t="s">
-        <v>173</v>
-      </c>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="65"/>
-      <c r="T24" s="66"/>
-    </row>
-    <row r="25" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="67"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="69"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="69"/>
-    </row>
-    <row r="26" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="67"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="69"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="69"/>
-    </row>
-    <row r="27" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="67"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="69"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="68"/>
-      <c r="S27" s="68"/>
-      <c r="T27" s="69"/>
-    </row>
-    <row r="28" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="67"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="69"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="69"/>
-    </row>
-    <row r="29" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="67"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="69"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="68"/>
-      <c r="R29" s="68"/>
-      <c r="S29" s="68"/>
-      <c r="T29" s="69"/>
-    </row>
-    <row r="30" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="67"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="69"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="68"/>
-      <c r="R30" s="68"/>
-      <c r="S30" s="68"/>
-      <c r="T30" s="69"/>
-    </row>
-    <row r="31" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="67"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="69"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="68"/>
-      <c r="R31" s="68"/>
-      <c r="S31" s="68"/>
-      <c r="T31" s="69"/>
-    </row>
-    <row r="32" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="67"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="69"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="68"/>
-      <c r="Q32" s="68"/>
-      <c r="R32" s="68"/>
-      <c r="S32" s="68"/>
-      <c r="T32" s="69"/>
-    </row>
-    <row r="33" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="67"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="69"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="68"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="69"/>
-    </row>
-    <row r="34" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="67"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="69"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="68"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="68"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="69"/>
-    </row>
-    <row r="35" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="67"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="69"/>
-      <c r="O35" s="67"/>
-      <c r="P35" s="68"/>
-      <c r="Q35" s="68"/>
-      <c r="R35" s="68"/>
-      <c r="S35" s="68"/>
-      <c r="T35" s="69"/>
-    </row>
-    <row r="36" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="67"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="69"/>
-      <c r="O36" s="67"/>
-      <c r="P36" s="68"/>
-      <c r="Q36" s="68"/>
-      <c r="R36" s="68"/>
-      <c r="S36" s="68"/>
-      <c r="T36" s="69"/>
-    </row>
-    <row r="37" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="67"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="69"/>
-      <c r="O37" s="67"/>
-      <c r="P37" s="68"/>
-      <c r="Q37" s="68"/>
-      <c r="R37" s="68"/>
-      <c r="S37" s="68"/>
-      <c r="T37" s="69"/>
-    </row>
-    <row r="38" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="67"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="69"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="68"/>
-      <c r="Q38" s="68"/>
-      <c r="R38" s="68"/>
-      <c r="S38" s="68"/>
-      <c r="T38" s="69"/>
-    </row>
-    <row r="39" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="67"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="69"/>
-      <c r="O39" s="67"/>
-      <c r="P39" s="68"/>
-      <c r="Q39" s="68"/>
-      <c r="R39" s="68"/>
-      <c r="S39" s="68"/>
-      <c r="T39" s="69"/>
-    </row>
-    <row r="40" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="67"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="69"/>
-      <c r="O40" s="67"/>
-      <c r="P40" s="68"/>
-      <c r="Q40" s="68"/>
-      <c r="R40" s="68"/>
-      <c r="S40" s="68"/>
-      <c r="T40" s="69"/>
-    </row>
-    <row r="41" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="67"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="69"/>
-      <c r="O41" s="67"/>
-      <c r="P41" s="68"/>
-      <c r="Q41" s="68"/>
-      <c r="R41" s="68"/>
-      <c r="S41" s="68"/>
-      <c r="T41" s="69"/>
-    </row>
-    <row r="42" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="70"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="72"/>
-      <c r="O42" s="67"/>
-      <c r="P42" s="68"/>
-      <c r="Q42" s="68"/>
-      <c r="R42" s="68"/>
-      <c r="S42" s="68"/>
-      <c r="T42" s="69"/>
-    </row>
-    <row r="43" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="O43" s="67"/>
-      <c r="P43" s="68"/>
-      <c r="Q43" s="68"/>
-      <c r="R43" s="68"/>
-      <c r="S43" s="68"/>
-      <c r="T43" s="69"/>
-    </row>
-    <row r="44" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="O44" s="67"/>
-      <c r="P44" s="68"/>
-      <c r="Q44" s="68"/>
-      <c r="R44" s="68"/>
-      <c r="S44" s="68"/>
-      <c r="T44" s="69"/>
-    </row>
-    <row r="45" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="O45" s="67"/>
-      <c r="P45" s="68"/>
-      <c r="Q45" s="68"/>
-      <c r="R45" s="68"/>
-      <c r="S45" s="68"/>
-      <c r="T45" s="69"/>
-    </row>
-    <row r="46" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O46" s="70"/>
-      <c r="P46" s="71"/>
-      <c r="Q46" s="71"/>
-      <c r="R46" s="71"/>
-      <c r="S46" s="71"/>
-      <c r="T46" s="72"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="72"/>
+    </row>
+    <row r="25" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D25" s="73"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="75"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="74"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="75"/>
+    </row>
+    <row r="26" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D26" s="73"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="75"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="75"/>
+    </row>
+    <row r="27" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D27" s="73"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="75"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="74"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="75"/>
+    </row>
+    <row r="28" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D28" s="73"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="75"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="74"/>
+      <c r="S28" s="74"/>
+      <c r="T28" s="75"/>
+    </row>
+    <row r="29" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D29" s="73"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="75"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="74"/>
+      <c r="S29" s="74"/>
+      <c r="T29" s="75"/>
+    </row>
+    <row r="30" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D30" s="73"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="75"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="74"/>
+      <c r="S30" s="74"/>
+      <c r="T30" s="75"/>
+    </row>
+    <row r="31" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D31" s="73"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="75"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="74"/>
+      <c r="S31" s="74"/>
+      <c r="T31" s="75"/>
+    </row>
+    <row r="32" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D32" s="73"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="75"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="74"/>
+      <c r="S32" s="74"/>
+      <c r="T32" s="75"/>
+    </row>
+    <row r="33" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D33" s="73"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="75"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="74"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="74"/>
+      <c r="S33" s="74"/>
+      <c r="T33" s="75"/>
+    </row>
+    <row r="34" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D34" s="73"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="75"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="74"/>
+      <c r="R34" s="74"/>
+      <c r="S34" s="74"/>
+      <c r="T34" s="75"/>
+    </row>
+    <row r="35" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D35" s="73"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="75"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="74"/>
+      <c r="S35" s="74"/>
+      <c r="T35" s="75"/>
+    </row>
+    <row r="36" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D36" s="73"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="75"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="74"/>
+      <c r="Q36" s="74"/>
+      <c r="R36" s="74"/>
+      <c r="S36" s="74"/>
+      <c r="T36" s="75"/>
+    </row>
+    <row r="37" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D37" s="73"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="75"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="75"/>
+    </row>
+    <row r="38" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D38" s="73"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="75"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="74"/>
+      <c r="R38" s="74"/>
+      <c r="S38" s="74"/>
+      <c r="T38" s="75"/>
+    </row>
+    <row r="39" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D39" s="73"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="75"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="74"/>
+      <c r="R39" s="74"/>
+      <c r="S39" s="74"/>
+      <c r="T39" s="75"/>
+    </row>
+    <row r="40" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D40" s="73"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="75"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="74"/>
+      <c r="Q40" s="74"/>
+      <c r="R40" s="74"/>
+      <c r="S40" s="74"/>
+      <c r="T40" s="75"/>
+    </row>
+    <row r="41" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D41" s="73"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="75"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="74"/>
+      <c r="Q41" s="74"/>
+      <c r="R41" s="74"/>
+      <c r="S41" s="74"/>
+      <c r="T41" s="75"/>
+    </row>
+    <row r="42" spans="4:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D42" s="76"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="78"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="74"/>
+      <c r="R42" s="74"/>
+      <c r="S42" s="74"/>
+      <c r="T42" s="75"/>
+    </row>
+    <row r="43" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="O43" s="73"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="74"/>
+      <c r="R43" s="74"/>
+      <c r="S43" s="74"/>
+      <c r="T43" s="75"/>
+    </row>
+    <row r="44" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="O44" s="73"/>
+      <c r="P44" s="74"/>
+      <c r="Q44" s="74"/>
+      <c r="R44" s="74"/>
+      <c r="S44" s="74"/>
+      <c r="T44" s="75"/>
+    </row>
+    <row r="45" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="O45" s="73"/>
+      <c r="P45" s="74"/>
+      <c r="Q45" s="74"/>
+      <c r="R45" s="74"/>
+      <c r="S45" s="74"/>
+      <c r="T45" s="75"/>
+    </row>
+    <row r="46" spans="4:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="O46" s="76"/>
+      <c r="P46" s="77"/>
+      <c r="Q46" s="77"/>
+      <c r="R46" s="77"/>
+      <c r="S46" s="77"/>
+      <c r="T46" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3223,56 +3221,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C1:H29"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C16" sqref="C16:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="9.625" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.58203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.58203125" customWidth="1"/>
+    <col min="8" max="8" width="11.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="60"/>
-    </row>
-    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
+    </row>
+    <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
-    </row>
-    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="89"/>
+    </row>
+    <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -3292,7 +3290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C7" s="24" t="s">
         <v>58</v>
       </c>
@@ -3312,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
@@ -3330,7 +3328,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C9" s="9" t="s">
         <v>59</v>
       </c>
@@ -3346,7 +3344,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C10" s="9" t="s">
         <v>60</v>
       </c>
@@ -3362,7 +3360,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C11" s="9" t="s">
         <v>61</v>
       </c>
@@ -3378,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C12" s="9" t="s">
         <v>62</v>
       </c>
@@ -3392,7 +3390,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C13" s="9" t="s">
         <v>63</v>
       </c>
@@ -3408,7 +3406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C14" s="10" t="s">
         <v>79</v>
       </c>
@@ -3422,120 +3420,120 @@
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="64" t="s">
+    <row r="15" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C16" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="67"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="69"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="67"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="69"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="67"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="69"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="67"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="69"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="67"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="69"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="67"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="69"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="67"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="69"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="67"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="69"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="67"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="69"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="67"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="69"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="67"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="69"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="67"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="69"/>
-    </row>
-    <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="70"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="72"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="72"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="75"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="75"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="75"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="75"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="75"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="75"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="75"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="75"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C26" s="73"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="75"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C27" s="73"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="75"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C28" s="73"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="75"/>
+    </row>
+    <row r="29" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C29" s="76"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3549,56 +3547,56 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C1:K29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C17" sqref="C17:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="9.625" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.58203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.58203125" customWidth="1"/>
+    <col min="8" max="8" width="11.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="60"/>
-    </row>
-    <row r="3" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
+    </row>
+    <row r="3" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
-    </row>
-    <row r="5" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="89"/>
+    </row>
+    <row r="5" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -3618,7 +3616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C7" s="24" t="s">
         <v>47</v>
       </c>
@@ -3638,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
@@ -3656,7 +3654,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C9" s="9" t="s">
         <v>50</v>
       </c>
@@ -3672,7 +3670,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C10" s="9" t="s">
         <v>51</v>
       </c>
@@ -3686,7 +3684,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C11" s="9" t="s">
         <v>124</v>
       </c>
@@ -3702,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C12" s="9" t="s">
         <v>52</v>
       </c>
@@ -3721,7 +3719,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C13" s="9" t="s">
         <v>73</v>
       </c>
@@ -3735,113 +3733,113 @@
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="15" spans="3:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="3:11" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="64" t="s">
+    <row r="15" spans="3:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="3:11" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="17" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="66"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="67"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="69"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="67"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="69"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="67"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="69"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="67"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="69"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="67"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="69"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="67"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="69"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="67"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="69"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="67"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="69"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="67"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="69"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="67"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="69"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="67"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="69"/>
-    </row>
-    <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="70"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="72"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="72"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="75"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="75"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="75"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="75"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="75"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="75"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="75"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C26" s="73"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="75"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C27" s="73"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="75"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C28" s="73"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="75"/>
+    </row>
+    <row r="29" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C29" s="76"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3856,75 +3854,75 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="25.75" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="18.875" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
-    <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.08203125" customWidth="1"/>
+    <col min="7" max="7" width="15.08203125" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
     <col min="12" max="12" width="14.75" customWidth="1"/>
     <col min="13" max="13" width="17.25" customWidth="1"/>
-    <col min="14" max="14" width="14.625" customWidth="1"/>
-    <col min="15" max="15" width="16.375" customWidth="1"/>
-    <col min="16" max="16" width="14.375" customWidth="1"/>
-    <col min="17" max="17" width="13.875" customWidth="1"/>
+    <col min="14" max="14" width="14.58203125" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="60"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
       <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="58" t="s">
+      <c r="M2" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="60"/>
-    </row>
-    <row r="3" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="66"/>
+    </row>
+    <row r="3" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="89"/>
       <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="82" t="s">
+      <c r="M3" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="84"/>
-    </row>
-    <row r="5" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="5" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -3936,7 +3934,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -3974,7 +3972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C7" s="24" t="s">
         <v>98</v>
       </c>
@@ -4004,7 +4002,7 @@
       </c>
       <c r="Q7" s="27"/>
     </row>
-    <row r="8" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C8" s="9" t="s">
         <v>47</v>
       </c>
@@ -4034,7 +4032,7 @@
       </c>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
@@ -4064,7 +4062,7 @@
       </c>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C10" s="9" t="s">
         <v>102</v>
       </c>
@@ -4090,7 +4088,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C11" s="9" t="s">
         <v>104</v>
       </c>
@@ -4116,7 +4114,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C12" s="9" t="s">
         <v>105</v>
       </c>
@@ -4142,206 +4140,206 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="14" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C15" s="64" t="s">
+    <row r="14" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C15" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66"/>
-      <c r="L15" s="64" t="s">
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="72"/>
+      <c r="L15" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="66"/>
-    </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C16" s="67"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="69"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="69"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C17" s="67"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="69"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="69"/>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C18" s="67"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="69"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="69"/>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C19" s="67"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="69"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="69"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C20" s="67"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="69"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="69"/>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C21" s="67"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="69"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="69"/>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C22" s="67"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="69"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="69"/>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C23" s="67"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="69"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="69"/>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C24" s="67"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="69"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="69"/>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C25" s="67"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="69"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="69"/>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C26" s="67"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="69"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="69"/>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C27" s="67"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="69"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="69"/>
-    </row>
-    <row r="28" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="70"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="72"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="72"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="72"/>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="75"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="75"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="75"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="75"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="75"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="75"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="75"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="75"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="75"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="75"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="75"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="75"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="75"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="75"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="75"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="75"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="75"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="75"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="75"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C26" s="73"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="75"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="75"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C27" s="73"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="75"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="75"/>
+    </row>
+    <row r="28" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C28" s="76"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="78"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4359,56 +4357,56 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C1:H29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C15" sqref="C15:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="9.625" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.58203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.58203125" customWidth="1"/>
+    <col min="8" max="8" width="11.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
-    </row>
-    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="84"/>
+    </row>
+    <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
-    </row>
-    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="81"/>
+    </row>
+    <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -4428,7 +4426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C7" s="24" t="s">
         <v>126</v>
       </c>
@@ -4448,7 +4446,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C8" s="14" t="s">
         <v>68</v>
       </c>
@@ -4466,7 +4464,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C9" s="14" t="s">
         <v>129</v>
       </c>
@@ -4482,7 +4480,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C10" s="14" t="s">
         <v>131</v>
       </c>
@@ -4498,7 +4496,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C11" s="14" t="s">
         <v>133</v>
       </c>
@@ -4514,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C12" s="30" t="s">
         <v>134</v>
       </c>
@@ -4532,128 +4530,128 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="64" t="s">
+    <row r="14" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="15" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66"/>
-    </row>
-    <row r="16" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="67"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="69"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="67"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="69"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="67"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="69"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="67"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="69"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="67"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="69"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="67"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="69"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="67"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="69"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="67"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="69"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="67"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="69"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="67"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="69"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="67"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="69"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="67"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="69"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="67"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="69"/>
-    </row>
-    <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="70"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="72"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="72"/>
+    </row>
+    <row r="16" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="75"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="75"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="75"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="75"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="75"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="75"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="75"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="75"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="75"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C26" s="73"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="75"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C27" s="73"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="75"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C28" s="73"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="75"/>
+    </row>
+    <row r="29" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C29" s="76"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4667,52 +4665,52 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="C1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="23.625" customWidth="1"/>
+    <col min="8" max="8" width="23.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
-    </row>
-    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="84"/>
+    </row>
+    <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
-    </row>
-    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="81"/>
+    </row>
+    <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -4732,7 +4730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C7" s="24" t="s">
         <v>152</v>
       </c>
@@ -4752,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C8" s="14" t="s">
         <v>8</v>
       </c>
@@ -4770,7 +4768,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C9" s="14" t="s">
         <v>153</v>
       </c>
@@ -4784,7 +4782,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C10" s="14" t="s">
         <v>154</v>
       </c>
@@ -4800,7 +4798,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C11" s="14" t="s">
         <v>16</v>
       </c>
@@ -4816,128 +4814,128 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="64" t="s">
+    <row r="13" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C14" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="66"/>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="67"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="69"/>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="67"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="69"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="67"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="69"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="67"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="69"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="67"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="69"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="67"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="69"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="67"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="69"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="67"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="69"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="67"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="69"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="67"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="69"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="67"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="69"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="67"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="69"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="67"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="69"/>
-    </row>
-    <row r="28" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="70"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="72"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="72"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="75"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="75"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="75"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="75"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="75"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="75"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="75"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="75"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="75"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C26" s="73"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="75"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C27" s="73"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="75"/>
+    </row>
+    <row r="28" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C28" s="76"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/문서파일/QuizBeeDB.xlsx
+++ b/문서파일/QuizBeeDB.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doyou\OneDrive\Desktop\QuizBee\문서파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\QuizBee\문서파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79E7861-8B59-4937-B2AC-CCF58BFFC404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="3" r:id="rId1"/>
-    <sheet name="Quiz" sheetId="6" r:id="rId2"/>
-    <sheet name="Q&amp;A" sheetId="9" r:id="rId3"/>
-    <sheet name="BOARD" sheetId="10" r:id="rId4"/>
-    <sheet name="COMMENT" sheetId="13" r:id="rId5"/>
-    <sheet name="NOTICE" sheetId="12" r:id="rId6"/>
-    <sheet name="Reports" sheetId="14" r:id="rId7"/>
+    <sheet name="SOLVING" sheetId="15" r:id="rId2"/>
+    <sheet name="Quiz" sheetId="6" r:id="rId3"/>
+    <sheet name="Q&amp;A" sheetId="9" r:id="rId4"/>
+    <sheet name="BOARD" sheetId="10" r:id="rId5"/>
+    <sheet name="COMMENT" sheetId="13" r:id="rId6"/>
+    <sheet name="NOTICE" sheetId="12" r:id="rId7"/>
+    <sheet name="Reports" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="186">
   <si>
     <t>auto</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -827,11 +827,69 @@
 ) ENGINE=InnoDB AUTO_INCREMENT=18 DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_general_ci COMMENT='유저'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>CREATE TABLE quiz_solving (
+sol_no int not null auto_increment,
+quiz_no int not null,
+user_no int not null,
+sol_whether boolean default false,
+created_at timestamp default current_timestamp,
+primary key(sol_no),
+constraint quiz_no_ibk_1 foreign key (quiz_no) references quiz_info(quiz_no),
+constraint user_no_ibk_1 foreign key (user_no) references quiz_user(user_no)
+) comment='유저의 문제푼 날짜 및 여부'
+ENGINE=InnoDB;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sol_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quiz_solving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 문제를 풀었다면 업데이트 되는 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀이 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sol_whether</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제풀이 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>created_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀이 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -904,7 +962,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1394,11 +1452,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1583,6 +1715,32 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1921,25 +2079,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:H36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.08203125" customWidth="1"/>
-    <col min="5" max="5" width="11.58203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="9.58203125" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1951,7 +2109,7 @@
       <c r="G2" s="65"/>
       <c r="H2" s="66"/>
     </row>
-    <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1963,14 +2121,14 @@
       <c r="G3" s="68"/>
       <c r="H3" s="69"/>
     </row>
-    <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -1990,7 +2148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
@@ -2010,7 +2168,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
@@ -2024,7 +2182,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
@@ -2038,7 +2196,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
@@ -2052,7 +2210,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
         <v>26</v>
       </c>
@@ -2066,7 +2224,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
         <v>28</v>
       </c>
@@ -2080,7 +2238,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="9" t="s">
         <v>30</v>
       </c>
@@ -2096,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" s="9" t="s">
         <v>31</v>
       </c>
@@ -2112,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="31" t="s">
         <v>33</v>
       </c>
@@ -2128,8 +2286,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="17" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:8" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="55" t="s">
         <v>173</v>
       </c>
@@ -2139,7 +2297,7 @@
       <c r="G17" s="56"/>
       <c r="H17" s="57"/>
     </row>
-    <row r="18" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="58"/>
       <c r="D18" s="59"/>
       <c r="E18" s="59"/>
@@ -2147,7 +2305,7 @@
       <c r="G18" s="59"/>
       <c r="H18" s="60"/>
     </row>
-    <row r="19" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="58"/>
       <c r="D19" s="59"/>
       <c r="E19" s="59"/>
@@ -2155,7 +2313,7 @@
       <c r="G19" s="59"/>
       <c r="H19" s="60"/>
     </row>
-    <row r="20" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="58"/>
       <c r="D20" s="59"/>
       <c r="E20" s="59"/>
@@ -2163,7 +2321,7 @@
       <c r="G20" s="59"/>
       <c r="H20" s="60"/>
     </row>
-    <row r="21" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="58"/>
       <c r="D21" s="59"/>
       <c r="E21" s="59"/>
@@ -2171,7 +2329,7 @@
       <c r="G21" s="59"/>
       <c r="H21" s="60"/>
     </row>
-    <row r="22" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="58"/>
       <c r="D22" s="59"/>
       <c r="E22" s="59"/>
@@ -2179,7 +2337,7 @@
       <c r="G22" s="59"/>
       <c r="H22" s="60"/>
     </row>
-    <row r="23" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="58"/>
       <c r="D23" s="59"/>
       <c r="E23" s="59"/>
@@ -2187,7 +2345,7 @@
       <c r="G23" s="59"/>
       <c r="H23" s="60"/>
     </row>
-    <row r="24" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="58"/>
       <c r="D24" s="59"/>
       <c r="E24" s="59"/>
@@ -2195,7 +2353,7 @@
       <c r="G24" s="59"/>
       <c r="H24" s="60"/>
     </row>
-    <row r="25" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="58"/>
       <c r="D25" s="59"/>
       <c r="E25" s="59"/>
@@ -2203,7 +2361,7 @@
       <c r="G25" s="59"/>
       <c r="H25" s="60"/>
     </row>
-    <row r="26" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="58"/>
       <c r="D26" s="59"/>
       <c r="E26" s="59"/>
@@ -2211,7 +2369,7 @@
       <c r="G26" s="59"/>
       <c r="H26" s="60"/>
     </row>
-    <row r="27" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="58"/>
       <c r="D27" s="59"/>
       <c r="E27" s="59"/>
@@ -2219,7 +2377,7 @@
       <c r="G27" s="59"/>
       <c r="H27" s="60"/>
     </row>
-    <row r="28" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="58"/>
       <c r="D28" s="59"/>
       <c r="E28" s="59"/>
@@ -2227,7 +2385,7 @@
       <c r="G28" s="59"/>
       <c r="H28" s="60"/>
     </row>
-    <row r="29" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="58"/>
       <c r="D29" s="59"/>
       <c r="E29" s="59"/>
@@ -2235,7 +2393,7 @@
       <c r="G29" s="59"/>
       <c r="H29" s="60"/>
     </row>
-    <row r="30" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="58"/>
       <c r="D30" s="59"/>
       <c r="E30" s="59"/>
@@ -2243,7 +2401,7 @@
       <c r="G30" s="59"/>
       <c r="H30" s="60"/>
     </row>
-    <row r="31" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="58"/>
       <c r="D31" s="59"/>
       <c r="E31" s="59"/>
@@ -2251,7 +2409,7 @@
       <c r="G31" s="59"/>
       <c r="H31" s="60"/>
     </row>
-    <row r="32" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="58"/>
       <c r="D32" s="59"/>
       <c r="E32" s="59"/>
@@ -2259,7 +2417,7 @@
       <c r="G32" s="59"/>
       <c r="H32" s="60"/>
     </row>
-    <row r="33" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="58"/>
       <c r="D33" s="59"/>
       <c r="E33" s="59"/>
@@ -2267,7 +2425,7 @@
       <c r="G33" s="59"/>
       <c r="H33" s="60"/>
     </row>
-    <row r="34" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="58"/>
       <c r="D34" s="59"/>
       <c r="E34" s="59"/>
@@ -2275,7 +2433,7 @@
       <c r="G34" s="59"/>
       <c r="H34" s="60"/>
     </row>
-    <row r="35" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="58"/>
       <c r="D35" s="59"/>
       <c r="E35" s="59"/>
@@ -2283,7 +2441,7 @@
       <c r="G35" s="59"/>
       <c r="H35" s="60"/>
     </row>
-    <row r="36" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C36" s="61"/>
       <c r="D36" s="62"/>
       <c r="E36" s="62"/>
@@ -2304,30 +2462,406 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="44.375" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="96"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="94"/>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="98"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="100"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="102"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="102"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="101" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="102"/>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="87" t="s">
+        <v>185</v>
+      </c>
+      <c r="H11" s="89"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="104"/>
+      <c r="B12" s="105"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I13" s="104"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I15" s="104"/>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="103"/>
+      <c r="H16" s="103"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="57"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="58"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="60"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="58"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="60"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="58"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="60"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="58"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="60"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="58"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="60"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="58"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="60"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="58"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="60"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="58"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="60"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="58"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="60"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="58"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="60"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="58"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="60"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="58"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="60"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="58"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="60"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="58"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="60"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="58"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="60"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="58"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="60"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="58"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="60"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="58"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="60"/>
+    </row>
+    <row r="36" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="61"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B17:H36"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:T46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.58203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="9.58203125" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" customWidth="1"/>
-    <col min="11" max="11" width="16.08203125" customWidth="1"/>
-    <col min="12" max="14" width="8.83203125" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="8.875" customWidth="1"/>
+    <col min="11" max="11" width="16.125" customWidth="1"/>
+    <col min="12" max="14" width="8.875" customWidth="1"/>
+    <col min="15" max="15" width="18.375" customWidth="1"/>
+    <col min="16" max="16" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2349,7 +2883,7 @@
       <c r="S2" s="83"/>
       <c r="T2" s="84"/>
     </row>
-    <row r="3" spans="3:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2371,7 +2905,7 @@
       <c r="S3" s="80"/>
       <c r="T3" s="81"/>
     </row>
-    <row r="5" spans="3:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2382,7 +2916,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="3:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="21" t="s">
         <v>11</v>
       </c>
@@ -2420,7 +2954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D7" s="24" t="s">
         <v>165</v>
       </c>
@@ -2458,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D8" s="37" t="s">
         <v>92</v>
       </c>
@@ -2492,7 +3026,7 @@
       </c>
       <c r="T8" s="40"/>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D9" s="14" t="s">
         <v>93</v>
       </c>
@@ -2522,7 +3056,7 @@
       <c r="S9" s="5"/>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D10" s="14" t="s">
         <v>141</v>
       </c>
@@ -2552,7 +3086,7 @@
       <c r="S10" s="5"/>
       <c r="T10" s="6"/>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D11" s="14" t="s">
         <v>142</v>
       </c>
@@ -2582,7 +3116,7 @@
       <c r="S11" s="5"/>
       <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D12" s="14" t="s">
         <v>135</v>
       </c>
@@ -2612,7 +3146,7 @@
       <c r="S12" s="5"/>
       <c r="T12" s="6"/>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D13" s="14" t="s">
         <v>94</v>
       </c>
@@ -2649,7 +3183,7 @@
       <c r="S13" s="5"/>
       <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D14" s="14" t="s">
         <v>143</v>
       </c>
@@ -2686,7 +3220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D15" s="14" t="s">
         <v>95</v>
       </c>
@@ -2722,7 +3256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D16" s="14" t="s">
         <v>111</v>
       </c>
@@ -2758,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D17" s="44" t="s">
         <v>113</v>
       </c>
@@ -2790,7 +3324,7 @@
       <c r="S17" s="45"/>
       <c r="T17" s="46"/>
     </row>
-    <row r="18" spans="4:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D18" s="44" t="s">
         <v>115</v>
       </c>
@@ -2820,7 +3354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="4:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D19" s="15" t="s">
         <v>96</v>
       </c>
@@ -2852,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:20" x14ac:dyDescent="0.3">
       <c r="O20" s="48" t="s">
         <v>161</v>
       </c>
@@ -2866,7 +3400,7 @@
       <c r="S20" s="49"/>
       <c r="T20" s="53"/>
     </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:20" x14ac:dyDescent="0.3">
       <c r="O21" s="48" t="s">
         <v>162</v>
       </c>
@@ -2880,7 +3414,7 @@
       <c r="S21" s="49"/>
       <c r="T21" s="53"/>
     </row>
-    <row r="22" spans="4:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O22" s="52" t="s">
         <v>169</v>
       </c>
@@ -2894,7 +3428,7 @@
       <c r="S22" s="51"/>
       <c r="T22" s="54"/>
     </row>
-    <row r="23" spans="4:20" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="4:20" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D23" s="70" t="s">
         <v>166</v>
       </c>
@@ -2904,7 +3438,7 @@
       <c r="H23" s="71"/>
       <c r="I23" s="72"/>
     </row>
-    <row r="24" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" s="73"/>
       <c r="E24" s="74"/>
       <c r="F24" s="74"/>
@@ -2920,7 +3454,7 @@
       <c r="S24" s="71"/>
       <c r="T24" s="72"/>
     </row>
-    <row r="25" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" s="73"/>
       <c r="E25" s="74"/>
       <c r="F25" s="74"/>
@@ -2934,7 +3468,7 @@
       <c r="S25" s="74"/>
       <c r="T25" s="75"/>
     </row>
-    <row r="26" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="73"/>
       <c r="E26" s="74"/>
       <c r="F26" s="74"/>
@@ -2948,7 +3482,7 @@
       <c r="S26" s="74"/>
       <c r="T26" s="75"/>
     </row>
-    <row r="27" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D27" s="73"/>
       <c r="E27" s="74"/>
       <c r="F27" s="74"/>
@@ -2962,7 +3496,7 @@
       <c r="S27" s="74"/>
       <c r="T27" s="75"/>
     </row>
-    <row r="28" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28" s="73"/>
       <c r="E28" s="74"/>
       <c r="F28" s="74"/>
@@ -2976,7 +3510,7 @@
       <c r="S28" s="74"/>
       <c r="T28" s="75"/>
     </row>
-    <row r="29" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D29" s="73"/>
       <c r="E29" s="74"/>
       <c r="F29" s="74"/>
@@ -2990,7 +3524,7 @@
       <c r="S29" s="74"/>
       <c r="T29" s="75"/>
     </row>
-    <row r="30" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="73"/>
       <c r="E30" s="74"/>
       <c r="F30" s="74"/>
@@ -3004,7 +3538,7 @@
       <c r="S30" s="74"/>
       <c r="T30" s="75"/>
     </row>
-    <row r="31" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="73"/>
       <c r="E31" s="74"/>
       <c r="F31" s="74"/>
@@ -3018,7 +3552,7 @@
       <c r="S31" s="74"/>
       <c r="T31" s="75"/>
     </row>
-    <row r="32" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="73"/>
       <c r="E32" s="74"/>
       <c r="F32" s="74"/>
@@ -3032,7 +3566,7 @@
       <c r="S32" s="74"/>
       <c r="T32" s="75"/>
     </row>
-    <row r="33" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="73"/>
       <c r="E33" s="74"/>
       <c r="F33" s="74"/>
@@ -3046,7 +3580,7 @@
       <c r="S33" s="74"/>
       <c r="T33" s="75"/>
     </row>
-    <row r="34" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="73"/>
       <c r="E34" s="74"/>
       <c r="F34" s="74"/>
@@ -3060,7 +3594,7 @@
       <c r="S34" s="74"/>
       <c r="T34" s="75"/>
     </row>
-    <row r="35" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="73"/>
       <c r="E35" s="74"/>
       <c r="F35" s="74"/>
@@ -3074,7 +3608,7 @@
       <c r="S35" s="74"/>
       <c r="T35" s="75"/>
     </row>
-    <row r="36" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="73"/>
       <c r="E36" s="74"/>
       <c r="F36" s="74"/>
@@ -3088,7 +3622,7 @@
       <c r="S36" s="74"/>
       <c r="T36" s="75"/>
     </row>
-    <row r="37" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="73"/>
       <c r="E37" s="74"/>
       <c r="F37" s="74"/>
@@ -3102,7 +3636,7 @@
       <c r="S37" s="74"/>
       <c r="T37" s="75"/>
     </row>
-    <row r="38" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D38" s="73"/>
       <c r="E38" s="74"/>
       <c r="F38" s="74"/>
@@ -3116,7 +3650,7 @@
       <c r="S38" s="74"/>
       <c r="T38" s="75"/>
     </row>
-    <row r="39" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="73"/>
       <c r="E39" s="74"/>
       <c r="F39" s="74"/>
@@ -3130,7 +3664,7 @@
       <c r="S39" s="74"/>
       <c r="T39" s="75"/>
     </row>
-    <row r="40" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="73"/>
       <c r="E40" s="74"/>
       <c r="F40" s="74"/>
@@ -3144,7 +3678,7 @@
       <c r="S40" s="74"/>
       <c r="T40" s="75"/>
     </row>
-    <row r="41" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" s="73"/>
       <c r="E41" s="74"/>
       <c r="F41" s="74"/>
@@ -3158,7 +3692,7 @@
       <c r="S41" s="74"/>
       <c r="T41" s="75"/>
     </row>
-    <row r="42" spans="4:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D42" s="76"/>
       <c r="E42" s="77"/>
       <c r="F42" s="77"/>
@@ -3172,7 +3706,7 @@
       <c r="S42" s="74"/>
       <c r="T42" s="75"/>
     </row>
-    <row r="43" spans="4:20" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:20" x14ac:dyDescent="0.3">
       <c r="O43" s="73"/>
       <c r="P43" s="74"/>
       <c r="Q43" s="74"/>
@@ -3180,7 +3714,7 @@
       <c r="S43" s="74"/>
       <c r="T43" s="75"/>
     </row>
-    <row r="44" spans="4:20" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:20" x14ac:dyDescent="0.3">
       <c r="O44" s="73"/>
       <c r="P44" s="74"/>
       <c r="Q44" s="74"/>
@@ -3188,7 +3722,7 @@
       <c r="S44" s="74"/>
       <c r="T44" s="75"/>
     </row>
-    <row r="45" spans="4:20" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:20" x14ac:dyDescent="0.3">
       <c r="O45" s="73"/>
       <c r="P45" s="74"/>
       <c r="Q45" s="74"/>
@@ -3196,7 +3730,7 @@
       <c r="S45" s="74"/>
       <c r="T45" s="75"/>
     </row>
-    <row r="46" spans="4:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O46" s="76"/>
       <c r="P46" s="77"/>
       <c r="Q46" s="77"/>
@@ -3220,26 +3754,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H29"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C16" sqref="C16:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.08203125" customWidth="1"/>
-    <col min="5" max="5" width="11.58203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="9.58203125" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3251,7 +3785,7 @@
       <c r="G2" s="65"/>
       <c r="H2" s="66"/>
     </row>
-    <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -3263,14 +3797,14 @@
       <c r="G3" s="88"/>
       <c r="H3" s="89"/>
     </row>
-    <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -3290,7 +3824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
         <v>58</v>
       </c>
@@ -3310,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
@@ -3328,7 +3862,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>59</v>
       </c>
@@ -3344,7 +3878,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="9" t="s">
         <v>60</v>
       </c>
@@ -3360,7 +3894,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
         <v>61</v>
       </c>
@@ -3376,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
         <v>62</v>
       </c>
@@ -3390,7 +3924,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="9" t="s">
         <v>63</v>
       </c>
@@ -3406,7 +3940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="10" t="s">
         <v>79</v>
       </c>
@@ -3420,8 +3954,8 @@
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C16" s="70" t="s">
         <v>148</v>
       </c>
@@ -3431,7 +3965,7 @@
       <c r="G16" s="71"/>
       <c r="H16" s="72"/>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" s="73"/>
       <c r="D17" s="74"/>
       <c r="E17" s="74"/>
@@ -3439,7 +3973,7 @@
       <c r="G17" s="74"/>
       <c r="H17" s="75"/>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="73"/>
       <c r="D18" s="74"/>
       <c r="E18" s="74"/>
@@ -3447,7 +3981,7 @@
       <c r="G18" s="74"/>
       <c r="H18" s="75"/>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" s="73"/>
       <c r="D19" s="74"/>
       <c r="E19" s="74"/>
@@ -3455,7 +3989,7 @@
       <c r="G19" s="74"/>
       <c r="H19" s="75"/>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" s="73"/>
       <c r="D20" s="74"/>
       <c r="E20" s="74"/>
@@ -3463,7 +3997,7 @@
       <c r="G20" s="74"/>
       <c r="H20" s="75"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="73"/>
       <c r="D21" s="74"/>
       <c r="E21" s="74"/>
@@ -3471,7 +4005,7 @@
       <c r="G21" s="74"/>
       <c r="H21" s="75"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" s="73"/>
       <c r="D22" s="74"/>
       <c r="E22" s="74"/>
@@ -3479,7 +4013,7 @@
       <c r="G22" s="74"/>
       <c r="H22" s="75"/>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23" s="73"/>
       <c r="D23" s="74"/>
       <c r="E23" s="74"/>
@@ -3487,7 +4021,7 @@
       <c r="G23" s="74"/>
       <c r="H23" s="75"/>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24" s="73"/>
       <c r="D24" s="74"/>
       <c r="E24" s="74"/>
@@ -3495,7 +4029,7 @@
       <c r="G24" s="74"/>
       <c r="H24" s="75"/>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C25" s="73"/>
       <c r="D25" s="74"/>
       <c r="E25" s="74"/>
@@ -3503,7 +4037,7 @@
       <c r="G25" s="74"/>
       <c r="H25" s="75"/>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C26" s="73"/>
       <c r="D26" s="74"/>
       <c r="E26" s="74"/>
@@ -3511,7 +4045,7 @@
       <c r="G26" s="74"/>
       <c r="H26" s="75"/>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27" s="73"/>
       <c r="D27" s="74"/>
       <c r="E27" s="74"/>
@@ -3519,7 +4053,7 @@
       <c r="G27" s="74"/>
       <c r="H27" s="75"/>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C28" s="73"/>
       <c r="D28" s="74"/>
       <c r="E28" s="74"/>
@@ -3527,7 +4061,7 @@
       <c r="G28" s="74"/>
       <c r="H28" s="75"/>
     </row>
-    <row r="29" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C29" s="76"/>
       <c r="D29" s="77"/>
       <c r="E29" s="77"/>
@@ -3546,26 +4080,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:K29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C17" sqref="C17:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.08203125" customWidth="1"/>
-    <col min="5" max="5" width="11.58203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="9.58203125" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3577,7 +4111,7 @@
       <c r="G2" s="65"/>
       <c r="H2" s="66"/>
     </row>
-    <row r="3" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -3589,14 +4123,14 @@
       <c r="G3" s="88"/>
       <c r="H3" s="89"/>
     </row>
-    <row r="5" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -3616,7 +4150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
         <v>47</v>
       </c>
@@ -3636,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
@@ -3654,7 +4188,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>50</v>
       </c>
@@ -3670,7 +4204,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C10" s="9" t="s">
         <v>51</v>
       </c>
@@ -3684,7 +4218,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
         <v>124</v>
       </c>
@@ -3700,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
         <v>52</v>
       </c>
@@ -3719,7 +4253,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C13" s="9" t="s">
         <v>73</v>
       </c>
@@ -3733,9 +4267,9 @@
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="15" spans="3:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="3:11" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="17" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="3:11" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="70" t="s">
         <v>149</v>
       </c>
@@ -3745,7 +4279,7 @@
       <c r="G17" s="71"/>
       <c r="H17" s="72"/>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="73"/>
       <c r="D18" s="74"/>
       <c r="E18" s="74"/>
@@ -3753,7 +4287,7 @@
       <c r="G18" s="74"/>
       <c r="H18" s="75"/>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" s="73"/>
       <c r="D19" s="74"/>
       <c r="E19" s="74"/>
@@ -3761,7 +4295,7 @@
       <c r="G19" s="74"/>
       <c r="H19" s="75"/>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" s="73"/>
       <c r="D20" s="74"/>
       <c r="E20" s="74"/>
@@ -3769,7 +4303,7 @@
       <c r="G20" s="74"/>
       <c r="H20" s="75"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="73"/>
       <c r="D21" s="74"/>
       <c r="E21" s="74"/>
@@ -3777,7 +4311,7 @@
       <c r="G21" s="74"/>
       <c r="H21" s="75"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" s="73"/>
       <c r="D22" s="74"/>
       <c r="E22" s="74"/>
@@ -3785,7 +4319,7 @@
       <c r="G22" s="74"/>
       <c r="H22" s="75"/>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23" s="73"/>
       <c r="D23" s="74"/>
       <c r="E23" s="74"/>
@@ -3793,7 +4327,7 @@
       <c r="G23" s="74"/>
       <c r="H23" s="75"/>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24" s="73"/>
       <c r="D24" s="74"/>
       <c r="E24" s="74"/>
@@ -3801,7 +4335,7 @@
       <c r="G24" s="74"/>
       <c r="H24" s="75"/>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C25" s="73"/>
       <c r="D25" s="74"/>
       <c r="E25" s="74"/>
@@ -3809,7 +4343,7 @@
       <c r="G25" s="74"/>
       <c r="H25" s="75"/>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C26" s="73"/>
       <c r="D26" s="74"/>
       <c r="E26" s="74"/>
@@ -3817,7 +4351,7 @@
       <c r="G26" s="74"/>
       <c r="H26" s="75"/>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27" s="73"/>
       <c r="D27" s="74"/>
       <c r="E27" s="74"/>
@@ -3825,7 +4359,7 @@
       <c r="G27" s="74"/>
       <c r="H27" s="75"/>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C28" s="73"/>
       <c r="D28" s="74"/>
       <c r="E28" s="74"/>
@@ -3833,7 +4367,7 @@
       <c r="G28" s="74"/>
       <c r="H28" s="75"/>
     </row>
-    <row r="29" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C29" s="76"/>
       <c r="D29" s="77"/>
       <c r="E29" s="77"/>
@@ -3853,32 +4387,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="25.75" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.08203125" customWidth="1"/>
-    <col min="7" max="7" width="15.08203125" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
     <col min="12" max="12" width="14.75" customWidth="1"/>
     <col min="13" max="13" width="17.25" customWidth="1"/>
-    <col min="14" max="14" width="14.58203125" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" customWidth="1"/>
-    <col min="17" max="17" width="13.83203125" customWidth="1"/>
+    <col min="14" max="14" width="14.625" customWidth="1"/>
+    <col min="15" max="15" width="16.375" customWidth="1"/>
+    <col min="16" max="16" width="14.375" customWidth="1"/>
+    <col min="17" max="17" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3900,7 +4434,7 @@
       <c r="P2" s="65"/>
       <c r="Q2" s="66"/>
     </row>
-    <row r="3" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -3922,7 +4456,7 @@
       <c r="P3" s="88"/>
       <c r="Q3" s="89"/>
     </row>
-    <row r="5" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -3934,7 +4468,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -3972,7 +4506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="24" t="s">
         <v>98</v>
       </c>
@@ -4002,7 +4536,7 @@
       </c>
       <c r="Q7" s="27"/>
     </row>
-    <row r="8" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="9" t="s">
         <v>47</v>
       </c>
@@ -4032,7 +4566,7 @@
       </c>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
@@ -4062,7 +4596,7 @@
       </c>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C10" s="9" t="s">
         <v>102</v>
       </c>
@@ -4088,7 +4622,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
         <v>104</v>
       </c>
@@ -4114,7 +4648,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
         <v>105</v>
       </c>
@@ -4140,8 +4674,8 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="14" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C15" s="70" t="s">
         <v>139</v>
       </c>
@@ -4159,7 +4693,7 @@
       <c r="P15" s="71"/>
       <c r="Q15" s="72"/>
     </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C16" s="73"/>
       <c r="D16" s="74"/>
       <c r="E16" s="74"/>
@@ -4173,7 +4707,7 @@
       <c r="P16" s="74"/>
       <c r="Q16" s="75"/>
     </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C17" s="73"/>
       <c r="D17" s="74"/>
       <c r="E17" s="74"/>
@@ -4187,7 +4721,7 @@
       <c r="P17" s="74"/>
       <c r="Q17" s="75"/>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C18" s="73"/>
       <c r="D18" s="74"/>
       <c r="E18" s="74"/>
@@ -4201,7 +4735,7 @@
       <c r="P18" s="74"/>
       <c r="Q18" s="75"/>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C19" s="73"/>
       <c r="D19" s="74"/>
       <c r="E19" s="74"/>
@@ -4215,7 +4749,7 @@
       <c r="P19" s="74"/>
       <c r="Q19" s="75"/>
     </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C20" s="73"/>
       <c r="D20" s="74"/>
       <c r="E20" s="74"/>
@@ -4229,7 +4763,7 @@
       <c r="P20" s="74"/>
       <c r="Q20" s="75"/>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C21" s="73"/>
       <c r="D21" s="74"/>
       <c r="E21" s="74"/>
@@ -4243,7 +4777,7 @@
       <c r="P21" s="74"/>
       <c r="Q21" s="75"/>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C22" s="73"/>
       <c r="D22" s="74"/>
       <c r="E22" s="74"/>
@@ -4257,7 +4791,7 @@
       <c r="P22" s="74"/>
       <c r="Q22" s="75"/>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C23" s="73"/>
       <c r="D23" s="74"/>
       <c r="E23" s="74"/>
@@ -4271,7 +4805,7 @@
       <c r="P23" s="74"/>
       <c r="Q23" s="75"/>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C24" s="73"/>
       <c r="D24" s="74"/>
       <c r="E24" s="74"/>
@@ -4285,7 +4819,7 @@
       <c r="P24" s="74"/>
       <c r="Q24" s="75"/>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C25" s="73"/>
       <c r="D25" s="74"/>
       <c r="E25" s="74"/>
@@ -4299,7 +4833,7 @@
       <c r="P25" s="74"/>
       <c r="Q25" s="75"/>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C26" s="73"/>
       <c r="D26" s="74"/>
       <c r="E26" s="74"/>
@@ -4313,7 +4847,7 @@
       <c r="P26" s="74"/>
       <c r="Q26" s="75"/>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C27" s="73"/>
       <c r="D27" s="74"/>
       <c r="E27" s="74"/>
@@ -4327,7 +4861,7 @@
       <c r="P27" s="74"/>
       <c r="Q27" s="75"/>
     </row>
-    <row r="28" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="76"/>
       <c r="D28" s="77"/>
       <c r="E28" s="77"/>
@@ -4356,26 +4890,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C15" sqref="C15:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.08203125" customWidth="1"/>
-    <col min="5" max="5" width="11.58203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="9.58203125" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -4387,7 +4921,7 @@
       <c r="G2" s="83"/>
       <c r="H2" s="84"/>
     </row>
-    <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -4399,14 +4933,14 @@
       <c r="G3" s="80"/>
       <c r="H3" s="81"/>
     </row>
-    <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -4426,7 +4960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
         <v>126</v>
       </c>
@@ -4446,7 +4980,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="14" t="s">
         <v>68</v>
       </c>
@@ -4464,7 +4998,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="14" t="s">
         <v>129</v>
       </c>
@@ -4480,7 +5014,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="14" t="s">
         <v>131</v>
       </c>
@@ -4496,7 +5030,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="14" t="s">
         <v>133</v>
       </c>
@@ -4512,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="30" t="s">
         <v>134</v>
       </c>
@@ -4530,8 +5064,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="15" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="70" t="s">
         <v>127</v>
       </c>
@@ -4541,7 +5075,7 @@
       <c r="G15" s="71"/>
       <c r="H15" s="72"/>
     </row>
-    <row r="16" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="73"/>
       <c r="D16" s="74"/>
       <c r="E16" s="74"/>
@@ -4549,7 +5083,7 @@
       <c r="G16" s="74"/>
       <c r="H16" s="75"/>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" s="73"/>
       <c r="D17" s="74"/>
       <c r="E17" s="74"/>
@@ -4557,7 +5091,7 @@
       <c r="G17" s="74"/>
       <c r="H17" s="75"/>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="73"/>
       <c r="D18" s="74"/>
       <c r="E18" s="74"/>
@@ -4565,7 +5099,7 @@
       <c r="G18" s="74"/>
       <c r="H18" s="75"/>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" s="73"/>
       <c r="D19" s="74"/>
       <c r="E19" s="74"/>
@@ -4573,7 +5107,7 @@
       <c r="G19" s="74"/>
       <c r="H19" s="75"/>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" s="73"/>
       <c r="D20" s="74"/>
       <c r="E20" s="74"/>
@@ -4581,7 +5115,7 @@
       <c r="G20" s="74"/>
       <c r="H20" s="75"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="73"/>
       <c r="D21" s="74"/>
       <c r="E21" s="74"/>
@@ -4589,7 +5123,7 @@
       <c r="G21" s="74"/>
       <c r="H21" s="75"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" s="73"/>
       <c r="D22" s="74"/>
       <c r="E22" s="74"/>
@@ -4597,7 +5131,7 @@
       <c r="G22" s="74"/>
       <c r="H22" s="75"/>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23" s="73"/>
       <c r="D23" s="74"/>
       <c r="E23" s="74"/>
@@ -4605,7 +5139,7 @@
       <c r="G23" s="74"/>
       <c r="H23" s="75"/>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24" s="73"/>
       <c r="D24" s="74"/>
       <c r="E24" s="74"/>
@@ -4613,7 +5147,7 @@
       <c r="G24" s="74"/>
       <c r="H24" s="75"/>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C25" s="73"/>
       <c r="D25" s="74"/>
       <c r="E25" s="74"/>
@@ -4621,7 +5155,7 @@
       <c r="G25" s="74"/>
       <c r="H25" s="75"/>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C26" s="73"/>
       <c r="D26" s="74"/>
       <c r="E26" s="74"/>
@@ -4629,7 +5163,7 @@
       <c r="G26" s="74"/>
       <c r="H26" s="75"/>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27" s="73"/>
       <c r="D27" s="74"/>
       <c r="E27" s="74"/>
@@ -4637,7 +5171,7 @@
       <c r="G27" s="74"/>
       <c r="H27" s="75"/>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C28" s="73"/>
       <c r="D28" s="74"/>
       <c r="E28" s="74"/>
@@ -4645,7 +5179,7 @@
       <c r="G28" s="74"/>
       <c r="H28" s="75"/>
     </row>
-    <row r="29" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C29" s="76"/>
       <c r="D29" s="77"/>
       <c r="E29" s="77"/>
@@ -4664,22 +5198,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="23.58203125" customWidth="1"/>
+    <col min="8" max="8" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -4691,7 +5225,7 @@
       <c r="G2" s="83"/>
       <c r="H2" s="84"/>
     </row>
-    <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -4703,14 +5237,14 @@
       <c r="G3" s="80"/>
       <c r="H3" s="81"/>
     </row>
-    <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -4730,7 +5264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
         <v>152</v>
       </c>
@@ -4750,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="14" t="s">
         <v>8</v>
       </c>
@@ -4768,7 +5302,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="14" t="s">
         <v>153</v>
       </c>
@@ -4782,7 +5316,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="14" t="s">
         <v>154</v>
       </c>
@@ -4798,7 +5332,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="14" t="s">
         <v>16</v>
       </c>
@@ -4814,8 +5348,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" s="70" t="s">
         <v>150</v>
       </c>
@@ -4825,7 +5359,7 @@
       <c r="G14" s="71"/>
       <c r="H14" s="72"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C15" s="73"/>
       <c r="D15" s="74"/>
       <c r="E15" s="74"/>
@@ -4833,7 +5367,7 @@
       <c r="G15" s="74"/>
       <c r="H15" s="75"/>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C16" s="73"/>
       <c r="D16" s="74"/>
       <c r="E16" s="74"/>
@@ -4841,7 +5375,7 @@
       <c r="G16" s="74"/>
       <c r="H16" s="75"/>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" s="73"/>
       <c r="D17" s="74"/>
       <c r="E17" s="74"/>
@@ -4849,7 +5383,7 @@
       <c r="G17" s="74"/>
       <c r="H17" s="75"/>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="73"/>
       <c r="D18" s="74"/>
       <c r="E18" s="74"/>
@@ -4857,7 +5391,7 @@
       <c r="G18" s="74"/>
       <c r="H18" s="75"/>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" s="73"/>
       <c r="D19" s="74"/>
       <c r="E19" s="74"/>
@@ -4865,7 +5399,7 @@
       <c r="G19" s="74"/>
       <c r="H19" s="75"/>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" s="73"/>
       <c r="D20" s="74"/>
       <c r="E20" s="74"/>
@@ -4873,7 +5407,7 @@
       <c r="G20" s="74"/>
       <c r="H20" s="75"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="73"/>
       <c r="D21" s="74"/>
       <c r="E21" s="74"/>
@@ -4881,7 +5415,7 @@
       <c r="G21" s="74"/>
       <c r="H21" s="75"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" s="73"/>
       <c r="D22" s="74"/>
       <c r="E22" s="74"/>
@@ -4889,7 +5423,7 @@
       <c r="G22" s="74"/>
       <c r="H22" s="75"/>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23" s="73"/>
       <c r="D23" s="74"/>
       <c r="E23" s="74"/>
@@ -4897,7 +5431,7 @@
       <c r="G23" s="74"/>
       <c r="H23" s="75"/>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24" s="73"/>
       <c r="D24" s="74"/>
       <c r="E24" s="74"/>
@@ -4905,7 +5439,7 @@
       <c r="G24" s="74"/>
       <c r="H24" s="75"/>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C25" s="73"/>
       <c r="D25" s="74"/>
       <c r="E25" s="74"/>
@@ -4913,7 +5447,7 @@
       <c r="G25" s="74"/>
       <c r="H25" s="75"/>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C26" s="73"/>
       <c r="D26" s="74"/>
       <c r="E26" s="74"/>
@@ -4921,7 +5455,7 @@
       <c r="G26" s="74"/>
       <c r="H26" s="75"/>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27" s="73"/>
       <c r="D27" s="74"/>
       <c r="E27" s="74"/>
@@ -4929,7 +5463,7 @@
       <c r="G27" s="74"/>
       <c r="H27" s="75"/>
     </row>
-    <row r="28" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="76"/>
       <c r="D28" s="77"/>
       <c r="E28" s="77"/>

--- a/문서파일/QuizBeeDB.xlsx
+++ b/문서파일/QuizBeeDB.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doyou\OneDrive\Desktop\QuizBee\문서파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KD03\QuizBee\문서파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79E7861-8B59-4937-B2AC-CCF58BFFC404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="3" r:id="rId1"/>
@@ -831,7 +830,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1921,25 +1920,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C17" sqref="C17:H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.08203125" customWidth="1"/>
-    <col min="5" max="5" width="11.58203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="9.58203125" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1951,7 +1950,7 @@
       <c r="G2" s="65"/>
       <c r="H2" s="66"/>
     </row>
-    <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1963,14 +1962,14 @@
       <c r="G3" s="68"/>
       <c r="H3" s="69"/>
     </row>
-    <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -1990,7 +1989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
@@ -2010,7 +2009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
@@ -2024,7 +2023,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
@@ -2038,7 +2037,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
@@ -2052,7 +2051,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
         <v>26</v>
       </c>
@@ -2066,7 +2065,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
         <v>28</v>
       </c>
@@ -2080,7 +2079,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="9" t="s">
         <v>30</v>
       </c>
@@ -2096,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" s="9" t="s">
         <v>31</v>
       </c>
@@ -2112,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="31" t="s">
         <v>33</v>
       </c>
@@ -2128,8 +2127,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="17" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:8" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="55" t="s">
         <v>173</v>
       </c>
@@ -2139,7 +2138,7 @@
       <c r="G17" s="56"/>
       <c r="H17" s="57"/>
     </row>
-    <row r="18" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="58"/>
       <c r="D18" s="59"/>
       <c r="E18" s="59"/>
@@ -2147,7 +2146,7 @@
       <c r="G18" s="59"/>
       <c r="H18" s="60"/>
     </row>
-    <row r="19" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="58"/>
       <c r="D19" s="59"/>
       <c r="E19" s="59"/>
@@ -2155,7 +2154,7 @@
       <c r="G19" s="59"/>
       <c r="H19" s="60"/>
     </row>
-    <row r="20" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="58"/>
       <c r="D20" s="59"/>
       <c r="E20" s="59"/>
@@ -2163,7 +2162,7 @@
       <c r="G20" s="59"/>
       <c r="H20" s="60"/>
     </row>
-    <row r="21" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="58"/>
       <c r="D21" s="59"/>
       <c r="E21" s="59"/>
@@ -2171,7 +2170,7 @@
       <c r="G21" s="59"/>
       <c r="H21" s="60"/>
     </row>
-    <row r="22" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="58"/>
       <c r="D22" s="59"/>
       <c r="E22" s="59"/>
@@ -2179,7 +2178,7 @@
       <c r="G22" s="59"/>
       <c r="H22" s="60"/>
     </row>
-    <row r="23" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="58"/>
       <c r="D23" s="59"/>
       <c r="E23" s="59"/>
@@ -2187,7 +2186,7 @@
       <c r="G23" s="59"/>
       <c r="H23" s="60"/>
     </row>
-    <row r="24" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="58"/>
       <c r="D24" s="59"/>
       <c r="E24" s="59"/>
@@ -2195,7 +2194,7 @@
       <c r="G24" s="59"/>
       <c r="H24" s="60"/>
     </row>
-    <row r="25" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="58"/>
       <c r="D25" s="59"/>
       <c r="E25" s="59"/>
@@ -2203,7 +2202,7 @@
       <c r="G25" s="59"/>
       <c r="H25" s="60"/>
     </row>
-    <row r="26" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="58"/>
       <c r="D26" s="59"/>
       <c r="E26" s="59"/>
@@ -2211,7 +2210,7 @@
       <c r="G26" s="59"/>
       <c r="H26" s="60"/>
     </row>
-    <row r="27" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="58"/>
       <c r="D27" s="59"/>
       <c r="E27" s="59"/>
@@ -2219,7 +2218,7 @@
       <c r="G27" s="59"/>
       <c r="H27" s="60"/>
     </row>
-    <row r="28" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="58"/>
       <c r="D28" s="59"/>
       <c r="E28" s="59"/>
@@ -2227,7 +2226,7 @@
       <c r="G28" s="59"/>
       <c r="H28" s="60"/>
     </row>
-    <row r="29" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="58"/>
       <c r="D29" s="59"/>
       <c r="E29" s="59"/>
@@ -2235,7 +2234,7 @@
       <c r="G29" s="59"/>
       <c r="H29" s="60"/>
     </row>
-    <row r="30" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="58"/>
       <c r="D30" s="59"/>
       <c r="E30" s="59"/>
@@ -2243,7 +2242,7 @@
       <c r="G30" s="59"/>
       <c r="H30" s="60"/>
     </row>
-    <row r="31" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="58"/>
       <c r="D31" s="59"/>
       <c r="E31" s="59"/>
@@ -2251,7 +2250,7 @@
       <c r="G31" s="59"/>
       <c r="H31" s="60"/>
     </row>
-    <row r="32" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="58"/>
       <c r="D32" s="59"/>
       <c r="E32" s="59"/>
@@ -2259,7 +2258,7 @@
       <c r="G32" s="59"/>
       <c r="H32" s="60"/>
     </row>
-    <row r="33" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="58"/>
       <c r="D33" s="59"/>
       <c r="E33" s="59"/>
@@ -2267,7 +2266,7 @@
       <c r="G33" s="59"/>
       <c r="H33" s="60"/>
     </row>
-    <row r="34" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="58"/>
       <c r="D34" s="59"/>
       <c r="E34" s="59"/>
@@ -2275,7 +2274,7 @@
       <c r="G34" s="59"/>
       <c r="H34" s="60"/>
     </row>
-    <row r="35" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="58"/>
       <c r="D35" s="59"/>
       <c r="E35" s="59"/>
@@ -2283,7 +2282,7 @@
       <c r="G35" s="59"/>
       <c r="H35" s="60"/>
     </row>
-    <row r="36" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C36" s="61"/>
       <c r="D36" s="62"/>
       <c r="E36" s="62"/>
@@ -2304,30 +2303,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:T46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView topLeftCell="C24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24:T46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.58203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="9.58203125" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" customWidth="1"/>
-    <col min="11" max="11" width="16.08203125" customWidth="1"/>
-    <col min="12" max="14" width="8.83203125" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="8.875" customWidth="1"/>
+    <col min="11" max="11" width="16.125" customWidth="1"/>
+    <col min="12" max="14" width="8.875" customWidth="1"/>
+    <col min="15" max="15" width="18.375" customWidth="1"/>
+    <col min="16" max="16" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2349,7 +2348,7 @@
       <c r="S2" s="83"/>
       <c r="T2" s="84"/>
     </row>
-    <row r="3" spans="3:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2371,7 +2370,7 @@
       <c r="S3" s="80"/>
       <c r="T3" s="81"/>
     </row>
-    <row r="5" spans="3:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2382,7 +2381,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="3:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="21" t="s">
         <v>11</v>
       </c>
@@ -2420,7 +2419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D7" s="24" t="s">
         <v>165</v>
       </c>
@@ -2458,7 +2457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D8" s="37" t="s">
         <v>92</v>
       </c>
@@ -2492,7 +2491,7 @@
       </c>
       <c r="T8" s="40"/>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D9" s="14" t="s">
         <v>93</v>
       </c>
@@ -2522,7 +2521,7 @@
       <c r="S9" s="5"/>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D10" s="14" t="s">
         <v>141</v>
       </c>
@@ -2552,7 +2551,7 @@
       <c r="S10" s="5"/>
       <c r="T10" s="6"/>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D11" s="14" t="s">
         <v>142</v>
       </c>
@@ -2582,7 +2581,7 @@
       <c r="S11" s="5"/>
       <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D12" s="14" t="s">
         <v>135</v>
       </c>
@@ -2612,7 +2611,7 @@
       <c r="S12" s="5"/>
       <c r="T12" s="6"/>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D13" s="14" t="s">
         <v>94</v>
       </c>
@@ -2649,7 +2648,7 @@
       <c r="S13" s="5"/>
       <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D14" s="14" t="s">
         <v>143</v>
       </c>
@@ -2686,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D15" s="14" t="s">
         <v>95</v>
       </c>
@@ -2722,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D16" s="14" t="s">
         <v>111</v>
       </c>
@@ -2758,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D17" s="44" t="s">
         <v>113</v>
       </c>
@@ -2790,7 +2789,7 @@
       <c r="S17" s="45"/>
       <c r="T17" s="46"/>
     </row>
-    <row r="18" spans="4:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D18" s="44" t="s">
         <v>115</v>
       </c>
@@ -2820,7 +2819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="4:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D19" s="15" t="s">
         <v>96</v>
       </c>
@@ -2852,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:20" x14ac:dyDescent="0.3">
       <c r="O20" s="48" t="s">
         <v>161</v>
       </c>
@@ -2866,7 +2865,7 @@
       <c r="S20" s="49"/>
       <c r="T20" s="53"/>
     </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:20" x14ac:dyDescent="0.3">
       <c r="O21" s="48" t="s">
         <v>162</v>
       </c>
@@ -2880,7 +2879,7 @@
       <c r="S21" s="49"/>
       <c r="T21" s="53"/>
     </row>
-    <row r="22" spans="4:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O22" s="52" t="s">
         <v>169</v>
       </c>
@@ -2894,7 +2893,7 @@
       <c r="S22" s="51"/>
       <c r="T22" s="54"/>
     </row>
-    <row r="23" spans="4:20" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="4:20" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D23" s="70" t="s">
         <v>166</v>
       </c>
@@ -2904,7 +2903,7 @@
       <c r="H23" s="71"/>
       <c r="I23" s="72"/>
     </row>
-    <row r="24" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" s="73"/>
       <c r="E24" s="74"/>
       <c r="F24" s="74"/>
@@ -2920,7 +2919,7 @@
       <c r="S24" s="71"/>
       <c r="T24" s="72"/>
     </row>
-    <row r="25" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" s="73"/>
       <c r="E25" s="74"/>
       <c r="F25" s="74"/>
@@ -2934,7 +2933,7 @@
       <c r="S25" s="74"/>
       <c r="T25" s="75"/>
     </row>
-    <row r="26" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="73"/>
       <c r="E26" s="74"/>
       <c r="F26" s="74"/>
@@ -2948,7 +2947,7 @@
       <c r="S26" s="74"/>
       <c r="T26" s="75"/>
     </row>
-    <row r="27" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D27" s="73"/>
       <c r="E27" s="74"/>
       <c r="F27" s="74"/>
@@ -2962,7 +2961,7 @@
       <c r="S27" s="74"/>
       <c r="T27" s="75"/>
     </row>
-    <row r="28" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28" s="73"/>
       <c r="E28" s="74"/>
       <c r="F28" s="74"/>
@@ -2976,7 +2975,7 @@
       <c r="S28" s="74"/>
       <c r="T28" s="75"/>
     </row>
-    <row r="29" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D29" s="73"/>
       <c r="E29" s="74"/>
       <c r="F29" s="74"/>
@@ -2990,7 +2989,7 @@
       <c r="S29" s="74"/>
       <c r="T29" s="75"/>
     </row>
-    <row r="30" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="73"/>
       <c r="E30" s="74"/>
       <c r="F30" s="74"/>
@@ -3004,7 +3003,7 @@
       <c r="S30" s="74"/>
       <c r="T30" s="75"/>
     </row>
-    <row r="31" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="73"/>
       <c r="E31" s="74"/>
       <c r="F31" s="74"/>
@@ -3018,7 +3017,7 @@
       <c r="S31" s="74"/>
       <c r="T31" s="75"/>
     </row>
-    <row r="32" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="73"/>
       <c r="E32" s="74"/>
       <c r="F32" s="74"/>
@@ -3032,7 +3031,7 @@
       <c r="S32" s="74"/>
       <c r="T32" s="75"/>
     </row>
-    <row r="33" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="73"/>
       <c r="E33" s="74"/>
       <c r="F33" s="74"/>
@@ -3046,7 +3045,7 @@
       <c r="S33" s="74"/>
       <c r="T33" s="75"/>
     </row>
-    <row r="34" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="73"/>
       <c r="E34" s="74"/>
       <c r="F34" s="74"/>
@@ -3060,7 +3059,7 @@
       <c r="S34" s="74"/>
       <c r="T34" s="75"/>
     </row>
-    <row r="35" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="73"/>
       <c r="E35" s="74"/>
       <c r="F35" s="74"/>
@@ -3074,7 +3073,7 @@
       <c r="S35" s="74"/>
       <c r="T35" s="75"/>
     </row>
-    <row r="36" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="73"/>
       <c r="E36" s="74"/>
       <c r="F36" s="74"/>
@@ -3088,7 +3087,7 @@
       <c r="S36" s="74"/>
       <c r="T36" s="75"/>
     </row>
-    <row r="37" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="73"/>
       <c r="E37" s="74"/>
       <c r="F37" s="74"/>
@@ -3102,7 +3101,7 @@
       <c r="S37" s="74"/>
       <c r="T37" s="75"/>
     </row>
-    <row r="38" spans="4:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D38" s="73"/>
       <c r="E38" s="74"/>
       <c r="F38" s="74"/>
@@ -3116,7 +3115,7 @@
       <c r="S38" s="74"/>
       <c r="T38" s="75"/>
     </row>
-    <row r="39" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="73"/>
       <c r="E39" s="74"/>
       <c r="F39" s="74"/>
@@ -3130,7 +3129,7 @@
       <c r="S39" s="74"/>
       <c r="T39" s="75"/>
     </row>
-    <row r="40" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="73"/>
       <c r="E40" s="74"/>
       <c r="F40" s="74"/>
@@ -3144,7 +3143,7 @@
       <c r="S40" s="74"/>
       <c r="T40" s="75"/>
     </row>
-    <row r="41" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" s="73"/>
       <c r="E41" s="74"/>
       <c r="F41" s="74"/>
@@ -3158,7 +3157,7 @@
       <c r="S41" s="74"/>
       <c r="T41" s="75"/>
     </row>
-    <row r="42" spans="4:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D42" s="76"/>
       <c r="E42" s="77"/>
       <c r="F42" s="77"/>
@@ -3172,7 +3171,7 @@
       <c r="S42" s="74"/>
       <c r="T42" s="75"/>
     </row>
-    <row r="43" spans="4:20" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:20" x14ac:dyDescent="0.3">
       <c r="O43" s="73"/>
       <c r="P43" s="74"/>
       <c r="Q43" s="74"/>
@@ -3180,7 +3179,7 @@
       <c r="S43" s="74"/>
       <c r="T43" s="75"/>
     </row>
-    <row r="44" spans="4:20" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:20" x14ac:dyDescent="0.3">
       <c r="O44" s="73"/>
       <c r="P44" s="74"/>
       <c r="Q44" s="74"/>
@@ -3188,7 +3187,7 @@
       <c r="S44" s="74"/>
       <c r="T44" s="75"/>
     </row>
-    <row r="45" spans="4:20" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:20" x14ac:dyDescent="0.3">
       <c r="O45" s="73"/>
       <c r="P45" s="74"/>
       <c r="Q45" s="74"/>
@@ -3196,7 +3195,7 @@
       <c r="S45" s="74"/>
       <c r="T45" s="75"/>
     </row>
-    <row r="46" spans="4:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O46" s="76"/>
       <c r="P46" s="77"/>
       <c r="Q46" s="77"/>
@@ -3221,25 +3220,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C16" sqref="C16:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.08203125" customWidth="1"/>
-    <col min="5" max="5" width="11.58203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="9.58203125" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3251,7 +3250,7 @@
       <c r="G2" s="65"/>
       <c r="H2" s="66"/>
     </row>
-    <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -3263,14 +3262,14 @@
       <c r="G3" s="88"/>
       <c r="H3" s="89"/>
     </row>
-    <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -3290,7 +3289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
         <v>58</v>
       </c>
@@ -3310,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
@@ -3328,7 +3327,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>59</v>
       </c>
@@ -3344,7 +3343,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="9" t="s">
         <v>60</v>
       </c>
@@ -3360,7 +3359,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
         <v>61</v>
       </c>
@@ -3376,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
         <v>62</v>
       </c>
@@ -3390,7 +3389,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="9" t="s">
         <v>63</v>
       </c>
@@ -3406,7 +3405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="10" t="s">
         <v>79</v>
       </c>
@@ -3420,8 +3419,8 @@
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C16" s="70" t="s">
         <v>148</v>
       </c>
@@ -3431,7 +3430,7 @@
       <c r="G16" s="71"/>
       <c r="H16" s="72"/>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" s="73"/>
       <c r="D17" s="74"/>
       <c r="E17" s="74"/>
@@ -3439,7 +3438,7 @@
       <c r="G17" s="74"/>
       <c r="H17" s="75"/>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="73"/>
       <c r="D18" s="74"/>
       <c r="E18" s="74"/>
@@ -3447,7 +3446,7 @@
       <c r="G18" s="74"/>
       <c r="H18" s="75"/>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" s="73"/>
       <c r="D19" s="74"/>
       <c r="E19" s="74"/>
@@ -3455,7 +3454,7 @@
       <c r="G19" s="74"/>
       <c r="H19" s="75"/>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" s="73"/>
       <c r="D20" s="74"/>
       <c r="E20" s="74"/>
@@ -3463,7 +3462,7 @@
       <c r="G20" s="74"/>
       <c r="H20" s="75"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="73"/>
       <c r="D21" s="74"/>
       <c r="E21" s="74"/>
@@ -3471,7 +3470,7 @@
       <c r="G21" s="74"/>
       <c r="H21" s="75"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" s="73"/>
       <c r="D22" s="74"/>
       <c r="E22" s="74"/>
@@ -3479,7 +3478,7 @@
       <c r="G22" s="74"/>
       <c r="H22" s="75"/>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23" s="73"/>
       <c r="D23" s="74"/>
       <c r="E23" s="74"/>
@@ -3487,7 +3486,7 @@
       <c r="G23" s="74"/>
       <c r="H23" s="75"/>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24" s="73"/>
       <c r="D24" s="74"/>
       <c r="E24" s="74"/>
@@ -3495,7 +3494,7 @@
       <c r="G24" s="74"/>
       <c r="H24" s="75"/>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C25" s="73"/>
       <c r="D25" s="74"/>
       <c r="E25" s="74"/>
@@ -3503,7 +3502,7 @@
       <c r="G25" s="74"/>
       <c r="H25" s="75"/>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C26" s="73"/>
       <c r="D26" s="74"/>
       <c r="E26" s="74"/>
@@ -3511,7 +3510,7 @@
       <c r="G26" s="74"/>
       <c r="H26" s="75"/>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27" s="73"/>
       <c r="D27" s="74"/>
       <c r="E27" s="74"/>
@@ -3519,7 +3518,7 @@
       <c r="G27" s="74"/>
       <c r="H27" s="75"/>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C28" s="73"/>
       <c r="D28" s="74"/>
       <c r="E28" s="74"/>
@@ -3527,7 +3526,7 @@
       <c r="G28" s="74"/>
       <c r="H28" s="75"/>
     </row>
-    <row r="29" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C29" s="76"/>
       <c r="D29" s="77"/>
       <c r="E29" s="77"/>
@@ -3547,25 +3546,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:K29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C17" sqref="C17:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.08203125" customWidth="1"/>
-    <col min="5" max="5" width="11.58203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="9.58203125" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3577,7 +3576,7 @@
       <c r="G2" s="65"/>
       <c r="H2" s="66"/>
     </row>
-    <row r="3" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -3589,14 +3588,14 @@
       <c r="G3" s="88"/>
       <c r="H3" s="89"/>
     </row>
-    <row r="5" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -3616,7 +3615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
         <v>47</v>
       </c>
@@ -3636,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
@@ -3654,7 +3653,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>50</v>
       </c>
@@ -3670,7 +3669,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C10" s="9" t="s">
         <v>51</v>
       </c>
@@ -3684,7 +3683,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
         <v>124</v>
       </c>
@@ -3700,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
         <v>52</v>
       </c>
@@ -3719,7 +3718,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C13" s="9" t="s">
         <v>73</v>
       </c>
@@ -3733,9 +3732,9 @@
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="15" spans="3:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="3:11" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="17" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="3:11" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="70" t="s">
         <v>149</v>
       </c>
@@ -3745,7 +3744,7 @@
       <c r="G17" s="71"/>
       <c r="H17" s="72"/>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="73"/>
       <c r="D18" s="74"/>
       <c r="E18" s="74"/>
@@ -3753,7 +3752,7 @@
       <c r="G18" s="74"/>
       <c r="H18" s="75"/>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" s="73"/>
       <c r="D19" s="74"/>
       <c r="E19" s="74"/>
@@ -3761,7 +3760,7 @@
       <c r="G19" s="74"/>
       <c r="H19" s="75"/>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" s="73"/>
       <c r="D20" s="74"/>
       <c r="E20" s="74"/>
@@ -3769,7 +3768,7 @@
       <c r="G20" s="74"/>
       <c r="H20" s="75"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="73"/>
       <c r="D21" s="74"/>
       <c r="E21" s="74"/>
@@ -3777,7 +3776,7 @@
       <c r="G21" s="74"/>
       <c r="H21" s="75"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" s="73"/>
       <c r="D22" s="74"/>
       <c r="E22" s="74"/>
@@ -3785,7 +3784,7 @@
       <c r="G22" s="74"/>
       <c r="H22" s="75"/>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23" s="73"/>
       <c r="D23" s="74"/>
       <c r="E23" s="74"/>
@@ -3793,7 +3792,7 @@
       <c r="G23" s="74"/>
       <c r="H23" s="75"/>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24" s="73"/>
       <c r="D24" s="74"/>
       <c r="E24" s="74"/>
@@ -3801,7 +3800,7 @@
       <c r="G24" s="74"/>
       <c r="H24" s="75"/>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C25" s="73"/>
       <c r="D25" s="74"/>
       <c r="E25" s="74"/>
@@ -3809,7 +3808,7 @@
       <c r="G25" s="74"/>
       <c r="H25" s="75"/>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C26" s="73"/>
       <c r="D26" s="74"/>
       <c r="E26" s="74"/>
@@ -3817,7 +3816,7 @@
       <c r="G26" s="74"/>
       <c r="H26" s="75"/>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27" s="73"/>
       <c r="D27" s="74"/>
       <c r="E27" s="74"/>
@@ -3825,7 +3824,7 @@
       <c r="G27" s="74"/>
       <c r="H27" s="75"/>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C28" s="73"/>
       <c r="D28" s="74"/>
       <c r="E28" s="74"/>
@@ -3833,7 +3832,7 @@
       <c r="G28" s="74"/>
       <c r="H28" s="75"/>
     </row>
-    <row r="29" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C29" s="76"/>
       <c r="D29" s="77"/>
       <c r="E29" s="77"/>
@@ -3854,31 +3853,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15:Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="25.75" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.08203125" customWidth="1"/>
-    <col min="7" max="7" width="15.08203125" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
     <col min="12" max="12" width="14.75" customWidth="1"/>
     <col min="13" max="13" width="17.25" customWidth="1"/>
-    <col min="14" max="14" width="14.58203125" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" customWidth="1"/>
-    <col min="17" max="17" width="13.83203125" customWidth="1"/>
+    <col min="14" max="14" width="14.625" customWidth="1"/>
+    <col min="15" max="15" width="16.375" customWidth="1"/>
+    <col min="16" max="16" width="14.375" customWidth="1"/>
+    <col min="17" max="17" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3900,7 +3899,7 @@
       <c r="P2" s="65"/>
       <c r="Q2" s="66"/>
     </row>
-    <row r="3" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -3922,7 +3921,7 @@
       <c r="P3" s="88"/>
       <c r="Q3" s="89"/>
     </row>
-    <row r="5" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -3934,7 +3933,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -3972,7 +3971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="24" t="s">
         <v>98</v>
       </c>
@@ -4002,7 +4001,7 @@
       </c>
       <c r="Q7" s="27"/>
     </row>
-    <row r="8" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="9" t="s">
         <v>47</v>
       </c>
@@ -4032,7 +4031,7 @@
       </c>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
@@ -4062,7 +4061,7 @@
       </c>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C10" s="9" t="s">
         <v>102</v>
       </c>
@@ -4088,7 +4087,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
         <v>104</v>
       </c>
@@ -4114,7 +4113,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
         <v>105</v>
       </c>
@@ -4140,8 +4139,8 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="14" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C15" s="70" t="s">
         <v>139</v>
       </c>
@@ -4159,7 +4158,7 @@
       <c r="P15" s="71"/>
       <c r="Q15" s="72"/>
     </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C16" s="73"/>
       <c r="D16" s="74"/>
       <c r="E16" s="74"/>
@@ -4173,7 +4172,7 @@
       <c r="P16" s="74"/>
       <c r="Q16" s="75"/>
     </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C17" s="73"/>
       <c r="D17" s="74"/>
       <c r="E17" s="74"/>
@@ -4187,7 +4186,7 @@
       <c r="P17" s="74"/>
       <c r="Q17" s="75"/>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C18" s="73"/>
       <c r="D18" s="74"/>
       <c r="E18" s="74"/>
@@ -4201,7 +4200,7 @@
       <c r="P18" s="74"/>
       <c r="Q18" s="75"/>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C19" s="73"/>
       <c r="D19" s="74"/>
       <c r="E19" s="74"/>
@@ -4215,7 +4214,7 @@
       <c r="P19" s="74"/>
       <c r="Q19" s="75"/>
     </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C20" s="73"/>
       <c r="D20" s="74"/>
       <c r="E20" s="74"/>
@@ -4229,7 +4228,7 @@
       <c r="P20" s="74"/>
       <c r="Q20" s="75"/>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C21" s="73"/>
       <c r="D21" s="74"/>
       <c r="E21" s="74"/>
@@ -4243,7 +4242,7 @@
       <c r="P21" s="74"/>
       <c r="Q21" s="75"/>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C22" s="73"/>
       <c r="D22" s="74"/>
       <c r="E22" s="74"/>
@@ -4257,7 +4256,7 @@
       <c r="P22" s="74"/>
       <c r="Q22" s="75"/>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C23" s="73"/>
       <c r="D23" s="74"/>
       <c r="E23" s="74"/>
@@ -4271,7 +4270,7 @@
       <c r="P23" s="74"/>
       <c r="Q23" s="75"/>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C24" s="73"/>
       <c r="D24" s="74"/>
       <c r="E24" s="74"/>
@@ -4285,7 +4284,7 @@
       <c r="P24" s="74"/>
       <c r="Q24" s="75"/>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C25" s="73"/>
       <c r="D25" s="74"/>
       <c r="E25" s="74"/>
@@ -4299,7 +4298,7 @@
       <c r="P25" s="74"/>
       <c r="Q25" s="75"/>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C26" s="73"/>
       <c r="D26" s="74"/>
       <c r="E26" s="74"/>
@@ -4313,7 +4312,7 @@
       <c r="P26" s="74"/>
       <c r="Q26" s="75"/>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C27" s="73"/>
       <c r="D27" s="74"/>
       <c r="E27" s="74"/>
@@ -4327,7 +4326,7 @@
       <c r="P27" s="74"/>
       <c r="Q27" s="75"/>
     </row>
-    <row r="28" spans="3:17" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="76"/>
       <c r="D28" s="77"/>
       <c r="E28" s="77"/>
@@ -4357,25 +4356,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C15" sqref="C15:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.08203125" customWidth="1"/>
-    <col min="5" max="5" width="11.58203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="9.58203125" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -4387,7 +4386,7 @@
       <c r="G2" s="83"/>
       <c r="H2" s="84"/>
     </row>
-    <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -4399,14 +4398,14 @@
       <c r="G3" s="80"/>
       <c r="H3" s="81"/>
     </row>
-    <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -4426,7 +4425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
         <v>126</v>
       </c>
@@ -4446,7 +4445,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="14" t="s">
         <v>68</v>
       </c>
@@ -4464,7 +4463,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="14" t="s">
         <v>129</v>
       </c>
@@ -4480,7 +4479,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="14" t="s">
         <v>131</v>
       </c>
@@ -4496,7 +4495,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="14" t="s">
         <v>133</v>
       </c>
@@ -4512,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="30" t="s">
         <v>134</v>
       </c>
@@ -4530,8 +4529,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="15" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="70" t="s">
         <v>127</v>
       </c>
@@ -4541,7 +4540,7 @@
       <c r="G15" s="71"/>
       <c r="H15" s="72"/>
     </row>
-    <row r="16" spans="3:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="73"/>
       <c r="D16" s="74"/>
       <c r="E16" s="74"/>
@@ -4549,7 +4548,7 @@
       <c r="G16" s="74"/>
       <c r="H16" s="75"/>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" s="73"/>
       <c r="D17" s="74"/>
       <c r="E17" s="74"/>
@@ -4557,7 +4556,7 @@
       <c r="G17" s="74"/>
       <c r="H17" s="75"/>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="73"/>
       <c r="D18" s="74"/>
       <c r="E18" s="74"/>
@@ -4565,7 +4564,7 @@
       <c r="G18" s="74"/>
       <c r="H18" s="75"/>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" s="73"/>
       <c r="D19" s="74"/>
       <c r="E19" s="74"/>
@@ -4573,7 +4572,7 @@
       <c r="G19" s="74"/>
       <c r="H19" s="75"/>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" s="73"/>
       <c r="D20" s="74"/>
       <c r="E20" s="74"/>
@@ -4581,7 +4580,7 @@
       <c r="G20" s="74"/>
       <c r="H20" s="75"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="73"/>
       <c r="D21" s="74"/>
       <c r="E21" s="74"/>
@@ -4589,7 +4588,7 @@
       <c r="G21" s="74"/>
       <c r="H21" s="75"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" s="73"/>
       <c r="D22" s="74"/>
       <c r="E22" s="74"/>
@@ -4597,7 +4596,7 @@
       <c r="G22" s="74"/>
       <c r="H22" s="75"/>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23" s="73"/>
       <c r="D23" s="74"/>
       <c r="E23" s="74"/>
@@ -4605,7 +4604,7 @@
       <c r="G23" s="74"/>
       <c r="H23" s="75"/>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24" s="73"/>
       <c r="D24" s="74"/>
       <c r="E24" s="74"/>
@@ -4613,7 +4612,7 @@
       <c r="G24" s="74"/>
       <c r="H24" s="75"/>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C25" s="73"/>
       <c r="D25" s="74"/>
       <c r="E25" s="74"/>
@@ -4621,7 +4620,7 @@
       <c r="G25" s="74"/>
       <c r="H25" s="75"/>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C26" s="73"/>
       <c r="D26" s="74"/>
       <c r="E26" s="74"/>
@@ -4629,7 +4628,7 @@
       <c r="G26" s="74"/>
       <c r="H26" s="75"/>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27" s="73"/>
       <c r="D27" s="74"/>
       <c r="E27" s="74"/>
@@ -4637,7 +4636,7 @@
       <c r="G27" s="74"/>
       <c r="H27" s="75"/>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C28" s="73"/>
       <c r="D28" s="74"/>
       <c r="E28" s="74"/>
@@ -4645,7 +4644,7 @@
       <c r="G28" s="74"/>
       <c r="H28" s="75"/>
     </row>
-    <row r="29" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C29" s="76"/>
       <c r="D29" s="77"/>
       <c r="E29" s="77"/>
@@ -4665,21 +4664,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="23.58203125" customWidth="1"/>
+    <col min="8" max="8" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -4691,7 +4690,7 @@
       <c r="G2" s="83"/>
       <c r="H2" s="84"/>
     </row>
-    <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -4703,14 +4702,14 @@
       <c r="G3" s="80"/>
       <c r="H3" s="81"/>
     </row>
-    <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -4730,7 +4729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
         <v>152</v>
       </c>
@@ -4750,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="14" t="s">
         <v>8</v>
       </c>
@@ -4768,7 +4767,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="14" t="s">
         <v>153</v>
       </c>
@@ -4782,7 +4781,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="14" t="s">
         <v>154</v>
       </c>
@@ -4798,7 +4797,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="14" t="s">
         <v>16</v>
       </c>
@@ -4814,8 +4813,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" s="70" t="s">
         <v>150</v>
       </c>
@@ -4825,7 +4824,7 @@
       <c r="G14" s="71"/>
       <c r="H14" s="72"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C15" s="73"/>
       <c r="D15" s="74"/>
       <c r="E15" s="74"/>
@@ -4833,7 +4832,7 @@
       <c r="G15" s="74"/>
       <c r="H15" s="75"/>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C16" s="73"/>
       <c r="D16" s="74"/>
       <c r="E16" s="74"/>
@@ -4841,7 +4840,7 @@
       <c r="G16" s="74"/>
       <c r="H16" s="75"/>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" s="73"/>
       <c r="D17" s="74"/>
       <c r="E17" s="74"/>
@@ -4849,7 +4848,7 @@
       <c r="G17" s="74"/>
       <c r="H17" s="75"/>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="73"/>
       <c r="D18" s="74"/>
       <c r="E18" s="74"/>
@@ -4857,7 +4856,7 @@
       <c r="G18" s="74"/>
       <c r="H18" s="75"/>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" s="73"/>
       <c r="D19" s="74"/>
       <c r="E19" s="74"/>
@@ -4865,7 +4864,7 @@
       <c r="G19" s="74"/>
       <c r="H19" s="75"/>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" s="73"/>
       <c r="D20" s="74"/>
       <c r="E20" s="74"/>
@@ -4873,7 +4872,7 @@
       <c r="G20" s="74"/>
       <c r="H20" s="75"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="73"/>
       <c r="D21" s="74"/>
       <c r="E21" s="74"/>
@@ -4881,7 +4880,7 @@
       <c r="G21" s="74"/>
       <c r="H21" s="75"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" s="73"/>
       <c r="D22" s="74"/>
       <c r="E22" s="74"/>
@@ -4889,7 +4888,7 @@
       <c r="G22" s="74"/>
       <c r="H22" s="75"/>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23" s="73"/>
       <c r="D23" s="74"/>
       <c r="E23" s="74"/>
@@ -4897,7 +4896,7 @@
       <c r="G23" s="74"/>
       <c r="H23" s="75"/>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24" s="73"/>
       <c r="D24" s="74"/>
       <c r="E24" s="74"/>
@@ -4905,7 +4904,7 @@
       <c r="G24" s="74"/>
       <c r="H24" s="75"/>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C25" s="73"/>
       <c r="D25" s="74"/>
       <c r="E25" s="74"/>
@@ -4913,7 +4912,7 @@
       <c r="G25" s="74"/>
       <c r="H25" s="75"/>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C26" s="73"/>
       <c r="D26" s="74"/>
       <c r="E26" s="74"/>
@@ -4921,7 +4920,7 @@
       <c r="G26" s="74"/>
       <c r="H26" s="75"/>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27" s="73"/>
       <c r="D27" s="74"/>
       <c r="E27" s="74"/>
@@ -4929,7 +4928,7 @@
       <c r="G27" s="74"/>
       <c r="H27" s="75"/>
     </row>
-    <row r="28" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="76"/>
       <c r="D28" s="77"/>
       <c r="E28" s="77"/>

--- a/문서파일/QuizBeeDB.xlsx
+++ b/문서파일/QuizBeeDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="3" r:id="rId1"/>
@@ -612,19 +612,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CREATE TABLE quiz_comments (
-    comment_id INT AUTO_INCREMENT PRIMARY KEY,
-    quiz_no INT,
-    user_no INT,
-    quiz_content TEXT,
-    quiz_comment_id INT DEFAULT NULL,
-    comment_at TIMESTAMP DEFAULT CURRENT_TIMESTAMP,
-    FOREIGN KEY (quiz_no) REFERENCES quiz_info(quiz_no) on delete cascade,
-    FOREIGN KEY (user_no) REFERENCES quiz_user(user_no) on delete cascade
-);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>quiz_hint1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -768,14 +755,6 @@
   KEY quiz_no (quiz_no),
   CONSTRAINT quiz_images_ibfk_1 FOREIGN KEY (quiz_no) REFERENCES quiz_info (quiz_no)
 ) ENGINE=InnoDB AUTO_INCREMENT=75 DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_0900_ai_ci</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -883,6 +862,28 @@
   </si>
   <si>
     <t>current_timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 닉네임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE quiz_comments (
+    comment_id INT AUTO_INCREMENT PRIMARY KEY,
+    quiz_no INT,
+    user_no INT,
+    quiz_content TEXT,
+    quiz_comment_id INT DEFAULT NULL,
+    comment_at TIMESTAMP DEFAULT CURRENT_TIMESTAMP,
+    user_nick varchar(100),
+    FOREIGN KEY (quiz_no) REFERENCES quiz_info(quiz_no) on delete cascade,
+    FOREIGN KEY (user_no) REFERENCES quiz_user(user_no) on delete cascade
+);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1530,7 +1531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1628,6 +1629,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1661,6 +1665,31 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1712,35 +1741,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2101,25 +2103,25 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="69"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="72"/>
     </row>
     <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -2288,166 +2290,166 @@
     </row>
     <row r="16" spans="3:8" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="57"/>
+      <c r="C17" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
     </row>
     <row r="18" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="63"/>
     </row>
     <row r="19" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="58"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="63"/>
     </row>
     <row r="20" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="63"/>
     </row>
     <row r="21" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
     </row>
     <row r="22" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="63"/>
     </row>
     <row r="23" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="60"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="63"/>
     </row>
     <row r="24" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="58"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="63"/>
     </row>
     <row r="25" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="58"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
     </row>
     <row r="26" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63"/>
     </row>
     <row r="27" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="58"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
     </row>
     <row r="28" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="58"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="63"/>
     </row>
     <row r="29" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="58"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="63"/>
     </row>
     <row r="30" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="58"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="63"/>
     </row>
     <row r="31" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="58"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="63"/>
     </row>
     <row r="32" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="58"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="63"/>
     </row>
     <row r="33" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="58"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="63"/>
     </row>
     <row r="34" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="58"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="60"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="63"/>
     </row>
     <row r="35" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="58"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="60"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="63"/>
     </row>
     <row r="36" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="61"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="63"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2465,7 +2467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -2484,27 +2486,27 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="95" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="96"/>
+      <c r="C2" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="92" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="94"/>
+      <c r="C3" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="83"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
@@ -2529,17 +2531,17 @@
       <c r="F6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="97" t="s">
+      <c r="G6" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="98"/>
+      <c r="H6" s="85"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>175</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>178</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>2</v>
@@ -2550,10 +2552,10 @@
       <c r="F7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="99" t="s">
+      <c r="G7" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="100"/>
+      <c r="H7" s="87"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
@@ -2569,8 +2571,8 @@
         <v>3</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="102"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="75"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
@@ -2586,241 +2588,242 @@
         <v>3</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="102"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="75"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="101" t="b">
+      <c r="G10" s="74" t="b">
         <v>0</v>
       </c>
-      <c r="H10" s="102"/>
+      <c r="H10" s="75"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="87" t="s">
-        <v>185</v>
-      </c>
-      <c r="H11" s="89"/>
+      <c r="G11" s="76" t="s">
+        <v>182</v>
+      </c>
+      <c r="H11" s="77"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="104"/>
-      <c r="B12" s="105"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I13" s="104"/>
+      <c r="I13" s="56"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I15" s="104"/>
+      <c r="I15" s="56"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="103"/>
-      <c r="H16" s="103"/>
+      <c r="B16" s="55"/>
+      <c r="H16" s="55"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="57"/>
+      <c r="B17" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="58"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="60"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="63"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="58"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="60"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="63"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="58"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="60"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="63"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="58"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="60"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="63"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="58"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="60"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="63"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="58"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="60"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="63"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="58"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="60"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="63"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="58"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="60"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="63"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="58"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="60"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="63"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="58"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="60"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="63"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="58"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="60"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="63"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="58"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="60"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="63"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="58"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="60"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="63"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="58"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="60"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="63"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="58"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="60"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="63"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="58"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="60"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="63"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="58"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="60"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="63"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="58"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="60"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="63"/>
     </row>
     <row r="36" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="61"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="63"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B17:H36"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
@@ -2829,7 +2832,6 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B17:H36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2839,10 +2841,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:T46"/>
+  <dimension ref="C1:T45"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+      <selection activeCell="O19" sqref="O19:T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2865,45 +2867,45 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="82" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="84"/>
+      <c r="E2" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="102"/>
       <c r="O2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="82" t="s">
+      <c r="P2" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="84"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="102"/>
     </row>
     <row r="3" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="81"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="99"/>
       <c r="O3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="79" t="s">
+      <c r="P3" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="81"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="99"/>
     </row>
     <row r="5" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -2956,7 +2958,7 @@
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D7" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>82</v>
@@ -3058,7 +3060,7 @@
     </row>
     <row r="10" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D10" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>110</v>
@@ -3072,7 +3074,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
       <c r="O10" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>110</v>
@@ -3088,7 +3090,7 @@
     </row>
     <row r="11" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D11" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>110</v>
@@ -3102,7 +3104,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="6"/>
       <c r="O11" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>110</v>
@@ -3161,12 +3163,12 @@
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="85" t="s">
+      <c r="J13" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="K13" s="86"/>
+      <c r="K13" s="104"/>
       <c r="M13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>94</v>
@@ -3185,13 +3187,13 @@
     </row>
     <row r="14" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D14" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>3</v>
@@ -3201,7 +3203,7 @@
       <c r="J14" s="41"/>
       <c r="K14" s="47"/>
       <c r="M14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O14" s="14" t="s">
         <v>95</v>
@@ -3371,20 +3373,18 @@
       <c r="I19" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="O19" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="18">
-        <v>0</v>
-      </c>
+      <c r="O19" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="P19" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q19" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="53"/>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.3">
       <c r="O20" s="48" t="s">
@@ -3400,347 +3400,332 @@
       <c r="S20" s="49"/>
       <c r="T20" s="53"/>
     </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="O21" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="P21" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q21" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="53"/>
-    </row>
-    <row r="22" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O22" s="52" t="s">
+    <row r="21" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O21" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="P21" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q21" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="54"/>
+    </row>
+    <row r="22" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="90"/>
+      <c r="O23" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="P22" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q22" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="54"/>
-    </row>
-    <row r="23" spans="4:20" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D23" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="72"/>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="89"/>
+      <c r="T23" s="90"/>
     </row>
     <row r="24" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="73"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="75"/>
-      <c r="O24" s="70" t="s">
-        <v>172</v>
-      </c>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="72"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="93"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="92"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="92"/>
+      <c r="T24" s="93"/>
     </row>
     <row r="25" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="73"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="75"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="74"/>
-      <c r="R25" s="74"/>
-      <c r="S25" s="74"/>
-      <c r="T25" s="75"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="93"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="92"/>
+      <c r="R25" s="92"/>
+      <c r="S25" s="92"/>
+      <c r="T25" s="93"/>
     </row>
     <row r="26" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="73"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="75"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="74"/>
-      <c r="S26" s="74"/>
-      <c r="T26" s="75"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="93"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="92"/>
+      <c r="T26" s="93"/>
     </row>
     <row r="27" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="73"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="75"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="74"/>
-      <c r="S27" s="74"/>
-      <c r="T27" s="75"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="93"/>
+      <c r="O27" s="91"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="92"/>
+      <c r="T27" s="93"/>
     </row>
     <row r="28" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="73"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="75"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="74"/>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="74"/>
-      <c r="S28" s="74"/>
-      <c r="T28" s="75"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="93"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="93"/>
     </row>
     <row r="29" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="73"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="75"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="74"/>
-      <c r="S29" s="74"/>
-      <c r="T29" s="75"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="93"/>
+      <c r="O29" s="91"/>
+      <c r="P29" s="92"/>
+      <c r="Q29" s="92"/>
+      <c r="R29" s="92"/>
+      <c r="S29" s="92"/>
+      <c r="T29" s="93"/>
     </row>
     <row r="30" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="73"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="75"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="74"/>
-      <c r="S30" s="74"/>
-      <c r="T30" s="75"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="93"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="92"/>
+      <c r="Q30" s="92"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="92"/>
+      <c r="T30" s="93"/>
     </row>
     <row r="31" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="73"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="75"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="74"/>
-      <c r="S31" s="74"/>
-      <c r="T31" s="75"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="93"/>
+      <c r="O31" s="91"/>
+      <c r="P31" s="92"/>
+      <c r="Q31" s="92"/>
+      <c r="R31" s="92"/>
+      <c r="S31" s="92"/>
+      <c r="T31" s="93"/>
     </row>
     <row r="32" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="73"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="75"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="74"/>
-      <c r="Q32" s="74"/>
-      <c r="R32" s="74"/>
-      <c r="S32" s="74"/>
-      <c r="T32" s="75"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="93"/>
+      <c r="O32" s="91"/>
+      <c r="P32" s="92"/>
+      <c r="Q32" s="92"/>
+      <c r="R32" s="92"/>
+      <c r="S32" s="92"/>
+      <c r="T32" s="93"/>
     </row>
     <row r="33" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="73"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="75"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="74"/>
-      <c r="Q33" s="74"/>
-      <c r="R33" s="74"/>
-      <c r="S33" s="74"/>
-      <c r="T33" s="75"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="93"/>
+      <c r="O33" s="91"/>
+      <c r="P33" s="92"/>
+      <c r="Q33" s="92"/>
+      <c r="R33" s="92"/>
+      <c r="S33" s="92"/>
+      <c r="T33" s="93"/>
     </row>
     <row r="34" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="73"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="75"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="74"/>
-      <c r="R34" s="74"/>
-      <c r="S34" s="74"/>
-      <c r="T34" s="75"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="93"/>
+      <c r="O34" s="91"/>
+      <c r="P34" s="92"/>
+      <c r="Q34" s="92"/>
+      <c r="R34" s="92"/>
+      <c r="S34" s="92"/>
+      <c r="T34" s="93"/>
     </row>
     <row r="35" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="73"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="75"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="74"/>
-      <c r="S35" s="74"/>
-      <c r="T35" s="75"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="93"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="92"/>
+      <c r="Q35" s="92"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="93"/>
     </row>
     <row r="36" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="73"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="75"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="74"/>
-      <c r="R36" s="74"/>
-      <c r="S36" s="74"/>
-      <c r="T36" s="75"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="93"/>
+      <c r="O36" s="91"/>
+      <c r="P36" s="92"/>
+      <c r="Q36" s="92"/>
+      <c r="R36" s="92"/>
+      <c r="S36" s="92"/>
+      <c r="T36" s="93"/>
     </row>
     <row r="37" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="73"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="75"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
-      <c r="S37" s="74"/>
-      <c r="T37" s="75"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="93"/>
+      <c r="O37" s="91"/>
+      <c r="P37" s="92"/>
+      <c r="Q37" s="92"/>
+      <c r="R37" s="92"/>
+      <c r="S37" s="92"/>
+      <c r="T37" s="93"/>
     </row>
     <row r="38" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="73"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="75"/>
-      <c r="O38" s="73"/>
-      <c r="P38" s="74"/>
-      <c r="Q38" s="74"/>
-      <c r="R38" s="74"/>
-      <c r="S38" s="74"/>
-      <c r="T38" s="75"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="93"/>
+      <c r="O38" s="91"/>
+      <c r="P38" s="92"/>
+      <c r="Q38" s="92"/>
+      <c r="R38" s="92"/>
+      <c r="S38" s="92"/>
+      <c r="T38" s="93"/>
     </row>
     <row r="39" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="73"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="75"/>
-      <c r="O39" s="73"/>
-      <c r="P39" s="74"/>
-      <c r="Q39" s="74"/>
-      <c r="R39" s="74"/>
-      <c r="S39" s="74"/>
-      <c r="T39" s="75"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="93"/>
+      <c r="O39" s="91"/>
+      <c r="P39" s="92"/>
+      <c r="Q39" s="92"/>
+      <c r="R39" s="92"/>
+      <c r="S39" s="92"/>
+      <c r="T39" s="93"/>
     </row>
     <row r="40" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="73"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="75"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="74"/>
-      <c r="Q40" s="74"/>
-      <c r="R40" s="74"/>
-      <c r="S40" s="74"/>
-      <c r="T40" s="75"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="93"/>
+      <c r="O40" s="91"/>
+      <c r="P40" s="92"/>
+      <c r="Q40" s="92"/>
+      <c r="R40" s="92"/>
+      <c r="S40" s="92"/>
+      <c r="T40" s="93"/>
     </row>
     <row r="41" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="73"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="75"/>
-      <c r="O41" s="73"/>
-      <c r="P41" s="74"/>
-      <c r="Q41" s="74"/>
-      <c r="R41" s="74"/>
-      <c r="S41" s="74"/>
-      <c r="T41" s="75"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="92"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="93"/>
+      <c r="O41" s="91"/>
+      <c r="P41" s="92"/>
+      <c r="Q41" s="92"/>
+      <c r="R41" s="92"/>
+      <c r="S41" s="92"/>
+      <c r="T41" s="93"/>
     </row>
     <row r="42" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="76"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="78"/>
-      <c r="O42" s="73"/>
-      <c r="P42" s="74"/>
-      <c r="Q42" s="74"/>
-      <c r="R42" s="74"/>
-      <c r="S42" s="74"/>
-      <c r="T42" s="75"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="96"/>
+      <c r="O42" s="91"/>
+      <c r="P42" s="92"/>
+      <c r="Q42" s="92"/>
+      <c r="R42" s="92"/>
+      <c r="S42" s="92"/>
+      <c r="T42" s="93"/>
     </row>
     <row r="43" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="O43" s="73"/>
-      <c r="P43" s="74"/>
-      <c r="Q43" s="74"/>
-      <c r="R43" s="74"/>
-      <c r="S43" s="74"/>
-      <c r="T43" s="75"/>
+      <c r="O43" s="91"/>
+      <c r="P43" s="92"/>
+      <c r="Q43" s="92"/>
+      <c r="R43" s="92"/>
+      <c r="S43" s="92"/>
+      <c r="T43" s="93"/>
     </row>
     <row r="44" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="O44" s="73"/>
-      <c r="P44" s="74"/>
-      <c r="Q44" s="74"/>
-      <c r="R44" s="74"/>
-      <c r="S44" s="74"/>
-      <c r="T44" s="75"/>
-    </row>
-    <row r="45" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="O45" s="73"/>
-      <c r="P45" s="74"/>
-      <c r="Q45" s="74"/>
-      <c r="R45" s="74"/>
-      <c r="S45" s="74"/>
-      <c r="T45" s="75"/>
-    </row>
-    <row r="46" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O46" s="76"/>
-      <c r="P46" s="77"/>
-      <c r="Q46" s="77"/>
-      <c r="R46" s="77"/>
-      <c r="S46" s="77"/>
-      <c r="T46" s="78"/>
+      <c r="O44" s="91"/>
+      <c r="P44" s="92"/>
+      <c r="Q44" s="92"/>
+      <c r="R44" s="92"/>
+      <c r="S44" s="92"/>
+      <c r="T44" s="93"/>
+    </row>
+    <row r="45" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O45" s="94"/>
+      <c r="P45" s="95"/>
+      <c r="Q45" s="95"/>
+      <c r="R45" s="95"/>
+      <c r="S45" s="95"/>
+      <c r="T45" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="O24:T46"/>
+    <mergeCell ref="O23:T45"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="D23:I42"/>
@@ -3777,25 +3762,25 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="89"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="77"/>
     </row>
     <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -3956,118 +3941,118 @@
     </row>
     <row r="15" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="72"/>
+      <c r="C16" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="90"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="75"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="93"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="75"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="93"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="75"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="93"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="75"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="93"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="75"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="93"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="75"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="93"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="75"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="93"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="75"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="93"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="75"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="93"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="73"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="75"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="93"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="73"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="75"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="93"/>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="73"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="75"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="93"/>
     </row>
     <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="76"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="78"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4103,25 +4088,25 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="3" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="89"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="77"/>
     </row>
     <row r="5" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -4270,110 +4255,110 @@
     <row r="15" spans="3:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="3:11" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="72"/>
+      <c r="C17" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="90"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="75"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="93"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="75"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="93"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="75"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="93"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="75"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="93"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="75"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="93"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="75"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="93"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="75"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="93"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="75"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="93"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="73"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="75"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="93"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="73"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="75"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="93"/>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="73"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="75"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="93"/>
     </row>
     <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="76"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="78"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4389,10 +4374,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:Q28"/>
+  <dimension ref="C1:Q29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4416,45 +4401,45 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
       <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="64" t="s">
+      <c r="M2" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="66"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="69"/>
     </row>
     <row r="3" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="89"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="77"/>
       <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="87" t="s">
+      <c r="M3" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="89"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="77"/>
     </row>
     <row r="5" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -4521,20 +4506,20 @@
         <v>9</v>
       </c>
       <c r="H7" s="27"/>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="M7" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="N7" s="26" t="s">
+      <c r="N7" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="O7" s="25"/>
-      <c r="P7" s="26" t="s">
+      <c r="O7" s="4"/>
+      <c r="P7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="27"/>
+      <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="9" t="s">
@@ -4557,7 +4542,7 @@
       <c r="M8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="26" t="s">
+      <c r="N8" s="5" t="s">
         <v>100</v>
       </c>
       <c r="O8" s="4"/>
@@ -4587,7 +4572,7 @@
       <c r="M9" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="N9" s="26" t="s">
+      <c r="N9" s="5" t="s">
         <v>100</v>
       </c>
       <c r="O9" s="4"/>
@@ -4674,206 +4659,222 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="6"/>
     </row>
+    <row r="13" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L13" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" s="7"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="106"/>
+    </row>
     <row r="14" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C15" s="70" t="s">
+    <row r="15" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="72"/>
-      <c r="L15" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="72"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="90"/>
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="75"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="75"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="93"/>
+      <c r="L16" s="88" t="s">
+        <v>185</v>
+      </c>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="90"/>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="75"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="75"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="93"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="93"/>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="75"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="75"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="93"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="93"/>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="75"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="75"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="93"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="93"/>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="75"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="75"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="93"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="93"/>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="75"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="75"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="93"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="93"/>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="75"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="75"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="93"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="93"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="75"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="75"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="93"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="93"/>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="75"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="75"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="93"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="93"/>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="75"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="75"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="93"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="93"/>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C26" s="73"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="75"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="74"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="75"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="93"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="93"/>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C27" s="73"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="75"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="75"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="93"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="93"/>
     </row>
     <row r="28" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="76"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="78"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="78"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="96"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="93"/>
+    </row>
+    <row r="29" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L29" s="94"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4882,7 +4883,7 @@
     <mergeCell ref="C15:H28"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="L15:Q28"/>
+    <mergeCell ref="L16:Q29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4913,25 +4914,25 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="84"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="102"/>
     </row>
     <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="99"/>
     </row>
     <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -5066,126 +5067,126 @@
     </row>
     <row r="14" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="88" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="72"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="90"/>
     </row>
     <row r="16" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="75"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="93"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="75"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="93"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="75"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="93"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="75"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="93"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="75"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="93"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="75"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="93"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="75"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="93"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="75"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="93"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="75"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="93"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="75"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="93"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="73"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="75"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="93"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="73"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="75"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="93"/>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="73"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="75"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="93"/>
     </row>
     <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="76"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="78"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5217,25 +5218,25 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="84"/>
+      <c r="D2" s="100" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="102"/>
     </row>
     <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="99"/>
     </row>
     <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -5266,10 +5267,10 @@
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>2</v>
@@ -5304,10 +5305,10 @@
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>1</v>
@@ -5318,10 +5319,10 @@
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>35</v>
@@ -5329,7 +5330,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="5"/>
       <c r="H10" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
@@ -5337,7 +5338,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>1</v>
@@ -5350,126 +5351,126 @@
     </row>
     <row r="13" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+      <c r="C14" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="90"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="75"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="93"/>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="75"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="93"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="75"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="93"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="75"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="93"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="75"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="93"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="75"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="93"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="75"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="93"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="75"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="93"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="75"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="93"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="75"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="93"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="75"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="93"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="73"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="75"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="93"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="73"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="75"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="93"/>
     </row>
     <row r="28" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="76"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="78"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/문서파일/QuizBeeDB.xlsx
+++ b/문서파일/QuizBeeDB.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\QuizBee\문서파일\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="3" r:id="rId1"/>
@@ -20,10 +15,11 @@
     <sheet name="COMMENT" sheetId="13" r:id="rId6"/>
     <sheet name="NOTICE" sheetId="12" r:id="rId7"/>
     <sheet name="Reports" sheetId="14" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="188">
   <si>
     <t>auto</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -886,12 +882,32 @@
 );</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>CREATE TABLE `notice_comments` (
+  `comment_id` int NOT NULL AUTO_INCREMENT,
+  `notice_no` int DEFAULT NUll,
+  `user_no` int DEFAULT NULL,
+  `comment_content` text,
+  `parent_comment_id` int DEFAULT NULL,
+  `comment_at` timestamp NULL DEFAULT CURRENT_TIMESTAMP,
+  PRIMARY KEY (`comment_id`),
+  KEY `notice_no` (`notice_no`),
+  KEY `user_no` (`user_no`),
+  CONSTRAINT `notice_comments_ibfk_1` FOREIGN KEY (`notice_no`) REFERENCES `quiz_notice` (`notice_no`) ON DELETE CASCADE,
+  CONSTRAINT `notice_comments_ibfk_2` FOREIGN KEY (`user_no`) REFERENCES `quiz_user` (`user_no`) ON DELETE CASCADE
+) ENGINE=InnoDB DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_0900_ai_ci COMMENT='댓글';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1531,7 +1547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1632,6 +1648,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1742,7 +1765,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2074,63 +2096,63 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:H36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="9.625" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="22.3984375" customWidth="1"/>
+    <col min="4" max="4" width="16.09765625" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="10.8984375" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:8" ht="18" thickBot="1"/>
+    <row r="2" spans="3:8">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
-    </row>
-    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
+    </row>
+    <row r="3" spans="3:8" ht="18" thickBot="1">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="72"/>
-    </row>
-    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="79"/>
+    </row>
+    <row r="5" spans="3:8" ht="18" thickBot="1">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:8" ht="18" thickBot="1">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -2150,7 +2172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8">
       <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
@@ -2170,7 +2192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8">
       <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
@@ -2184,7 +2206,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8">
       <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
@@ -2198,7 +2220,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:8">
       <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
@@ -2212,7 +2234,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:8">
       <c r="C11" s="9" t="s">
         <v>26</v>
       </c>
@@ -2226,7 +2248,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:8">
       <c r="C12" s="9" t="s">
         <v>28</v>
       </c>
@@ -2240,7 +2262,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:8">
       <c r="C13" s="9" t="s">
         <v>30</v>
       </c>
@@ -2256,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:8">
       <c r="C14" s="9" t="s">
         <v>31</v>
       </c>
@@ -2272,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:8" ht="18" thickBot="1">
       <c r="C15" s="31" t="s">
         <v>33</v>
       </c>
@@ -2288,168 +2310,168 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="58" t="s">
+    <row r="16" spans="3:8" ht="17.399999999999999" customHeight="1" thickBot="1"/>
+    <row r="17" spans="3:8" ht="17.399999999999999" customHeight="1">
+      <c r="C17" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-    </row>
-    <row r="18" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="63"/>
-    </row>
-    <row r="19" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
-    </row>
-    <row r="20" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="63"/>
-    </row>
-    <row r="21" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-    </row>
-    <row r="22" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="63"/>
-    </row>
-    <row r="23" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="63"/>
-    </row>
-    <row r="24" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="63"/>
-    </row>
-    <row r="25" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="63"/>
-    </row>
-    <row r="26" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="63"/>
-    </row>
-    <row r="27" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-    </row>
-    <row r="28" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="63"/>
-    </row>
-    <row r="29" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="61"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="63"/>
-    </row>
-    <row r="30" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="61"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="63"/>
-    </row>
-    <row r="31" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="61"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="63"/>
-    </row>
-    <row r="32" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="63"/>
-    </row>
-    <row r="33" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="61"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="63"/>
-    </row>
-    <row r="34" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="61"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="63"/>
-    </row>
-    <row r="35" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="61"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="63"/>
-    </row>
-    <row r="36" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="64"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="67"/>
+    </row>
+    <row r="18" spans="3:8" ht="17.399999999999999" customHeight="1">
+      <c r="C18" s="68"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="70"/>
+    </row>
+    <row r="19" spans="3:8" ht="17.399999999999999" customHeight="1">
+      <c r="C19" s="68"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="70"/>
+    </row>
+    <row r="20" spans="3:8" ht="17.399999999999999" customHeight="1">
+      <c r="C20" s="68"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="70"/>
+    </row>
+    <row r="21" spans="3:8" ht="17.399999999999999" customHeight="1">
+      <c r="C21" s="68"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="70"/>
+    </row>
+    <row r="22" spans="3:8" ht="17.399999999999999" customHeight="1">
+      <c r="C22" s="68"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="70"/>
+    </row>
+    <row r="23" spans="3:8" ht="17.399999999999999" customHeight="1">
+      <c r="C23" s="68"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="70"/>
+    </row>
+    <row r="24" spans="3:8" ht="17.399999999999999" customHeight="1">
+      <c r="C24" s="68"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="70"/>
+    </row>
+    <row r="25" spans="3:8" ht="17.399999999999999" customHeight="1">
+      <c r="C25" s="68"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="70"/>
+    </row>
+    <row r="26" spans="3:8" ht="17.399999999999999" customHeight="1">
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="70"/>
+    </row>
+    <row r="27" spans="3:8" ht="17.399999999999999" customHeight="1">
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="70"/>
+    </row>
+    <row r="28" spans="3:8" ht="17.399999999999999" customHeight="1">
+      <c r="C28" s="68"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="70"/>
+    </row>
+    <row r="29" spans="3:8" ht="17.399999999999999" customHeight="1">
+      <c r="C29" s="68"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="70"/>
+    </row>
+    <row r="30" spans="3:8" ht="17.399999999999999" customHeight="1">
+      <c r="C30" s="68"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="70"/>
+    </row>
+    <row r="31" spans="3:8" ht="17.399999999999999" customHeight="1">
+      <c r="C31" s="68"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="70"/>
+    </row>
+    <row r="32" spans="3:8" ht="17.399999999999999" customHeight="1">
+      <c r="C32" s="68"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="70"/>
+    </row>
+    <row r="33" spans="3:8" ht="17.399999999999999" customHeight="1">
+      <c r="C33" s="68"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="70"/>
+    </row>
+    <row r="34" spans="3:8" ht="18" customHeight="1">
+      <c r="C34" s="68"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="70"/>
+    </row>
+    <row r="35" spans="3:8" ht="17.399999999999999" customHeight="1">
+      <c r="C35" s="68"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="70"/>
+    </row>
+    <row r="36" spans="3:8" ht="18" thickBot="1">
+      <c r="C36" s="71"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2464,58 +2486,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="44.375" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" customWidth="1"/>
+    <col min="3" max="3" width="44.3984375" customWidth="1"/>
+    <col min="4" max="4" width="13.8984375" customWidth="1"/>
+    <col min="5" max="5" width="11.3984375" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18" thickBot="1"/>
+    <row r="2" spans="1:9" ht="18" thickBot="1">
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="85" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
-    </row>
-    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" thickBot="1">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="83"/>
-    </row>
-    <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="90"/>
+    </row>
+    <row r="5" spans="1:9" ht="18" thickBot="1">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="18" thickBot="1">
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
@@ -2531,12 +2553,12 @@
       <c r="F6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="84" t="s">
+      <c r="G6" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="85"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H6" s="92"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" s="24" t="s">
         <v>172</v>
       </c>
@@ -2552,12 +2574,12 @@
       <c r="F7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="86" t="s">
+      <c r="G7" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="87"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H7" s="94"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8" s="9" t="s">
         <v>92</v>
       </c>
@@ -2571,10 +2593,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="75"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G8" s="81"/>
+      <c r="H8" s="82"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -2588,10 +2610,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="75"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G9" s="81"/>
+      <c r="H9" s="82"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" s="9" t="s">
         <v>176</v>
       </c>
@@ -2603,12 +2625,12 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="74" t="b">
+      <c r="G10" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="H10" s="75"/>
-    </row>
-    <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="82"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" thickBot="1">
       <c r="B11" s="10" t="s">
         <v>179</v>
       </c>
@@ -2620,206 +2642,206 @@
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="76" t="s">
+      <c r="G11" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="H11" s="77"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H11" s="84"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="I13" s="56"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="I15" s="56"/>
     </row>
-    <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="18" thickBot="1">
       <c r="B16" s="55"/>
       <c r="H16" s="55"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="58" t="s">
+    <row r="17" spans="2:8">
+      <c r="B17" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="61"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="63"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="61"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="63"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="61"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="63"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="61"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="63"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="61"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="63"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="61"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="63"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="61"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="63"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="61"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="63"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="61"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="63"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="61"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="63"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="61"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="63"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="61"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="63"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="61"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="63"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="61"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="63"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="61"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="63"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="61"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="63"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="61"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="63"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="61"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="63"/>
-    </row>
-    <row r="36" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="64"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="67"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="68"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="70"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="68"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="70"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="68"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="70"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="68"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="70"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="68"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="70"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="68"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="70"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="68"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="70"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="68"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="70"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="68"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="70"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="68"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="70"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="68"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="70"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="68"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="70"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="68"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="70"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="68"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="70"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="68"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="70"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="68"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="70"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="68"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="70"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="68"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="70"/>
+    </row>
+    <row r="36" spans="2:8" ht="18" thickBot="1">
+      <c r="B36" s="71"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2840,74 +2862,74 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:T45"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O19" sqref="O19:T19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="8.8984375" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="9.625" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="8.875" customWidth="1"/>
-    <col min="11" max="11" width="16.125" customWidth="1"/>
-    <col min="12" max="14" width="8.875" customWidth="1"/>
-    <col min="15" max="15" width="18.375" customWidth="1"/>
-    <col min="16" max="16" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="10.8984375" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" customWidth="1"/>
+    <col min="10" max="10" width="8.8984375" customWidth="1"/>
+    <col min="11" max="11" width="16.09765625" customWidth="1"/>
+    <col min="12" max="14" width="8.8984375" customWidth="1"/>
+    <col min="15" max="15" width="18.3984375" customWidth="1"/>
+    <col min="16" max="16" width="8.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:20" ht="18" thickBot="1"/>
+    <row r="2" spans="3:20">
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="100" t="s">
+      <c r="E2" s="107" t="s">
         <v>159</v>
       </c>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="102"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109"/>
       <c r="O2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="100" t="s">
+      <c r="P2" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="102"/>
-    </row>
-    <row r="3" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="109"/>
+    </row>
+    <row r="3" spans="3:20" ht="18" thickBot="1">
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="97" t="s">
+      <c r="E3" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="99"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="106"/>
       <c r="O3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="97" t="s">
+      <c r="P3" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="99"/>
-    </row>
-    <row r="5" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="106"/>
+    </row>
+    <row r="5" spans="3:20" ht="18" thickBot="1">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2918,7 +2940,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:20" ht="18" thickBot="1">
       <c r="D6" s="21" t="s">
         <v>11</v>
       </c>
@@ -2956,7 +2978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:20">
       <c r="D7" s="24" t="s">
         <v>164</v>
       </c>
@@ -2994,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:20">
       <c r="D8" s="37" t="s">
         <v>92</v>
       </c>
@@ -3028,7 +3050,7 @@
       </c>
       <c r="T8" s="40"/>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:20">
       <c r="D9" s="14" t="s">
         <v>93</v>
       </c>
@@ -3058,7 +3080,7 @@
       <c r="S9" s="5"/>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:20">
       <c r="D10" s="14" t="s">
         <v>140</v>
       </c>
@@ -3088,7 +3110,7 @@
       <c r="S10" s="5"/>
       <c r="T10" s="6"/>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:20">
       <c r="D11" s="14" t="s">
         <v>141</v>
       </c>
@@ -3118,7 +3140,7 @@
       <c r="S11" s="5"/>
       <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:20">
       <c r="D12" s="14" t="s">
         <v>135</v>
       </c>
@@ -3148,7 +3170,7 @@
       <c r="S12" s="5"/>
       <c r="T12" s="6"/>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:20">
       <c r="D13" s="14" t="s">
         <v>94</v>
       </c>
@@ -3163,10 +3185,10 @@
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="103" t="s">
+      <c r="J13" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="K13" s="104"/>
+      <c r="K13" s="111"/>
       <c r="M13" t="s">
         <v>145</v>
       </c>
@@ -3185,7 +3207,7 @@
       <c r="S13" s="5"/>
       <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:20">
       <c r="D14" s="14" t="s">
         <v>142</v>
       </c>
@@ -3222,7 +3244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:20">
       <c r="D15" s="14" t="s">
         <v>95</v>
       </c>
@@ -3258,7 +3280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:20">
       <c r="D16" s="14" t="s">
         <v>111</v>
       </c>
@@ -3294,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:20">
       <c r="D17" s="44" t="s">
         <v>113</v>
       </c>
@@ -3326,7 +3348,7 @@
       <c r="S17" s="45"/>
       <c r="T17" s="46"/>
     </row>
-    <row r="18" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:20">
       <c r="D18" s="44" t="s">
         <v>115</v>
       </c>
@@ -3356,7 +3378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:20" ht="18" thickBot="1">
       <c r="D19" s="15" t="s">
         <v>96</v>
       </c>
@@ -3386,7 +3408,7 @@
       <c r="S19" s="49"/>
       <c r="T19" s="53"/>
     </row>
-    <row r="20" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:20">
       <c r="O20" s="48" t="s">
         <v>161</v>
       </c>
@@ -3400,7 +3422,7 @@
       <c r="S20" s="49"/>
       <c r="T20" s="53"/>
     </row>
-    <row r="21" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:20" ht="18" thickBot="1">
       <c r="O21" s="52" t="s">
         <v>166</v>
       </c>
@@ -3414,314 +3436,314 @@
       <c r="S21" s="51"/>
       <c r="T21" s="54"/>
     </row>
-    <row r="22" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="88" t="s">
+    <row r="22" spans="4:20" ht="18" thickBot="1"/>
+    <row r="23" spans="4:20" ht="17.399999999999999" customHeight="1">
+      <c r="D23" s="95" t="s">
         <v>165</v>
       </c>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="90"/>
-      <c r="O23" s="88" t="s">
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="97"/>
+      <c r="O23" s="95" t="s">
         <v>169</v>
       </c>
-      <c r="P23" s="89"/>
-      <c r="Q23" s="89"/>
-      <c r="R23" s="89"/>
-      <c r="S23" s="89"/>
-      <c r="T23" s="90"/>
-    </row>
-    <row r="24" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="91"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="93"/>
-      <c r="O24" s="91"/>
-      <c r="P24" s="92"/>
-      <c r="Q24" s="92"/>
-      <c r="R24" s="92"/>
-      <c r="S24" s="92"/>
-      <c r="T24" s="93"/>
-    </row>
-    <row r="25" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="91"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="93"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="92"/>
-      <c r="R25" s="92"/>
-      <c r="S25" s="92"/>
-      <c r="T25" s="93"/>
-    </row>
-    <row r="26" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="91"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="93"/>
-      <c r="O26" s="91"/>
-      <c r="P26" s="92"/>
-      <c r="Q26" s="92"/>
-      <c r="R26" s="92"/>
-      <c r="S26" s="92"/>
-      <c r="T26" s="93"/>
-    </row>
-    <row r="27" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="91"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="93"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="92"/>
-      <c r="Q27" s="92"/>
-      <c r="R27" s="92"/>
-      <c r="S27" s="92"/>
-      <c r="T27" s="93"/>
-    </row>
-    <row r="28" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="91"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="93"/>
-      <c r="O28" s="91"/>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="92"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="93"/>
-    </row>
-    <row r="29" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="91"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="93"/>
-      <c r="O29" s="91"/>
-      <c r="P29" s="92"/>
-      <c r="Q29" s="92"/>
-      <c r="R29" s="92"/>
-      <c r="S29" s="92"/>
-      <c r="T29" s="93"/>
-    </row>
-    <row r="30" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="91"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="93"/>
-      <c r="O30" s="91"/>
-      <c r="P30" s="92"/>
-      <c r="Q30" s="92"/>
-      <c r="R30" s="92"/>
-      <c r="S30" s="92"/>
-      <c r="T30" s="93"/>
-    </row>
-    <row r="31" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="91"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="93"/>
-      <c r="O31" s="91"/>
-      <c r="P31" s="92"/>
-      <c r="Q31" s="92"/>
-      <c r="R31" s="92"/>
-      <c r="S31" s="92"/>
-      <c r="T31" s="93"/>
-    </row>
-    <row r="32" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="91"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="93"/>
-      <c r="O32" s="91"/>
-      <c r="P32" s="92"/>
-      <c r="Q32" s="92"/>
-      <c r="R32" s="92"/>
-      <c r="S32" s="92"/>
-      <c r="T32" s="93"/>
-    </row>
-    <row r="33" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="91"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="93"/>
-      <c r="O33" s="91"/>
-      <c r="P33" s="92"/>
-      <c r="Q33" s="92"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="92"/>
-      <c r="T33" s="93"/>
-    </row>
-    <row r="34" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="91"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="93"/>
-      <c r="O34" s="91"/>
-      <c r="P34" s="92"/>
-      <c r="Q34" s="92"/>
-      <c r="R34" s="92"/>
-      <c r="S34" s="92"/>
-      <c r="T34" s="93"/>
-    </row>
-    <row r="35" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="91"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="93"/>
-      <c r="O35" s="91"/>
-      <c r="P35" s="92"/>
-      <c r="Q35" s="92"/>
-      <c r="R35" s="92"/>
-      <c r="S35" s="92"/>
-      <c r="T35" s="93"/>
-    </row>
-    <row r="36" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="91"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="93"/>
-      <c r="O36" s="91"/>
-      <c r="P36" s="92"/>
-      <c r="Q36" s="92"/>
-      <c r="R36" s="92"/>
-      <c r="S36" s="92"/>
-      <c r="T36" s="93"/>
-    </row>
-    <row r="37" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="91"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="93"/>
-      <c r="O37" s="91"/>
-      <c r="P37" s="92"/>
-      <c r="Q37" s="92"/>
-      <c r="R37" s="92"/>
-      <c r="S37" s="92"/>
-      <c r="T37" s="93"/>
-    </row>
-    <row r="38" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="91"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="93"/>
-      <c r="O38" s="91"/>
-      <c r="P38" s="92"/>
-      <c r="Q38" s="92"/>
-      <c r="R38" s="92"/>
-      <c r="S38" s="92"/>
-      <c r="T38" s="93"/>
-    </row>
-    <row r="39" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="91"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="93"/>
-      <c r="O39" s="91"/>
-      <c r="P39" s="92"/>
-      <c r="Q39" s="92"/>
-      <c r="R39" s="92"/>
-      <c r="S39" s="92"/>
-      <c r="T39" s="93"/>
-    </row>
-    <row r="40" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="91"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="93"/>
-      <c r="O40" s="91"/>
-      <c r="P40" s="92"/>
-      <c r="Q40" s="92"/>
-      <c r="R40" s="92"/>
-      <c r="S40" s="92"/>
-      <c r="T40" s="93"/>
-    </row>
-    <row r="41" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="91"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="93"/>
-      <c r="O41" s="91"/>
-      <c r="P41" s="92"/>
-      <c r="Q41" s="92"/>
-      <c r="R41" s="92"/>
-      <c r="S41" s="92"/>
-      <c r="T41" s="93"/>
-    </row>
-    <row r="42" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="94"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="96"/>
-      <c r="O42" s="91"/>
-      <c r="P42" s="92"/>
-      <c r="Q42" s="92"/>
-      <c r="R42" s="92"/>
-      <c r="S42" s="92"/>
-      <c r="T42" s="93"/>
-    </row>
-    <row r="43" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="O43" s="91"/>
-      <c r="P43" s="92"/>
-      <c r="Q43" s="92"/>
-      <c r="R43" s="92"/>
-      <c r="S43" s="92"/>
-      <c r="T43" s="93"/>
-    </row>
-    <row r="44" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="O44" s="91"/>
-      <c r="P44" s="92"/>
-      <c r="Q44" s="92"/>
-      <c r="R44" s="92"/>
-      <c r="S44" s="92"/>
-      <c r="T44" s="93"/>
-    </row>
-    <row r="45" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O45" s="94"/>
-      <c r="P45" s="95"/>
-      <c r="Q45" s="95"/>
-      <c r="R45" s="95"/>
-      <c r="S45" s="95"/>
-      <c r="T45" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="96"/>
+      <c r="S23" s="96"/>
+      <c r="T23" s="97"/>
+    </row>
+    <row r="24" spans="4:20" ht="17.399999999999999" customHeight="1">
+      <c r="D24" s="98"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="100"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="99"/>
+      <c r="T24" s="100"/>
+    </row>
+    <row r="25" spans="4:20" ht="17.399999999999999" customHeight="1">
+      <c r="D25" s="98"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="100"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="99"/>
+      <c r="S25" s="99"/>
+      <c r="T25" s="100"/>
+    </row>
+    <row r="26" spans="4:20" ht="17.399999999999999" customHeight="1">
+      <c r="D26" s="98"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="100"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="99"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="100"/>
+    </row>
+    <row r="27" spans="4:20" ht="17.399999999999999" customHeight="1">
+      <c r="D27" s="98"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="100"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="99"/>
+      <c r="R27" s="99"/>
+      <c r="S27" s="99"/>
+      <c r="T27" s="100"/>
+    </row>
+    <row r="28" spans="4:20" ht="17.399999999999999" customHeight="1">
+      <c r="D28" s="98"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="100"/>
+      <c r="O28" s="98"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="99"/>
+      <c r="R28" s="99"/>
+      <c r="S28" s="99"/>
+      <c r="T28" s="100"/>
+    </row>
+    <row r="29" spans="4:20" ht="17.399999999999999" customHeight="1">
+      <c r="D29" s="98"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="100"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="99"/>
+      <c r="R29" s="99"/>
+      <c r="S29" s="99"/>
+      <c r="T29" s="100"/>
+    </row>
+    <row r="30" spans="4:20" ht="17.399999999999999" customHeight="1">
+      <c r="D30" s="98"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="100"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="99"/>
+      <c r="S30" s="99"/>
+      <c r="T30" s="100"/>
+    </row>
+    <row r="31" spans="4:20" ht="17.399999999999999" customHeight="1">
+      <c r="D31" s="98"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="100"/>
+      <c r="O31" s="98"/>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="99"/>
+      <c r="R31" s="99"/>
+      <c r="S31" s="99"/>
+      <c r="T31" s="100"/>
+    </row>
+    <row r="32" spans="4:20" ht="17.399999999999999" customHeight="1">
+      <c r="D32" s="98"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="100"/>
+      <c r="O32" s="98"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="99"/>
+      <c r="R32" s="99"/>
+      <c r="S32" s="99"/>
+      <c r="T32" s="100"/>
+    </row>
+    <row r="33" spans="4:20" ht="17.399999999999999" customHeight="1">
+      <c r="D33" s="98"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="100"/>
+      <c r="O33" s="98"/>
+      <c r="P33" s="99"/>
+      <c r="Q33" s="99"/>
+      <c r="R33" s="99"/>
+      <c r="S33" s="99"/>
+      <c r="T33" s="100"/>
+    </row>
+    <row r="34" spans="4:20" ht="17.399999999999999" customHeight="1">
+      <c r="D34" s="98"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="100"/>
+      <c r="O34" s="98"/>
+      <c r="P34" s="99"/>
+      <c r="Q34" s="99"/>
+      <c r="R34" s="99"/>
+      <c r="S34" s="99"/>
+      <c r="T34" s="100"/>
+    </row>
+    <row r="35" spans="4:20" ht="17.399999999999999" customHeight="1">
+      <c r="D35" s="98"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="100"/>
+      <c r="O35" s="98"/>
+      <c r="P35" s="99"/>
+      <c r="Q35" s="99"/>
+      <c r="R35" s="99"/>
+      <c r="S35" s="99"/>
+      <c r="T35" s="100"/>
+    </row>
+    <row r="36" spans="4:20" ht="17.399999999999999" customHeight="1">
+      <c r="D36" s="98"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="100"/>
+      <c r="O36" s="98"/>
+      <c r="P36" s="99"/>
+      <c r="Q36" s="99"/>
+      <c r="R36" s="99"/>
+      <c r="S36" s="99"/>
+      <c r="T36" s="100"/>
+    </row>
+    <row r="37" spans="4:20" ht="17.399999999999999" customHeight="1">
+      <c r="D37" s="98"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="100"/>
+      <c r="O37" s="98"/>
+      <c r="P37" s="99"/>
+      <c r="Q37" s="99"/>
+      <c r="R37" s="99"/>
+      <c r="S37" s="99"/>
+      <c r="T37" s="100"/>
+    </row>
+    <row r="38" spans="4:20" ht="17.399999999999999" customHeight="1">
+      <c r="D38" s="98"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="100"/>
+      <c r="O38" s="98"/>
+      <c r="P38" s="99"/>
+      <c r="Q38" s="99"/>
+      <c r="R38" s="99"/>
+      <c r="S38" s="99"/>
+      <c r="T38" s="100"/>
+    </row>
+    <row r="39" spans="4:20" ht="18" customHeight="1">
+      <c r="D39" s="98"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="100"/>
+      <c r="O39" s="98"/>
+      <c r="P39" s="99"/>
+      <c r="Q39" s="99"/>
+      <c r="R39" s="99"/>
+      <c r="S39" s="99"/>
+      <c r="T39" s="100"/>
+    </row>
+    <row r="40" spans="4:20" ht="18" customHeight="1">
+      <c r="D40" s="98"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="100"/>
+      <c r="O40" s="98"/>
+      <c r="P40" s="99"/>
+      <c r="Q40" s="99"/>
+      <c r="R40" s="99"/>
+      <c r="S40" s="99"/>
+      <c r="T40" s="100"/>
+    </row>
+    <row r="41" spans="4:20" ht="18" customHeight="1">
+      <c r="D41" s="98"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="100"/>
+      <c r="O41" s="98"/>
+      <c r="P41" s="99"/>
+      <c r="Q41" s="99"/>
+      <c r="R41" s="99"/>
+      <c r="S41" s="99"/>
+      <c r="T41" s="100"/>
+    </row>
+    <row r="42" spans="4:20" ht="18" thickBot="1">
+      <c r="D42" s="101"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="103"/>
+      <c r="O42" s="98"/>
+      <c r="P42" s="99"/>
+      <c r="Q42" s="99"/>
+      <c r="R42" s="99"/>
+      <c r="S42" s="99"/>
+      <c r="T42" s="100"/>
+    </row>
+    <row r="43" spans="4:20">
+      <c r="O43" s="98"/>
+      <c r="P43" s="99"/>
+      <c r="Q43" s="99"/>
+      <c r="R43" s="99"/>
+      <c r="S43" s="99"/>
+      <c r="T43" s="100"/>
+    </row>
+    <row r="44" spans="4:20">
+      <c r="O44" s="98"/>
+      <c r="P44" s="99"/>
+      <c r="Q44" s="99"/>
+      <c r="R44" s="99"/>
+      <c r="S44" s="99"/>
+      <c r="T44" s="100"/>
+    </row>
+    <row r="45" spans="4:20" ht="18" thickBot="1">
+      <c r="O45" s="101"/>
+      <c r="P45" s="102"/>
+      <c r="Q45" s="102"/>
+      <c r="R45" s="102"/>
+      <c r="S45" s="102"/>
+      <c r="T45" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3740,56 +3762,56 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:H29"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C16" sqref="C16:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="9.625" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="22.3984375" customWidth="1"/>
+    <col min="4" max="4" width="16.09765625" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="10.8984375" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:8" ht="18" thickBot="1"/>
+    <row r="2" spans="3:8">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
-    </row>
-    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
+    </row>
+    <row r="3" spans="3:8" ht="18" thickBot="1">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="77"/>
-    </row>
-    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="84"/>
+    </row>
+    <row r="5" spans="3:8" ht="18" thickBot="1">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:8" ht="18" thickBot="1">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -3809,7 +3831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8">
       <c r="C7" s="24" t="s">
         <v>58</v>
       </c>
@@ -3829,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8">
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
@@ -3847,7 +3869,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8">
       <c r="C9" s="9" t="s">
         <v>59</v>
       </c>
@@ -3863,7 +3885,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:8">
       <c r="C10" s="9" t="s">
         <v>60</v>
       </c>
@@ -3879,7 +3901,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:8">
       <c r="C11" s="9" t="s">
         <v>61</v>
       </c>
@@ -3895,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:8">
       <c r="C12" s="9" t="s">
         <v>62</v>
       </c>
@@ -3909,7 +3931,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:8">
       <c r="C13" s="9" t="s">
         <v>63</v>
       </c>
@@ -3925,7 +3947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:8" ht="18" thickBot="1">
       <c r="C14" s="10" t="s">
         <v>79</v>
       </c>
@@ -3939,120 +3961,120 @@
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="88" t="s">
+    <row r="15" spans="3:8" ht="18" thickBot="1"/>
+    <row r="16" spans="3:8">
+      <c r="C16" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="90"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="91"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="93"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="91"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="93"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="91"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="93"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="91"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="93"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="91"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="93"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="91"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="93"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="91"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="93"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="91"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="93"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="91"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="93"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="91"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="93"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="91"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="93"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="91"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="93"/>
-    </row>
-    <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="94"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="97"/>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="98"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="100"/>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="98"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="100"/>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="98"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="100"/>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" s="98"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="100"/>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21" s="98"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="100"/>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="C22" s="98"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="100"/>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="C23" s="98"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="100"/>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="C24" s="98"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="100"/>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="C25" s="98"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="100"/>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="C26" s="98"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="100"/>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="98"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="100"/>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" s="98"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="100"/>
+    </row>
+    <row r="29" spans="3:8" ht="18" thickBot="1">
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4066,56 +4088,56 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:K29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C17" sqref="C17:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="9.625" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="22.3984375" customWidth="1"/>
+    <col min="4" max="4" width="16.09765625" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="10.8984375" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:11" ht="18" thickBot="1"/>
+    <row r="2" spans="3:11">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
-    </row>
-    <row r="3" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
+    </row>
+    <row r="3" spans="3:11" ht="18" thickBot="1">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="77"/>
-    </row>
-    <row r="5" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="84"/>
+    </row>
+    <row r="5" spans="3:11" ht="18" thickBot="1">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:11" ht="18" thickBot="1">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -4135,7 +4157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:11">
       <c r="C7" s="24" t="s">
         <v>47</v>
       </c>
@@ -4155,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:11">
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
@@ -4173,7 +4195,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:11">
       <c r="C9" s="9" t="s">
         <v>50</v>
       </c>
@@ -4189,7 +4211,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:11">
       <c r="C10" s="9" t="s">
         <v>51</v>
       </c>
@@ -4203,7 +4225,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:11">
       <c r="C11" s="9" t="s">
         <v>124</v>
       </c>
@@ -4219,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:11">
       <c r="C12" s="9" t="s">
         <v>52</v>
       </c>
@@ -4238,7 +4260,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:11">
       <c r="C13" s="9" t="s">
         <v>73</v>
       </c>
@@ -4252,113 +4274,113 @@
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="15" spans="3:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="3:11" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="88" t="s">
+    <row r="15" spans="3:11" ht="17.399999999999999" customHeight="1"/>
+    <row r="16" spans="3:11" ht="17.399999999999999" customHeight="1" thickBot="1"/>
+    <row r="17" spans="3:8" ht="17.399999999999999" customHeight="1">
+      <c r="C17" s="95" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="90"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="91"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="93"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="91"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="93"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="91"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="93"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="91"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="93"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="91"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="93"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="91"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="93"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="91"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="93"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="91"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="93"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="91"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="93"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="91"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="93"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="91"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="93"/>
-    </row>
-    <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="94"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="97"/>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="98"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="100"/>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="98"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="100"/>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" s="98"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="100"/>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21" s="98"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="100"/>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="C22" s="98"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="100"/>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="C23" s="98"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="100"/>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="C24" s="98"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="100"/>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="C25" s="98"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="100"/>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="C26" s="98"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="100"/>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="98"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="100"/>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" s="98"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="100"/>
+    </row>
+    <row r="29" spans="3:8" ht="18" thickBot="1">
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4373,75 +4395,75 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:Q29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="3" max="3" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="25.69921875" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="18.875" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
-    <col min="8" max="8" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.75" customWidth="1"/>
-    <col min="13" max="13" width="17.25" customWidth="1"/>
-    <col min="14" max="14" width="14.625" customWidth="1"/>
-    <col min="15" max="15" width="16.375" customWidth="1"/>
-    <col min="16" max="16" width="14.375" customWidth="1"/>
-    <col min="17" max="17" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="18.8984375" customWidth="1"/>
+    <col min="6" max="6" width="16.09765625" customWidth="1"/>
+    <col min="7" max="7" width="15.09765625" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" customWidth="1"/>
+    <col min="12" max="12" width="14.69921875" customWidth="1"/>
+    <col min="13" max="13" width="17.19921875" customWidth="1"/>
+    <col min="14" max="14" width="14.59765625" customWidth="1"/>
+    <col min="15" max="15" width="16.3984375" customWidth="1"/>
+    <col min="16" max="16" width="14.3984375" customWidth="1"/>
+    <col min="17" max="17" width="13.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:17" ht="18" thickBot="1"/>
+    <row r="2" spans="3:17">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
       <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="67" t="s">
+      <c r="M2" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="69"/>
-    </row>
-    <row r="3" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="76"/>
+    </row>
+    <row r="3" spans="3:17" ht="18" thickBot="1">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="77"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="62"/>
       <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="76" t="s">
+      <c r="M3" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="77"/>
-    </row>
-    <row r="5" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="84"/>
+    </row>
+    <row r="5" spans="3:17" ht="18" thickBot="1">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -4453,7 +4475,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:17" ht="18" thickBot="1">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -4491,7 +4513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:17" ht="18" thickBot="1">
       <c r="C7" s="24" t="s">
         <v>98</v>
       </c>
@@ -4521,7 +4543,7 @@
       </c>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:17" ht="18" thickBot="1">
       <c r="C8" s="9" t="s">
         <v>47</v>
       </c>
@@ -4551,7 +4573,7 @@
       </c>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:17">
       <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
@@ -4581,7 +4603,7 @@
       </c>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:17">
       <c r="C10" s="9" t="s">
         <v>102</v>
       </c>
@@ -4607,7 +4629,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:17">
       <c r="C11" s="9" t="s">
         <v>104</v>
       </c>
@@ -4633,7 +4655,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:17">
       <c r="C12" s="9" t="s">
         <v>105</v>
       </c>
@@ -4659,7 +4681,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:17" ht="18" thickBot="1">
       <c r="L13" s="10" t="s">
         <v>183</v>
       </c>
@@ -4671,215 +4693,465 @@
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="106"/>
-    </row>
-    <row r="14" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="88" t="s">
+      <c r="Q13" s="64"/>
+    </row>
+    <row r="14" spans="3:17" ht="18" thickBot="1"/>
+    <row r="15" spans="3:17" ht="18" thickBot="1">
+      <c r="C15" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="90"/>
-    </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C16" s="91"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="93"/>
-      <c r="L16" s="88" t="s">
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="97"/>
+    </row>
+    <row r="16" spans="3:17">
+      <c r="C16" s="98"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="100"/>
+      <c r="L16" s="95" t="s">
         <v>185</v>
       </c>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="90"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C17" s="91"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="93"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="93"/>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C18" s="91"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="93"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="92"/>
-      <c r="Q18" s="93"/>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C19" s="91"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="93"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="93"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C20" s="91"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="93"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="92"/>
-      <c r="Q20" s="93"/>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C21" s="91"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="93"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="92"/>
-      <c r="Q21" s="93"/>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C22" s="91"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="93"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="93"/>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C23" s="91"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="93"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="93"/>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C24" s="91"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="93"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="92"/>
-      <c r="Q24" s="93"/>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C25" s="91"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="93"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="93"/>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C26" s="91"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="93"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="92"/>
-      <c r="Q26" s="93"/>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C27" s="91"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="93"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="92"/>
-      <c r="Q27" s="93"/>
-    </row>
-    <row r="28" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="94"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="96"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="93"/>
-    </row>
-    <row r="29" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L29" s="94"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="97"/>
+    </row>
+    <row r="17" spans="3:17">
+      <c r="C17" s="98"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="100"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="100"/>
+    </row>
+    <row r="18" spans="3:17">
+      <c r="C18" s="98"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="100"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="100"/>
+    </row>
+    <row r="19" spans="3:17">
+      <c r="C19" s="98"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="100"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="100"/>
+    </row>
+    <row r="20" spans="3:17">
+      <c r="C20" s="98"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="100"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="100"/>
+    </row>
+    <row r="21" spans="3:17">
+      <c r="C21" s="98"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="100"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="100"/>
+    </row>
+    <row r="22" spans="3:17">
+      <c r="C22" s="98"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="100"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="100"/>
+    </row>
+    <row r="23" spans="3:17">
+      <c r="C23" s="98"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="100"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="100"/>
+    </row>
+    <row r="24" spans="3:17">
+      <c r="C24" s="98"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="100"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="100"/>
+    </row>
+    <row r="25" spans="3:17">
+      <c r="C25" s="98"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="100"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="100"/>
+    </row>
+    <row r="26" spans="3:17">
+      <c r="C26" s="98"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="100"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="100"/>
+    </row>
+    <row r="27" spans="3:17">
+      <c r="C27" s="98"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="100"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="100"/>
+    </row>
+    <row r="28" spans="3:17" ht="18" thickBot="1">
+      <c r="C28" s="101"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="103"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="100"/>
+    </row>
+    <row r="29" spans="3:17" ht="18" thickBot="1">
+      <c r="L29" s="101"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="102"/>
+      <c r="P29" s="102"/>
+      <c r="Q29" s="103"/>
+    </row>
+    <row r="31" spans="3:17" ht="18" thickBot="1"/>
+    <row r="32" spans="3:17">
+      <c r="C32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="60"/>
+    </row>
+    <row r="33" spans="3:8" ht="18" thickBot="1">
+      <c r="C33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="62"/>
+    </row>
+    <row r="35" spans="3:8" ht="18" thickBot="1"/>
+    <row r="36" spans="3:8" ht="18" thickBot="1">
+      <c r="C36" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" ht="18" thickBot="1">
+      <c r="C37" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="25"/>
+      <c r="G37" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="27"/>
+    </row>
+    <row r="38" spans="3:8" ht="18" thickBot="1">
+      <c r="C38" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="3:8">
+      <c r="C39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="3:8">
+      <c r="C40" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="3:8">
+      <c r="C41" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="3:8">
+      <c r="C42" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="44" spans="3:8" ht="18" thickBot="1"/>
+    <row r="45" spans="3:8">
+      <c r="C45" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="97"/>
+    </row>
+    <row r="46" spans="3:8">
+      <c r="C46" s="98"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="99"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="100"/>
+    </row>
+    <row r="47" spans="3:8">
+      <c r="C47" s="98"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="100"/>
+    </row>
+    <row r="48" spans="3:8">
+      <c r="C48" s="98"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="100"/>
+    </row>
+    <row r="49" spans="3:8">
+      <c r="C49" s="98"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="99"/>
+      <c r="H49" s="100"/>
+    </row>
+    <row r="50" spans="3:8">
+      <c r="C50" s="98"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="99"/>
+      <c r="H50" s="100"/>
+    </row>
+    <row r="51" spans="3:8">
+      <c r="C51" s="98"/>
+      <c r="D51" s="99"/>
+      <c r="E51" s="99"/>
+      <c r="F51" s="99"/>
+      <c r="G51" s="99"/>
+      <c r="H51" s="100"/>
+    </row>
+    <row r="52" spans="3:8">
+      <c r="C52" s="98"/>
+      <c r="D52" s="99"/>
+      <c r="E52" s="99"/>
+      <c r="F52" s="99"/>
+      <c r="G52" s="99"/>
+      <c r="H52" s="100"/>
+    </row>
+    <row r="53" spans="3:8">
+      <c r="C53" s="98"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="100"/>
+    </row>
+    <row r="54" spans="3:8">
+      <c r="C54" s="98"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="99"/>
+      <c r="F54" s="99"/>
+      <c r="G54" s="99"/>
+      <c r="H54" s="100"/>
+    </row>
+    <row r="55" spans="3:8">
+      <c r="C55" s="98"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="99"/>
+      <c r="G55" s="99"/>
+      <c r="H55" s="100"/>
+    </row>
+    <row r="56" spans="3:8">
+      <c r="C56" s="98"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="99"/>
+      <c r="G56" s="99"/>
+      <c r="H56" s="100"/>
+    </row>
+    <row r="57" spans="3:8">
+      <c r="C57" s="98"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="99"/>
+      <c r="H57" s="100"/>
+    </row>
+    <row r="58" spans="3:8" ht="18" thickBot="1">
+      <c r="C58" s="101"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="102"/>
+      <c r="F58" s="102"/>
+      <c r="G58" s="102"/>
+      <c r="H58" s="103"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
+  <mergeCells count="5">
+    <mergeCell ref="C45:H58"/>
     <mergeCell ref="C15:H28"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="M3:Q3"/>
@@ -4892,56 +5164,56 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:H29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C15" sqref="C15:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="9.625" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="22.3984375" customWidth="1"/>
+    <col min="4" max="4" width="16.09765625" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="10.8984375" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:8" ht="18" thickBot="1"/>
+    <row r="2" spans="3:8">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="102"/>
-    </row>
-    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="109"/>
+    </row>
+    <row r="3" spans="3:8" ht="18" thickBot="1">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="97" t="s">
+      <c r="D3" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="99"/>
-    </row>
-    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="106"/>
+    </row>
+    <row r="5" spans="3:8" ht="18" thickBot="1">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:8" ht="18" thickBot="1">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -4961,7 +5233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8">
       <c r="C7" s="24" t="s">
         <v>126</v>
       </c>
@@ -4981,7 +5253,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8">
       <c r="C8" s="14" t="s">
         <v>68</v>
       </c>
@@ -4999,7 +5271,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8">
       <c r="C9" s="14" t="s">
         <v>129</v>
       </c>
@@ -5015,7 +5287,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:8">
       <c r="C10" s="14" t="s">
         <v>131</v>
       </c>
@@ -5031,7 +5303,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:8">
       <c r="C11" s="14" t="s">
         <v>133</v>
       </c>
@@ -5047,7 +5319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:8" ht="18" thickBot="1">
       <c r="C12" s="30" t="s">
         <v>134</v>
       </c>
@@ -5065,128 +5337,128 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="88" t="s">
+    <row r="14" spans="3:8" ht="18" thickBot="1"/>
+    <row r="15" spans="3:8" ht="17.399999999999999" customHeight="1">
+      <c r="C15" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="90"/>
-    </row>
-    <row r="16" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="91"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="93"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="91"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="93"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="91"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="93"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="91"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="93"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="91"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="93"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="91"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="93"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="91"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="93"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="91"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="93"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="91"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="93"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="91"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="93"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="91"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="93"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="91"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="93"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="91"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="93"/>
-    </row>
-    <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="94"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="97"/>
+    </row>
+    <row r="16" spans="3:8" ht="17.399999999999999" customHeight="1">
+      <c r="C16" s="98"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="100"/>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="98"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="100"/>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="98"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="100"/>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="98"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="100"/>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" s="98"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="100"/>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21" s="98"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="100"/>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="C22" s="98"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="100"/>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="C23" s="98"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="100"/>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="C24" s="98"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="100"/>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="C25" s="98"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="100"/>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="C26" s="98"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="100"/>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="98"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="100"/>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" s="98"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="100"/>
+    </row>
+    <row r="29" spans="3:8" ht="18" thickBot="1">
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5200,52 +5472,52 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="23.625" customWidth="1"/>
+    <col min="8" max="8" width="23.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:8" ht="18" thickBot="1"/>
+    <row r="2" spans="3:8">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="107" t="s">
         <v>150</v>
       </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="102"/>
-    </row>
-    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="109"/>
+    </row>
+    <row r="3" spans="3:8" ht="18" thickBot="1">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="97" t="s">
+      <c r="D3" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="99"/>
-    </row>
-    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="106"/>
+    </row>
+    <row r="5" spans="3:8" ht="18" thickBot="1">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:8" ht="18" thickBot="1">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -5265,7 +5537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8">
       <c r="C7" s="24" t="s">
         <v>151</v>
       </c>
@@ -5285,7 +5557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8">
       <c r="C8" s="14" t="s">
         <v>8</v>
       </c>
@@ -5303,7 +5575,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8">
       <c r="C9" s="14" t="s">
         <v>152</v>
       </c>
@@ -5317,7 +5589,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:8">
       <c r="C10" s="14" t="s">
         <v>153</v>
       </c>
@@ -5333,7 +5605,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:8">
       <c r="C11" s="14" t="s">
         <v>16</v>
       </c>
@@ -5349,128 +5621,128 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="88" t="s">
+    <row r="13" spans="3:8" ht="18" thickBot="1"/>
+    <row r="14" spans="3:8">
+      <c r="C14" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="90"/>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="91"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="93"/>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="91"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="93"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="91"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="93"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="91"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="93"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="91"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="93"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="91"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="93"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="91"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="93"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="91"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="93"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="91"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="93"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="91"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="93"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="91"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="93"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="91"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="93"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="91"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="93"/>
-    </row>
-    <row r="28" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="94"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="97"/>
+    </row>
+    <row r="15" spans="3:8">
+      <c r="C15" s="98"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="100"/>
+    </row>
+    <row r="16" spans="3:8">
+      <c r="C16" s="98"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="100"/>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="98"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="100"/>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="98"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="100"/>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="98"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="100"/>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" s="98"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="100"/>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21" s="98"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="100"/>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="C22" s="98"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="100"/>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="C23" s="98"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="100"/>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="C24" s="98"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="100"/>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="C25" s="98"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="100"/>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="C26" s="98"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="100"/>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="98"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="100"/>
+    </row>
+    <row r="28" spans="3:8" ht="18" thickBot="1">
+      <c r="C28" s="101"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5481,4 +5753,18 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/문서파일/QuizBeeDB.xlsx
+++ b/문서파일/QuizBeeDB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="3" r:id="rId1"/>
@@ -668,18 +668,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>create table quiz_reports (
-reports_no int not null auto_increment,
-user_no int not null,
-content varchar(100),
-report_day TIMESTAMP DEFAULT CURRENT_TIMESTAMP,
-user_nick varchar(45)
-primary key(reports_no)
-) comment = '신고 테이블'
-engine=InnoDB;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>quiz_reports</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -740,20 +728,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CREATE TABLE quiz_images (
-  id int NOT NULL AUTO_INCREMENT,
-  quiz_no int DEFAULT NULL,
-  image_path varchar(1000) DEFAULT NULL,
-  answers text,
-  hint1 varchar(100) DEFAULT NULL,
-  hint2 varchar(100) DEFAULT NULL,
-  PRIMARY KEY (id),
-  KEY quiz_no (quiz_no),
-  CONSTRAINT quiz_images_ibfk_1 FOREIGN KEY (quiz_no) REFERENCES quiz_info (quiz_no)
-) ENGINE=InnoDB AUTO_INCREMENT=75 DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_0900_ai_ci</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">uploads_at </t>
   </si>
   <si>
@@ -761,6 +735,108 @@
   </si>
   <si>
     <t xml:space="preserve">timestamp </t>
+  </si>
+  <si>
+    <t>CREATE TABLE quiz_user (
+  user_no int NOT NULL AUTO_INCREMENT,
+  user_id varchar(45) NOT NULL,
+  user_nick varchar(45) NOT NULL,
+  user_email varchar(45) NOT NULL,
+  user_passwd varchar(100) ,
+  user_login_ty int DEFAULT '0',
+  user_type int DEFAULT '0',
+  user_day timestamp NULL DEFAULT CURRENT_TIMESTAMP,
+  user_num varchar(45) ,
+   deleted_at timestamp NULL DEFAULT NULL,
+  PRIMARY KEY (user_no)
+) ENGINE=InnoDB AUTO_INCREMENT=18 DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_general_ci COMMENT='유저'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sol_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quiz_solving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 문제를 풀었다면 업데이트 되는 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀이 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sol_whether</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제풀이 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>created_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀이 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 닉네임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE `notice_comments` (
+  `comment_id` int NOT NULL AUTO_INCREMENT,
+  `notice_no` int DEFAULT NUll,
+  `user_no` int DEFAULT NULL,
+  `comment_content` text,
+  `parent_comment_id` int DEFAULT NULL,
+  `comment_at` timestamp NULL DEFAULT CURRENT_TIMESTAMP,
+  PRIMARY KEY (`comment_id`),
+  KEY `notice_no` (`notice_no`),
+  KEY `user_no` (`user_no`),
+  CONSTRAINT `notice_comments_ibfk_1` FOREIGN KEY (`notice_no`) REFERENCES `quiz_notice` (`notice_no`) ON DELETE CASCADE,
+  CONSTRAINT `notice_comments_ibfk_2` FOREIGN KEY (`user_no`) REFERENCES `quiz_user` (`user_no`) ON DELETE CASCADE
+) ENGINE=InnoDB DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_0900_ai_ci COMMENT='댓글';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE quiz_comments (
+    comment_id INT AUTO_INCREMENT PRIMARY KEY,
+    quiz_no INT,
+    user_no INT,
+    quiz_content TEXT,
+    quiz_comment_id INT DEFAULT NULL,
+    comment_at TIMESTAMP DEFAULT CURRENT_TIMESTAMP,
+    user_nick varchar(100),
+    FOREIGN KEY (quiz_no) REFERENCES quiz_info(quiz_no) on delete cascade,
+    FOREIGN KEY (user_no) REFERENCES quiz_user(user_no) on delete cascade
+);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CREATE TABLE quiz_info (
@@ -787,19 +863,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CREATE TABLE quiz_user (
-  user_no int NOT NULL AUTO_INCREMENT,
-  user_id varchar(45) NOT NULL,
-  user_nick varchar(45) NOT NULL,
-  user_email varchar(45) NOT NULL,
-  user_passwd varchar(100) ,
-  user_login_ty int DEFAULT '0',
-  user_type int DEFAULT '0',
-  user_day timestamp NULL DEFAULT CURRENT_TIMESTAMP,
-  user_num varchar(45) ,
-   deleted_at timestamp NULL DEFAULT NULL,
-  PRIMARY KEY (user_no)
-) ENGINE=InnoDB AUTO_INCREMENT=18 DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_general_ci COMMENT='유저'</t>
+    <t>CREATE TABLE quiz_images (
+  id int NOT NULL AUTO_INCREMENT,
+  quiz_no int DEFAULT NULL,
+  image_path varchar(1000) DEFAULT NULL,
+  answers text,
+  hint1 varchar(100) DEFAULT NULL,
+  hint2 varchar(100) DEFAULT NULL,
+  PRIMARY KEY (id),
+  KEY quiz_no (quiz_no),
+  CONSTRAINT quiz_images_ibfk_1 FOREIGN KEY (quiz_no) REFERENCES quiz_info (quiz_no)
+) ENGINE=InnoDB AUTO_INCREMENT=75 DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_0900_ai_ci</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -817,89 +891,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sol_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quiz_solving</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 문제를 풀었다면 업데이트 되는 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풀이 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sol_whether</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제풀이 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>created_at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풀이 날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Timestamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>current_timestamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_nick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 닉네임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE TABLE quiz_comments (
-    comment_id INT AUTO_INCREMENT PRIMARY KEY,
-    quiz_no INT,
-    user_no INT,
-    quiz_content TEXT,
-    quiz_comment_id INT DEFAULT NULL,
-    comment_at TIMESTAMP DEFAULT CURRENT_TIMESTAMP,
-    user_nick varchar(100),
-    FOREIGN KEY (quiz_no) REFERENCES quiz_info(quiz_no) on delete cascade,
-    FOREIGN KEY (user_no) REFERENCES quiz_user(user_no) on delete cascade
-);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE TABLE `notice_comments` (
-  `comment_id` int NOT NULL AUTO_INCREMENT,
-  `notice_no` int DEFAULT NUll,
-  `user_no` int DEFAULT NULL,
-  `comment_content` text,
-  `parent_comment_id` int DEFAULT NULL,
-  `comment_at` timestamp NULL DEFAULT CURRENT_TIMESTAMP,
-  PRIMARY KEY (`comment_id`),
-  KEY `notice_no` (`notice_no`),
-  KEY `user_no` (`user_no`),
-  CONSTRAINT `notice_comments_ibfk_1` FOREIGN KEY (`notice_no`) REFERENCES `quiz_notice` (`notice_no`) ON DELETE CASCADE,
-  CONSTRAINT `notice_comments_ibfk_2` FOREIGN KEY (`user_no`) REFERENCES `quiz_user` (`user_no`) ON DELETE CASCADE
-) ENGINE=InnoDB DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_0900_ai_ci COMMENT='댓글';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_comments</t>
+    <t>create table quiz_reports (
+reports_no int not null auto_increment,
+user_no int not null,
+content varchar(100),
+report_day TIMESTAMP DEFAULT CURRENT_TIMESTAMP,
+user_nick varchar(45)
+primary key(reports_no)
+) comment = '신고 테이블'
+engine=InnoDB;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2096,7 +2096,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2106,7 +2106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:H36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
@@ -2313,7 +2313,7 @@
     <row r="16" spans="3:8" ht="17.399999999999999" customHeight="1" thickBot="1"/>
     <row r="17" spans="3:8" ht="17.399999999999999" customHeight="1">
       <c r="C17" s="65" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D17" s="66"/>
       <c r="E17" s="66"/>
@@ -2489,8 +2489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2509,7 +2509,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="85" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D2" s="86"/>
       <c r="E2" s="86"/>
@@ -2522,7 +2522,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="89"/>
       <c r="E3" s="89"/>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="24" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>2</v>
@@ -2615,13 +2615,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
@@ -2632,18 +2632,18 @@
     </row>
     <row r="11" spans="1:9" ht="18" thickBot="1">
       <c r="B11" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
       <c r="G11" s="83" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H11" s="84"/>
     </row>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="65" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C17" s="66"/>
       <c r="D17" s="66"/>
@@ -2865,8 +2865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:T45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19:T19"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2890,7 +2890,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="107" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F2" s="108"/>
       <c r="G2" s="108"/>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="7" spans="3:20">
       <c r="D7" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>82</v>
@@ -3396,10 +3396,10 @@
         <v>10</v>
       </c>
       <c r="O19" s="48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P19" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q19" s="39" t="s">
         <v>1</v>
@@ -3410,10 +3410,10 @@
     </row>
     <row r="20" spans="4:20">
       <c r="O20" s="48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P20" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q20" s="39" t="s">
         <v>1</v>
@@ -3424,13 +3424,13 @@
     </row>
     <row r="21" spans="4:20" ht="18" thickBot="1">
       <c r="O21" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="P21" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q21" s="50" t="s">
         <v>166</v>
-      </c>
-      <c r="P21" s="50" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q21" s="50" t="s">
-        <v>168</v>
       </c>
       <c r="R21" s="51"/>
       <c r="S21" s="51"/>
@@ -3439,7 +3439,7 @@
     <row r="22" spans="4:20" ht="18" thickBot="1"/>
     <row r="23" spans="4:20" ht="17.399999999999999" customHeight="1">
       <c r="D23" s="95" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="E23" s="96"/>
       <c r="F23" s="96"/>
@@ -3447,7 +3447,7 @@
       <c r="H23" s="96"/>
       <c r="I23" s="97"/>
       <c r="O23" s="95" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="P23" s="96"/>
       <c r="Q23" s="96"/>
@@ -3765,7 +3765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C16" sqref="C16:H29"/>
     </sheetView>
   </sheetViews>
@@ -4398,8 +4398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4683,10 +4683,10 @@
     </row>
     <row r="13" spans="3:17" ht="18" thickBot="1">
       <c r="L13" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>120</v>
@@ -4714,7 +4714,7 @@
       <c r="G16" s="99"/>
       <c r="H16" s="100"/>
       <c r="L16" s="95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M16" s="96"/>
       <c r="N16" s="96"/>
@@ -4904,7 +4904,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="58" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E32" s="59"/>
       <c r="F32" s="59"/>
@@ -5037,7 +5037,7 @@
     <row r="44" spans="3:8" ht="18" thickBot="1"/>
     <row r="45" spans="3:8">
       <c r="C45" s="95" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D45" s="96"/>
       <c r="E45" s="96"/>
@@ -5475,8 +5475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -5491,7 +5491,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="107" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E2" s="108"/>
       <c r="F2" s="108"/>
@@ -5539,10 +5539,10 @@
     </row>
     <row r="7" spans="3:8">
       <c r="C7" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>2</v>
@@ -5577,10 +5577,10 @@
     </row>
     <row r="9" spans="3:8">
       <c r="C9" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>1</v>
@@ -5591,10 +5591,10 @@
     </row>
     <row r="10" spans="3:8">
       <c r="C10" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>35</v>
@@ -5602,7 +5602,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="5"/>
       <c r="H10" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="3:8">
@@ -5610,7 +5610,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>1</v>
@@ -5624,7 +5624,7 @@
     <row r="13" spans="3:8" ht="18" thickBot="1"/>
     <row r="14" spans="3:8">
       <c r="C14" s="95" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="D14" s="96"/>
       <c r="E14" s="96"/>

--- a/문서파일/QuizBeeDB.xlsx
+++ b/문서파일/QuizBeeDB.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\QuizBee\문서파일\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="7"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="3" r:id="rId1"/>
@@ -18,8 +23,8 @@
     <sheet name="Sheet1" sheetId="16" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="190">
   <si>
     <t>auto</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -902,12 +907,20 @@
 engine=InnoDB;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>deleted_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2096,32 +2109,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:H36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.3984375" customWidth="1"/>
-    <col min="4" max="4" width="16.09765625" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="10.8984375" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" customWidth="1"/>
-    <col min="8" max="8" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="18" thickBot="1"/>
-    <row r="2" spans="3:8">
+    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2133,7 +2146,7 @@
       <c r="G2" s="75"/>
       <c r="H2" s="76"/>
     </row>
-    <row r="3" spans="3:8" ht="18" thickBot="1">
+    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2145,14 +2158,14 @@
       <c r="G3" s="78"/>
       <c r="H3" s="79"/>
     </row>
-    <row r="5" spans="3:8" ht="18" thickBot="1">
+    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="18" thickBot="1">
+    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -2172,7 +2185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
@@ -2192,7 +2205,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
@@ -2206,7 +2219,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
@@ -2220,7 +2233,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
@@ -2234,7 +2247,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:8">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
         <v>26</v>
       </c>
@@ -2248,7 +2261,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="3:8">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
         <v>28</v>
       </c>
@@ -2262,7 +2275,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="3:8">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="9" t="s">
         <v>30</v>
       </c>
@@ -2278,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:8">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" s="9" t="s">
         <v>31</v>
       </c>
@@ -2294,42 +2307,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="18" thickBot="1">
-      <c r="C15" s="31" t="s">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13" t="s">
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="17.399999999999999" customHeight="1" thickBot="1"/>
-    <row r="17" spans="3:8" ht="17.399999999999999" customHeight="1">
-      <c r="C17" s="65" t="s">
+    <row r="17" spans="3:8" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="67"/>
-    </row>
-    <row r="18" spans="3:8" ht="17.399999999999999" customHeight="1">
-      <c r="C18" s="68"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="70"/>
-    </row>
-    <row r="19" spans="3:8" ht="17.399999999999999" customHeight="1">
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="67"/>
+    </row>
+    <row r="19" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="68"/>
       <c r="D19" s="69"/>
       <c r="E19" s="69"/>
@@ -2337,7 +2356,7 @@
       <c r="G19" s="69"/>
       <c r="H19" s="70"/>
     </row>
-    <row r="20" spans="3:8" ht="17.399999999999999" customHeight="1">
+    <row r="20" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="68"/>
       <c r="D20" s="69"/>
       <c r="E20" s="69"/>
@@ -2345,7 +2364,7 @@
       <c r="G20" s="69"/>
       <c r="H20" s="70"/>
     </row>
-    <row r="21" spans="3:8" ht="17.399999999999999" customHeight="1">
+    <row r="21" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="68"/>
       <c r="D21" s="69"/>
       <c r="E21" s="69"/>
@@ -2353,7 +2372,7 @@
       <c r="G21" s="69"/>
       <c r="H21" s="70"/>
     </row>
-    <row r="22" spans="3:8" ht="17.399999999999999" customHeight="1">
+    <row r="22" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="68"/>
       <c r="D22" s="69"/>
       <c r="E22" s="69"/>
@@ -2361,7 +2380,7 @@
       <c r="G22" s="69"/>
       <c r="H22" s="70"/>
     </row>
-    <row r="23" spans="3:8" ht="17.399999999999999" customHeight="1">
+    <row r="23" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="68"/>
       <c r="D23" s="69"/>
       <c r="E23" s="69"/>
@@ -2369,7 +2388,7 @@
       <c r="G23" s="69"/>
       <c r="H23" s="70"/>
     </row>
-    <row r="24" spans="3:8" ht="17.399999999999999" customHeight="1">
+    <row r="24" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="68"/>
       <c r="D24" s="69"/>
       <c r="E24" s="69"/>
@@ -2377,7 +2396,7 @@
       <c r="G24" s="69"/>
       <c r="H24" s="70"/>
     </row>
-    <row r="25" spans="3:8" ht="17.399999999999999" customHeight="1">
+    <row r="25" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="68"/>
       <c r="D25" s="69"/>
       <c r="E25" s="69"/>
@@ -2385,7 +2404,7 @@
       <c r="G25" s="69"/>
       <c r="H25" s="70"/>
     </row>
-    <row r="26" spans="3:8" ht="17.399999999999999" customHeight="1">
+    <row r="26" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="68"/>
       <c r="D26" s="69"/>
       <c r="E26" s="69"/>
@@ -2393,7 +2412,7 @@
       <c r="G26" s="69"/>
       <c r="H26" s="70"/>
     </row>
-    <row r="27" spans="3:8" ht="17.399999999999999" customHeight="1">
+    <row r="27" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="68"/>
       <c r="D27" s="69"/>
       <c r="E27" s="69"/>
@@ -2401,7 +2420,7 @@
       <c r="G27" s="69"/>
       <c r="H27" s="70"/>
     </row>
-    <row r="28" spans="3:8" ht="17.399999999999999" customHeight="1">
+    <row r="28" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="68"/>
       <c r="D28" s="69"/>
       <c r="E28" s="69"/>
@@ -2409,7 +2428,7 @@
       <c r="G28" s="69"/>
       <c r="H28" s="70"/>
     </row>
-    <row r="29" spans="3:8" ht="17.399999999999999" customHeight="1">
+    <row r="29" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="68"/>
       <c r="D29" s="69"/>
       <c r="E29" s="69"/>
@@ -2417,7 +2436,7 @@
       <c r="G29" s="69"/>
       <c r="H29" s="70"/>
     </row>
-    <row r="30" spans="3:8" ht="17.399999999999999" customHeight="1">
+    <row r="30" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="68"/>
       <c r="D30" s="69"/>
       <c r="E30" s="69"/>
@@ -2425,7 +2444,7 @@
       <c r="G30" s="69"/>
       <c r="H30" s="70"/>
     </row>
-    <row r="31" spans="3:8" ht="17.399999999999999" customHeight="1">
+    <row r="31" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="68"/>
       <c r="D31" s="69"/>
       <c r="E31" s="69"/>
@@ -2433,7 +2452,7 @@
       <c r="G31" s="69"/>
       <c r="H31" s="70"/>
     </row>
-    <row r="32" spans="3:8" ht="17.399999999999999" customHeight="1">
+    <row r="32" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="68"/>
       <c r="D32" s="69"/>
       <c r="E32" s="69"/>
@@ -2441,7 +2460,7 @@
       <c r="G32" s="69"/>
       <c r="H32" s="70"/>
     </row>
-    <row r="33" spans="3:8" ht="17.399999999999999" customHeight="1">
+    <row r="33" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="68"/>
       <c r="D33" s="69"/>
       <c r="E33" s="69"/>
@@ -2449,7 +2468,7 @@
       <c r="G33" s="69"/>
       <c r="H33" s="70"/>
     </row>
-    <row r="34" spans="3:8" ht="18" customHeight="1">
+    <row r="34" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="68"/>
       <c r="D34" s="69"/>
       <c r="E34" s="69"/>
@@ -2457,7 +2476,7 @@
       <c r="G34" s="69"/>
       <c r="H34" s="70"/>
     </row>
-    <row r="35" spans="3:8" ht="17.399999999999999" customHeight="1">
+    <row r="35" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="68"/>
       <c r="D35" s="69"/>
       <c r="E35" s="69"/>
@@ -2465,17 +2484,25 @@
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
-    <row r="36" spans="3:8" ht="18" thickBot="1">
-      <c r="C36" s="71"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="73"/>
+    <row r="36" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="68"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="70"/>
+    </row>
+    <row r="37" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="71"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C17:H36"/>
+    <mergeCell ref="C18:H37"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="D3:H3"/>
   </mergeCells>
@@ -2486,25 +2513,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView topLeftCell="C7" workbookViewId="0">
       <selection activeCell="B17" sqref="B17:H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.3984375" customWidth="1"/>
-    <col min="3" max="3" width="44.3984375" customWidth="1"/>
-    <col min="4" max="4" width="13.8984375" customWidth="1"/>
-    <col min="5" max="5" width="11.3984375" customWidth="1"/>
-    <col min="6" max="6" width="11.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="44.375" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" thickBot="1"/>
-    <row r="2" spans="1:9" ht="18" thickBot="1">
+    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2517,7 +2544,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="87"/>
     </row>
-    <row r="3" spans="1:9" ht="18" thickBot="1">
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2530,14 +2557,14 @@
       <c r="G3" s="89"/>
       <c r="H3" s="90"/>
     </row>
-    <row r="5" spans="1:9" ht="18" thickBot="1">
+    <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="18" thickBot="1">
+    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
@@ -2558,7 +2585,7 @@
       </c>
       <c r="H6" s="92"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
         <v>168</v>
       </c>
@@ -2579,7 +2606,7 @@
       </c>
       <c r="H7" s="94"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>92</v>
       </c>
@@ -2596,7 +2623,7 @@
       <c r="G8" s="81"/>
       <c r="H8" s="82"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -2613,7 +2640,7 @@
       <c r="G9" s="81"/>
       <c r="H9" s="82"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>172</v>
       </c>
@@ -2630,7 +2657,7 @@
       </c>
       <c r="H10" s="82"/>
     </row>
-    <row r="11" spans="1:9" ht="18" thickBot="1">
+    <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="10" t="s">
         <v>175</v>
       </c>
@@ -2647,21 +2674,21 @@
       </c>
       <c r="H11" s="84"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I13" s="56"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I15" s="56"/>
     </row>
-    <row r="16" spans="1:9" ht="18" thickBot="1">
+    <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="55"/>
       <c r="H16" s="55"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="65" t="s">
         <v>186</v>
       </c>
@@ -2672,7 +2699,7 @@
       <c r="G17" s="66"/>
       <c r="H17" s="67"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="68"/>
       <c r="C18" s="80"/>
       <c r="D18" s="80"/>
@@ -2681,7 +2708,7 @@
       <c r="G18" s="80"/>
       <c r="H18" s="70"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="68"/>
       <c r="C19" s="80"/>
       <c r="D19" s="80"/>
@@ -2690,7 +2717,7 @@
       <c r="G19" s="80"/>
       <c r="H19" s="70"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="68"/>
       <c r="C20" s="80"/>
       <c r="D20" s="80"/>
@@ -2699,7 +2726,7 @@
       <c r="G20" s="80"/>
       <c r="H20" s="70"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="68"/>
       <c r="C21" s="80"/>
       <c r="D21" s="80"/>
@@ -2708,7 +2735,7 @@
       <c r="G21" s="80"/>
       <c r="H21" s="70"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="68"/>
       <c r="C22" s="80"/>
       <c r="D22" s="80"/>
@@ -2717,7 +2744,7 @@
       <c r="G22" s="80"/>
       <c r="H22" s="70"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="68"/>
       <c r="C23" s="80"/>
       <c r="D23" s="80"/>
@@ -2726,7 +2753,7 @@
       <c r="G23" s="80"/>
       <c r="H23" s="70"/>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="68"/>
       <c r="C24" s="80"/>
       <c r="D24" s="80"/>
@@ -2735,7 +2762,7 @@
       <c r="G24" s="80"/>
       <c r="H24" s="70"/>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="68"/>
       <c r="C25" s="80"/>
       <c r="D25" s="80"/>
@@ -2744,7 +2771,7 @@
       <c r="G25" s="80"/>
       <c r="H25" s="70"/>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="68"/>
       <c r="C26" s="80"/>
       <c r="D26" s="80"/>
@@ -2753,7 +2780,7 @@
       <c r="G26" s="80"/>
       <c r="H26" s="70"/>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="68"/>
       <c r="C27" s="80"/>
       <c r="D27" s="80"/>
@@ -2762,7 +2789,7 @@
       <c r="G27" s="80"/>
       <c r="H27" s="70"/>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="68"/>
       <c r="C28" s="80"/>
       <c r="D28" s="80"/>
@@ -2771,7 +2798,7 @@
       <c r="G28" s="80"/>
       <c r="H28" s="70"/>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="68"/>
       <c r="C29" s="80"/>
       <c r="D29" s="80"/>
@@ -2780,7 +2807,7 @@
       <c r="G29" s="80"/>
       <c r="H29" s="70"/>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="68"/>
       <c r="C30" s="80"/>
       <c r="D30" s="80"/>
@@ -2789,7 +2816,7 @@
       <c r="G30" s="80"/>
       <c r="H30" s="70"/>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="68"/>
       <c r="C31" s="80"/>
       <c r="D31" s="80"/>
@@ -2798,7 +2825,7 @@
       <c r="G31" s="80"/>
       <c r="H31" s="70"/>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="68"/>
       <c r="C32" s="80"/>
       <c r="D32" s="80"/>
@@ -2807,7 +2834,7 @@
       <c r="G32" s="80"/>
       <c r="H32" s="70"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="68"/>
       <c r="C33" s="80"/>
       <c r="D33" s="80"/>
@@ -2816,7 +2843,7 @@
       <c r="G33" s="80"/>
       <c r="H33" s="70"/>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="68"/>
       <c r="C34" s="80"/>
       <c r="D34" s="80"/>
@@ -2825,7 +2852,7 @@
       <c r="G34" s="80"/>
       <c r="H34" s="70"/>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="68"/>
       <c r="C35" s="80"/>
       <c r="D35" s="80"/>
@@ -2834,7 +2861,7 @@
       <c r="G35" s="80"/>
       <c r="H35" s="70"/>
     </row>
-    <row r="36" spans="2:8" ht="18" thickBot="1">
+    <row r="36" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="71"/>
       <c r="C36" s="72"/>
       <c r="D36" s="72"/>
@@ -2862,30 +2889,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:T45"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D23" sqref="D23:I42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.8984375" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="10.8984375" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" customWidth="1"/>
-    <col min="8" max="8" width="11.59765625" customWidth="1"/>
-    <col min="10" max="10" width="8.8984375" customWidth="1"/>
-    <col min="11" max="11" width="16.09765625" customWidth="1"/>
-    <col min="12" max="14" width="8.8984375" customWidth="1"/>
-    <col min="15" max="15" width="18.3984375" customWidth="1"/>
-    <col min="16" max="16" width="8.8984375" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="8.875" customWidth="1"/>
+    <col min="11" max="11" width="16.125" customWidth="1"/>
+    <col min="12" max="14" width="8.875" customWidth="1"/>
+    <col min="15" max="15" width="18.375" customWidth="1"/>
+    <col min="16" max="16" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:20" ht="18" thickBot="1"/>
-    <row r="2" spans="3:20">
+    <row r="1" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2907,7 +2934,7 @@
       <c r="S2" s="108"/>
       <c r="T2" s="109"/>
     </row>
-    <row r="3" spans="3:20" ht="18" thickBot="1">
+    <row r="3" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2929,7 +2956,7 @@
       <c r="S3" s="105"/>
       <c r="T3" s="106"/>
     </row>
-    <row r="5" spans="3:20" ht="18" thickBot="1">
+    <row r="5" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2940,7 +2967,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="3:20" ht="18" thickBot="1">
+    <row r="6" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="21" t="s">
         <v>11</v>
       </c>
@@ -2978,7 +3005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:20">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D7" s="24" t="s">
         <v>163</v>
       </c>
@@ -3016,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:20">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D8" s="37" t="s">
         <v>92</v>
       </c>
@@ -3050,7 +3077,7 @@
       </c>
       <c r="T8" s="40"/>
     </row>
-    <row r="9" spans="3:20">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D9" s="14" t="s">
         <v>93</v>
       </c>
@@ -3080,7 +3107,7 @@
       <c r="S9" s="5"/>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="3:20">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D10" s="14" t="s">
         <v>140</v>
       </c>
@@ -3110,7 +3137,7 @@
       <c r="S10" s="5"/>
       <c r="T10" s="6"/>
     </row>
-    <row r="11" spans="3:20">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D11" s="14" t="s">
         <v>141</v>
       </c>
@@ -3140,7 +3167,7 @@
       <c r="S11" s="5"/>
       <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="3:20">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D12" s="14" t="s">
         <v>135</v>
       </c>
@@ -3170,7 +3197,7 @@
       <c r="S12" s="5"/>
       <c r="T12" s="6"/>
     </row>
-    <row r="13" spans="3:20">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D13" s="14" t="s">
         <v>94</v>
       </c>
@@ -3207,7 +3234,7 @@
       <c r="S13" s="5"/>
       <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="3:20">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D14" s="14" t="s">
         <v>142</v>
       </c>
@@ -3244,7 +3271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:20">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D15" s="14" t="s">
         <v>95</v>
       </c>
@@ -3280,7 +3307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:20">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D16" s="14" t="s">
         <v>111</v>
       </c>
@@ -3316,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:20">
+    <row r="17" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D17" s="44" t="s">
         <v>113</v>
       </c>
@@ -3348,7 +3375,7 @@
       <c r="S17" s="45"/>
       <c r="T17" s="46"/>
     </row>
-    <row r="18" spans="4:20">
+    <row r="18" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D18" s="44" t="s">
         <v>115</v>
       </c>
@@ -3378,7 +3405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="4:20" ht="18" thickBot="1">
+    <row r="19" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D19" s="15" t="s">
         <v>96</v>
       </c>
@@ -3408,7 +3435,7 @@
       <c r="S19" s="49"/>
       <c r="T19" s="53"/>
     </row>
-    <row r="20" spans="4:20">
+    <row r="20" spans="4:20" x14ac:dyDescent="0.3">
       <c r="O20" s="48" t="s">
         <v>160</v>
       </c>
@@ -3422,7 +3449,7 @@
       <c r="S20" s="49"/>
       <c r="T20" s="53"/>
     </row>
-    <row r="21" spans="4:20" ht="18" thickBot="1">
+    <row r="21" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O21" s="52" t="s">
         <v>164</v>
       </c>
@@ -3436,8 +3463,8 @@
       <c r="S21" s="51"/>
       <c r="T21" s="54"/>
     </row>
-    <row r="22" spans="4:20" ht="18" thickBot="1"/>
-    <row r="23" spans="4:20" ht="17.399999999999999" customHeight="1">
+    <row r="22" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D23" s="95" t="s">
         <v>185</v>
       </c>
@@ -3455,7 +3482,7 @@
       <c r="S23" s="96"/>
       <c r="T23" s="97"/>
     </row>
-    <row r="24" spans="4:20" ht="17.399999999999999" customHeight="1">
+    <row r="24" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" s="98"/>
       <c r="E24" s="99"/>
       <c r="F24" s="99"/>
@@ -3469,7 +3496,7 @@
       <c r="S24" s="99"/>
       <c r="T24" s="100"/>
     </row>
-    <row r="25" spans="4:20" ht="17.399999999999999" customHeight="1">
+    <row r="25" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" s="98"/>
       <c r="E25" s="99"/>
       <c r="F25" s="99"/>
@@ -3483,7 +3510,7 @@
       <c r="S25" s="99"/>
       <c r="T25" s="100"/>
     </row>
-    <row r="26" spans="4:20" ht="17.399999999999999" customHeight="1">
+    <row r="26" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="98"/>
       <c r="E26" s="99"/>
       <c r="F26" s="99"/>
@@ -3497,7 +3524,7 @@
       <c r="S26" s="99"/>
       <c r="T26" s="100"/>
     </row>
-    <row r="27" spans="4:20" ht="17.399999999999999" customHeight="1">
+    <row r="27" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D27" s="98"/>
       <c r="E27" s="99"/>
       <c r="F27" s="99"/>
@@ -3511,7 +3538,7 @@
       <c r="S27" s="99"/>
       <c r="T27" s="100"/>
     </row>
-    <row r="28" spans="4:20" ht="17.399999999999999" customHeight="1">
+    <row r="28" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28" s="98"/>
       <c r="E28" s="99"/>
       <c r="F28" s="99"/>
@@ -3525,7 +3552,7 @@
       <c r="S28" s="99"/>
       <c r="T28" s="100"/>
     </row>
-    <row r="29" spans="4:20" ht="17.399999999999999" customHeight="1">
+    <row r="29" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D29" s="98"/>
       <c r="E29" s="99"/>
       <c r="F29" s="99"/>
@@ -3539,7 +3566,7 @@
       <c r="S29" s="99"/>
       <c r="T29" s="100"/>
     </row>
-    <row r="30" spans="4:20" ht="17.399999999999999" customHeight="1">
+    <row r="30" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="98"/>
       <c r="E30" s="99"/>
       <c r="F30" s="99"/>
@@ -3553,7 +3580,7 @@
       <c r="S30" s="99"/>
       <c r="T30" s="100"/>
     </row>
-    <row r="31" spans="4:20" ht="17.399999999999999" customHeight="1">
+    <row r="31" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="98"/>
       <c r="E31" s="99"/>
       <c r="F31" s="99"/>
@@ -3567,7 +3594,7 @@
       <c r="S31" s="99"/>
       <c r="T31" s="100"/>
     </row>
-    <row r="32" spans="4:20" ht="17.399999999999999" customHeight="1">
+    <row r="32" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="98"/>
       <c r="E32" s="99"/>
       <c r="F32" s="99"/>
@@ -3581,7 +3608,7 @@
       <c r="S32" s="99"/>
       <c r="T32" s="100"/>
     </row>
-    <row r="33" spans="4:20" ht="17.399999999999999" customHeight="1">
+    <row r="33" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="98"/>
       <c r="E33" s="99"/>
       <c r="F33" s="99"/>
@@ -3595,7 +3622,7 @@
       <c r="S33" s="99"/>
       <c r="T33" s="100"/>
     </row>
-    <row r="34" spans="4:20" ht="17.399999999999999" customHeight="1">
+    <row r="34" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="98"/>
       <c r="E34" s="99"/>
       <c r="F34" s="99"/>
@@ -3609,7 +3636,7 @@
       <c r="S34" s="99"/>
       <c r="T34" s="100"/>
     </row>
-    <row r="35" spans="4:20" ht="17.399999999999999" customHeight="1">
+    <row r="35" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="98"/>
       <c r="E35" s="99"/>
       <c r="F35" s="99"/>
@@ -3623,7 +3650,7 @@
       <c r="S35" s="99"/>
       <c r="T35" s="100"/>
     </row>
-    <row r="36" spans="4:20" ht="17.399999999999999" customHeight="1">
+    <row r="36" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="98"/>
       <c r="E36" s="99"/>
       <c r="F36" s="99"/>
@@ -3637,7 +3664,7 @@
       <c r="S36" s="99"/>
       <c r="T36" s="100"/>
     </row>
-    <row r="37" spans="4:20" ht="17.399999999999999" customHeight="1">
+    <row r="37" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="98"/>
       <c r="E37" s="99"/>
       <c r="F37" s="99"/>
@@ -3651,7 +3678,7 @@
       <c r="S37" s="99"/>
       <c r="T37" s="100"/>
     </row>
-    <row r="38" spans="4:20" ht="17.399999999999999" customHeight="1">
+    <row r="38" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D38" s="98"/>
       <c r="E38" s="99"/>
       <c r="F38" s="99"/>
@@ -3665,7 +3692,7 @@
       <c r="S38" s="99"/>
       <c r="T38" s="100"/>
     </row>
-    <row r="39" spans="4:20" ht="18" customHeight="1">
+    <row r="39" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="98"/>
       <c r="E39" s="99"/>
       <c r="F39" s="99"/>
@@ -3679,7 +3706,7 @@
       <c r="S39" s="99"/>
       <c r="T39" s="100"/>
     </row>
-    <row r="40" spans="4:20" ht="18" customHeight="1">
+    <row r="40" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="98"/>
       <c r="E40" s="99"/>
       <c r="F40" s="99"/>
@@ -3693,7 +3720,7 @@
       <c r="S40" s="99"/>
       <c r="T40" s="100"/>
     </row>
-    <row r="41" spans="4:20" ht="18" customHeight="1">
+    <row r="41" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" s="98"/>
       <c r="E41" s="99"/>
       <c r="F41" s="99"/>
@@ -3707,7 +3734,7 @@
       <c r="S41" s="99"/>
       <c r="T41" s="100"/>
     </row>
-    <row r="42" spans="4:20" ht="18" thickBot="1">
+    <row r="42" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D42" s="101"/>
       <c r="E42" s="102"/>
       <c r="F42" s="102"/>
@@ -3721,7 +3748,7 @@
       <c r="S42" s="99"/>
       <c r="T42" s="100"/>
     </row>
-    <row r="43" spans="4:20">
+    <row r="43" spans="4:20" x14ac:dyDescent="0.3">
       <c r="O43" s="98"/>
       <c r="P43" s="99"/>
       <c r="Q43" s="99"/>
@@ -3729,7 +3756,7 @@
       <c r="S43" s="99"/>
       <c r="T43" s="100"/>
     </row>
-    <row r="44" spans="4:20">
+    <row r="44" spans="4:20" x14ac:dyDescent="0.3">
       <c r="O44" s="98"/>
       <c r="P44" s="99"/>
       <c r="Q44" s="99"/>
@@ -3737,7 +3764,7 @@
       <c r="S44" s="99"/>
       <c r="T44" s="100"/>
     </row>
-    <row r="45" spans="4:20" ht="18" thickBot="1">
+    <row r="45" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O45" s="101"/>
       <c r="P45" s="102"/>
       <c r="Q45" s="102"/>
@@ -3762,25 +3789,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H29"/>
   <sheetViews>
     <sheetView topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C16" sqref="C16:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.3984375" customWidth="1"/>
-    <col min="4" max="4" width="16.09765625" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="10.8984375" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" customWidth="1"/>
-    <col min="8" max="8" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="18" thickBot="1"/>
-    <row r="2" spans="3:8">
+    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3792,7 +3819,7 @@
       <c r="G2" s="75"/>
       <c r="H2" s="76"/>
     </row>
-    <row r="3" spans="3:8" ht="18" thickBot="1">
+    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -3804,14 +3831,14 @@
       <c r="G3" s="112"/>
       <c r="H3" s="84"/>
     </row>
-    <row r="5" spans="3:8" ht="18" thickBot="1">
+    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="18" thickBot="1">
+    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -3831,7 +3858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
         <v>58</v>
       </c>
@@ -3851,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
@@ -3869,7 +3896,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>59</v>
       </c>
@@ -3885,7 +3912,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="9" t="s">
         <v>60</v>
       </c>
@@ -3901,7 +3928,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:8">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
         <v>61</v>
       </c>
@@ -3917,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:8">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
         <v>62</v>
       </c>
@@ -3931,7 +3958,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="3:8">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="9" t="s">
         <v>63</v>
       </c>
@@ -3947,7 +3974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="18" thickBot="1">
+    <row r="14" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="10" t="s">
         <v>79</v>
       </c>
@@ -3961,8 +3988,8 @@
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="3:8" ht="18" thickBot="1"/>
-    <row r="16" spans="3:8">
+    <row r="15" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C16" s="95" t="s">
         <v>147</v>
       </c>
@@ -3972,7 +3999,7 @@
       <c r="G16" s="96"/>
       <c r="H16" s="97"/>
     </row>
-    <row r="17" spans="3:8">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" s="98"/>
       <c r="D17" s="99"/>
       <c r="E17" s="99"/>
@@ -3980,7 +4007,7 @@
       <c r="G17" s="99"/>
       <c r="H17" s="100"/>
     </row>
-    <row r="18" spans="3:8">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="98"/>
       <c r="D18" s="99"/>
       <c r="E18" s="99"/>
@@ -3988,7 +4015,7 @@
       <c r="G18" s="99"/>
       <c r="H18" s="100"/>
     </row>
-    <row r="19" spans="3:8">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" s="98"/>
       <c r="D19" s="99"/>
       <c r="E19" s="99"/>
@@ -3996,7 +4023,7 @@
       <c r="G19" s="99"/>
       <c r="H19" s="100"/>
     </row>
-    <row r="20" spans="3:8">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" s="98"/>
       <c r="D20" s="99"/>
       <c r="E20" s="99"/>
@@ -4004,7 +4031,7 @@
       <c r="G20" s="99"/>
       <c r="H20" s="100"/>
     </row>
-    <row r="21" spans="3:8">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="98"/>
       <c r="D21" s="99"/>
       <c r="E21" s="99"/>
@@ -4012,7 +4039,7 @@
       <c r="G21" s="99"/>
       <c r="H21" s="100"/>
     </row>
-    <row r="22" spans="3:8">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" s="98"/>
       <c r="D22" s="99"/>
       <c r="E22" s="99"/>
@@ -4020,7 +4047,7 @@
       <c r="G22" s="99"/>
       <c r="H22" s="100"/>
     </row>
-    <row r="23" spans="3:8">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23" s="98"/>
       <c r="D23" s="99"/>
       <c r="E23" s="99"/>
@@ -4028,7 +4055,7 @@
       <c r="G23" s="99"/>
       <c r="H23" s="100"/>
     </row>
-    <row r="24" spans="3:8">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24" s="98"/>
       <c r="D24" s="99"/>
       <c r="E24" s="99"/>
@@ -4036,7 +4063,7 @@
       <c r="G24" s="99"/>
       <c r="H24" s="100"/>
     </row>
-    <row r="25" spans="3:8">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C25" s="98"/>
       <c r="D25" s="99"/>
       <c r="E25" s="99"/>
@@ -4044,7 +4071,7 @@
       <c r="G25" s="99"/>
       <c r="H25" s="100"/>
     </row>
-    <row r="26" spans="3:8">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C26" s="98"/>
       <c r="D26" s="99"/>
       <c r="E26" s="99"/>
@@ -4052,7 +4079,7 @@
       <c r="G26" s="99"/>
       <c r="H26" s="100"/>
     </row>
-    <row r="27" spans="3:8">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27" s="98"/>
       <c r="D27" s="99"/>
       <c r="E27" s="99"/>
@@ -4060,7 +4087,7 @@
       <c r="G27" s="99"/>
       <c r="H27" s="100"/>
     </row>
-    <row r="28" spans="3:8">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C28" s="98"/>
       <c r="D28" s="99"/>
       <c r="E28" s="99"/>
@@ -4068,7 +4095,7 @@
       <c r="G28" s="99"/>
       <c r="H28" s="100"/>
     </row>
-    <row r="29" spans="3:8" ht="18" thickBot="1">
+    <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C29" s="101"/>
       <c r="D29" s="102"/>
       <c r="E29" s="102"/>
@@ -4088,25 +4115,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:K29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C17" sqref="C17:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.3984375" customWidth="1"/>
-    <col min="4" max="4" width="16.09765625" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="10.8984375" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" customWidth="1"/>
-    <col min="8" max="8" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" ht="18" thickBot="1"/>
-    <row r="2" spans="3:11">
+    <row r="1" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -4118,7 +4145,7 @@
       <c r="G2" s="75"/>
       <c r="H2" s="76"/>
     </row>
-    <row r="3" spans="3:11" ht="18" thickBot="1">
+    <row r="3" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -4130,14 +4157,14 @@
       <c r="G3" s="112"/>
       <c r="H3" s="84"/>
     </row>
-    <row r="5" spans="3:11" ht="18" thickBot="1">
+    <row r="5" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:11" ht="18" thickBot="1">
+    <row r="6" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -4157,7 +4184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:11">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
         <v>47</v>
       </c>
@@ -4177,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:11">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
@@ -4195,7 +4222,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:11">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>50</v>
       </c>
@@ -4211,7 +4238,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:11">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C10" s="9" t="s">
         <v>51</v>
       </c>
@@ -4225,7 +4252,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:11">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
         <v>124</v>
       </c>
@@ -4241,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:11">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
         <v>52</v>
       </c>
@@ -4260,7 +4287,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="3:11">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C13" s="9" t="s">
         <v>73</v>
       </c>
@@ -4274,9 +4301,9 @@
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="15" spans="3:11" ht="17.399999999999999" customHeight="1"/>
-    <row r="16" spans="3:11" ht="17.399999999999999" customHeight="1" thickBot="1"/>
-    <row r="17" spans="3:8" ht="17.399999999999999" customHeight="1">
+    <row r="15" spans="3:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="3:11" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="95" t="s">
         <v>148</v>
       </c>
@@ -4286,7 +4313,7 @@
       <c r="G17" s="96"/>
       <c r="H17" s="97"/>
     </row>
-    <row r="18" spans="3:8">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="98"/>
       <c r="D18" s="99"/>
       <c r="E18" s="99"/>
@@ -4294,7 +4321,7 @@
       <c r="G18" s="99"/>
       <c r="H18" s="100"/>
     </row>
-    <row r="19" spans="3:8">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" s="98"/>
       <c r="D19" s="99"/>
       <c r="E19" s="99"/>
@@ -4302,7 +4329,7 @@
       <c r="G19" s="99"/>
       <c r="H19" s="100"/>
     </row>
-    <row r="20" spans="3:8">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" s="98"/>
       <c r="D20" s="99"/>
       <c r="E20" s="99"/>
@@ -4310,7 +4337,7 @@
       <c r="G20" s="99"/>
       <c r="H20" s="100"/>
     </row>
-    <row r="21" spans="3:8">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="98"/>
       <c r="D21" s="99"/>
       <c r="E21" s="99"/>
@@ -4318,7 +4345,7 @@
       <c r="G21" s="99"/>
       <c r="H21" s="100"/>
     </row>
-    <row r="22" spans="3:8">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" s="98"/>
       <c r="D22" s="99"/>
       <c r="E22" s="99"/>
@@ -4326,7 +4353,7 @@
       <c r="G22" s="99"/>
       <c r="H22" s="100"/>
     </row>
-    <row r="23" spans="3:8">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23" s="98"/>
       <c r="D23" s="99"/>
       <c r="E23" s="99"/>
@@ -4334,7 +4361,7 @@
       <c r="G23" s="99"/>
       <c r="H23" s="100"/>
     </row>
-    <row r="24" spans="3:8">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24" s="98"/>
       <c r="D24" s="99"/>
       <c r="E24" s="99"/>
@@ -4342,7 +4369,7 @@
       <c r="G24" s="99"/>
       <c r="H24" s="100"/>
     </row>
-    <row r="25" spans="3:8">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C25" s="98"/>
       <c r="D25" s="99"/>
       <c r="E25" s="99"/>
@@ -4350,7 +4377,7 @@
       <c r="G25" s="99"/>
       <c r="H25" s="100"/>
     </row>
-    <row r="26" spans="3:8">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C26" s="98"/>
       <c r="D26" s="99"/>
       <c r="E26" s="99"/>
@@ -4358,7 +4385,7 @@
       <c r="G26" s="99"/>
       <c r="H26" s="100"/>
     </row>
-    <row r="27" spans="3:8">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27" s="98"/>
       <c r="D27" s="99"/>
       <c r="E27" s="99"/>
@@ -4366,7 +4393,7 @@
       <c r="G27" s="99"/>
       <c r="H27" s="100"/>
     </row>
-    <row r="28" spans="3:8">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C28" s="98"/>
       <c r="D28" s="99"/>
       <c r="E28" s="99"/>
@@ -4374,7 +4401,7 @@
       <c r="G28" s="99"/>
       <c r="H28" s="100"/>
     </row>
-    <row r="29" spans="3:8" ht="18" thickBot="1">
+    <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C29" s="101"/>
       <c r="D29" s="102"/>
       <c r="E29" s="102"/>
@@ -4395,31 +4422,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:Q58"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="25.69921875" customWidth="1"/>
+    <col min="3" max="3" width="25.75" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="18.8984375" customWidth="1"/>
-    <col min="6" max="6" width="16.09765625" customWidth="1"/>
-    <col min="7" max="7" width="15.09765625" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" customWidth="1"/>
-    <col min="12" max="12" width="14.69921875" customWidth="1"/>
-    <col min="13" max="13" width="17.19921875" customWidth="1"/>
-    <col min="14" max="14" width="14.59765625" customWidth="1"/>
-    <col min="15" max="15" width="16.3984375" customWidth="1"/>
-    <col min="16" max="16" width="14.3984375" customWidth="1"/>
-    <col min="17" max="17" width="13.8984375" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="14.75" customWidth="1"/>
+    <col min="13" max="13" width="17.25" customWidth="1"/>
+    <col min="14" max="14" width="14.625" customWidth="1"/>
+    <col min="15" max="15" width="16.375" customWidth="1"/>
+    <col min="16" max="16" width="14.375" customWidth="1"/>
+    <col min="17" max="17" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17" ht="18" thickBot="1"/>
-    <row r="2" spans="3:17">
+    <row r="1" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -4441,7 +4468,7 @@
       <c r="P2" s="75"/>
       <c r="Q2" s="76"/>
     </row>
-    <row r="3" spans="3:17" ht="18" thickBot="1">
+    <row r="3" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -4463,7 +4490,7 @@
       <c r="P3" s="112"/>
       <c r="Q3" s="84"/>
     </row>
-    <row r="5" spans="3:17" ht="18" thickBot="1">
+    <row r="5" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -4475,7 +4502,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="3:17" ht="18" thickBot="1">
+    <row r="6" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -4513,7 +4540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:17" ht="18" thickBot="1">
+    <row r="7" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="24" t="s">
         <v>98</v>
       </c>
@@ -4543,7 +4570,7 @@
       </c>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="3:17" ht="18" thickBot="1">
+    <row r="8" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="9" t="s">
         <v>47</v>
       </c>
@@ -4573,7 +4600,7 @@
       </c>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="3:17">
+    <row r="9" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
@@ -4603,7 +4630,7 @@
       </c>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="3:17">
+    <row r="10" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C10" s="9" t="s">
         <v>102</v>
       </c>
@@ -4629,7 +4656,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="3:17">
+    <row r="11" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
         <v>104</v>
       </c>
@@ -4655,7 +4682,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="3:17">
+    <row r="12" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
         <v>105</v>
       </c>
@@ -4681,7 +4708,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="3:17" ht="18" thickBot="1">
+    <row r="13" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L13" s="10" t="s">
         <v>179</v>
       </c>
@@ -4695,8 +4722,8 @@
       <c r="P13" s="8"/>
       <c r="Q13" s="64"/>
     </row>
-    <row r="14" spans="3:17" ht="18" thickBot="1"/>
-    <row r="15" spans="3:17" ht="18" thickBot="1">
+    <row r="14" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="95" t="s">
         <v>139</v>
       </c>
@@ -4706,7 +4733,7 @@
       <c r="G15" s="96"/>
       <c r="H15" s="97"/>
     </row>
-    <row r="16" spans="3:17">
+    <row r="16" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C16" s="98"/>
       <c r="D16" s="99"/>
       <c r="E16" s="99"/>
@@ -4722,7 +4749,7 @@
       <c r="P16" s="96"/>
       <c r="Q16" s="97"/>
     </row>
-    <row r="17" spans="3:17">
+    <row r="17" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C17" s="98"/>
       <c r="D17" s="99"/>
       <c r="E17" s="99"/>
@@ -4736,7 +4763,7 @@
       <c r="P17" s="99"/>
       <c r="Q17" s="100"/>
     </row>
-    <row r="18" spans="3:17">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C18" s="98"/>
       <c r="D18" s="99"/>
       <c r="E18" s="99"/>
@@ -4750,7 +4777,7 @@
       <c r="P18" s="99"/>
       <c r="Q18" s="100"/>
     </row>
-    <row r="19" spans="3:17">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C19" s="98"/>
       <c r="D19" s="99"/>
       <c r="E19" s="99"/>
@@ -4764,7 +4791,7 @@
       <c r="P19" s="99"/>
       <c r="Q19" s="100"/>
     </row>
-    <row r="20" spans="3:17">
+    <row r="20" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C20" s="98"/>
       <c r="D20" s="99"/>
       <c r="E20" s="99"/>
@@ -4778,7 +4805,7 @@
       <c r="P20" s="99"/>
       <c r="Q20" s="100"/>
     </row>
-    <row r="21" spans="3:17">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C21" s="98"/>
       <c r="D21" s="99"/>
       <c r="E21" s="99"/>
@@ -4792,7 +4819,7 @@
       <c r="P21" s="99"/>
       <c r="Q21" s="100"/>
     </row>
-    <row r="22" spans="3:17">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C22" s="98"/>
       <c r="D22" s="99"/>
       <c r="E22" s="99"/>
@@ -4806,7 +4833,7 @@
       <c r="P22" s="99"/>
       <c r="Q22" s="100"/>
     </row>
-    <row r="23" spans="3:17">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C23" s="98"/>
       <c r="D23" s="99"/>
       <c r="E23" s="99"/>
@@ -4820,7 +4847,7 @@
       <c r="P23" s="99"/>
       <c r="Q23" s="100"/>
     </row>
-    <row r="24" spans="3:17">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C24" s="98"/>
       <c r="D24" s="99"/>
       <c r="E24" s="99"/>
@@ -4834,7 +4861,7 @@
       <c r="P24" s="99"/>
       <c r="Q24" s="100"/>
     </row>
-    <row r="25" spans="3:17">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C25" s="98"/>
       <c r="D25" s="99"/>
       <c r="E25" s="99"/>
@@ -4848,7 +4875,7 @@
       <c r="P25" s="99"/>
       <c r="Q25" s="100"/>
     </row>
-    <row r="26" spans="3:17">
+    <row r="26" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C26" s="98"/>
       <c r="D26" s="99"/>
       <c r="E26" s="99"/>
@@ -4862,7 +4889,7 @@
       <c r="P26" s="99"/>
       <c r="Q26" s="100"/>
     </row>
-    <row r="27" spans="3:17">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C27" s="98"/>
       <c r="D27" s="99"/>
       <c r="E27" s="99"/>
@@ -4876,7 +4903,7 @@
       <c r="P27" s="99"/>
       <c r="Q27" s="100"/>
     </row>
-    <row r="28" spans="3:17" ht="18" thickBot="1">
+    <row r="28" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="101"/>
       <c r="D28" s="102"/>
       <c r="E28" s="102"/>
@@ -4890,7 +4917,7 @@
       <c r="P28" s="99"/>
       <c r="Q28" s="100"/>
     </row>
-    <row r="29" spans="3:17" ht="18" thickBot="1">
+    <row r="29" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L29" s="101"/>
       <c r="M29" s="102"/>
       <c r="N29" s="102"/>
@@ -4898,8 +4925,8 @@
       <c r="P29" s="102"/>
       <c r="Q29" s="103"/>
     </row>
-    <row r="31" spans="3:17" ht="18" thickBot="1"/>
-    <row r="32" spans="3:17">
+    <row r="31" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C32" s="2" t="s">
         <v>7</v>
       </c>
@@ -4911,7 +4938,7 @@
       <c r="G32" s="59"/>
       <c r="H32" s="60"/>
     </row>
-    <row r="33" spans="3:8" ht="18" thickBot="1">
+    <row r="33" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C33" s="3" t="s">
         <v>4</v>
       </c>
@@ -4923,8 +4950,8 @@
       <c r="G33" s="63"/>
       <c r="H33" s="62"/>
     </row>
-    <row r="35" spans="3:8" ht="18" thickBot="1"/>
-    <row r="36" spans="3:8" ht="18" thickBot="1">
+    <row r="35" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C36" s="21" t="s">
         <v>11</v>
       </c>
@@ -4944,7 +4971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="3:8" ht="18" thickBot="1">
+    <row r="37" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C37" s="24" t="s">
         <v>98</v>
       </c>
@@ -4960,7 +4987,7 @@
       </c>
       <c r="H37" s="27"/>
     </row>
-    <row r="38" spans="3:8" ht="18" thickBot="1">
+    <row r="38" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C38" s="9" t="s">
         <v>47</v>
       </c>
@@ -4976,7 +5003,7 @@
       </c>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="3:8">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C39" s="9" t="s">
         <v>8</v>
       </c>
@@ -4992,7 +5019,7 @@
       </c>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="3:8">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C40" s="9" t="s">
         <v>102</v>
       </c>
@@ -5006,7 +5033,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="3:8">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C41" s="9" t="s">
         <v>104</v>
       </c>
@@ -5020,7 +5047,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="3:8">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C42" s="9" t="s">
         <v>105</v>
       </c>
@@ -5034,8 +5061,8 @@
       <c r="G42" s="5"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="44" spans="3:8" ht="18" thickBot="1"/>
-    <row r="45" spans="3:8">
+    <row r="44" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C45" s="95" t="s">
         <v>181</v>
       </c>
@@ -5045,7 +5072,7 @@
       <c r="G45" s="96"/>
       <c r="H45" s="97"/>
     </row>
-    <row r="46" spans="3:8">
+    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C46" s="98"/>
       <c r="D46" s="99"/>
       <c r="E46" s="99"/>
@@ -5053,7 +5080,7 @@
       <c r="G46" s="99"/>
       <c r="H46" s="100"/>
     </row>
-    <row r="47" spans="3:8">
+    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C47" s="98"/>
       <c r="D47" s="99"/>
       <c r="E47" s="99"/>
@@ -5061,7 +5088,7 @@
       <c r="G47" s="99"/>
       <c r="H47" s="100"/>
     </row>
-    <row r="48" spans="3:8">
+    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C48" s="98"/>
       <c r="D48" s="99"/>
       <c r="E48" s="99"/>
@@ -5069,7 +5096,7 @@
       <c r="G48" s="99"/>
       <c r="H48" s="100"/>
     </row>
-    <row r="49" spans="3:8">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C49" s="98"/>
       <c r="D49" s="99"/>
       <c r="E49" s="99"/>
@@ -5077,7 +5104,7 @@
       <c r="G49" s="99"/>
       <c r="H49" s="100"/>
     </row>
-    <row r="50" spans="3:8">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C50" s="98"/>
       <c r="D50" s="99"/>
       <c r="E50" s="99"/>
@@ -5085,7 +5112,7 @@
       <c r="G50" s="99"/>
       <c r="H50" s="100"/>
     </row>
-    <row r="51" spans="3:8">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C51" s="98"/>
       <c r="D51" s="99"/>
       <c r="E51" s="99"/>
@@ -5093,7 +5120,7 @@
       <c r="G51" s="99"/>
       <c r="H51" s="100"/>
     </row>
-    <row r="52" spans="3:8">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C52" s="98"/>
       <c r="D52" s="99"/>
       <c r="E52" s="99"/>
@@ -5101,7 +5128,7 @@
       <c r="G52" s="99"/>
       <c r="H52" s="100"/>
     </row>
-    <row r="53" spans="3:8">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C53" s="98"/>
       <c r="D53" s="99"/>
       <c r="E53" s="99"/>
@@ -5109,7 +5136,7 @@
       <c r="G53" s="99"/>
       <c r="H53" s="100"/>
     </row>
-    <row r="54" spans="3:8">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C54" s="98"/>
       <c r="D54" s="99"/>
       <c r="E54" s="99"/>
@@ -5117,7 +5144,7 @@
       <c r="G54" s="99"/>
       <c r="H54" s="100"/>
     </row>
-    <row r="55" spans="3:8">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C55" s="98"/>
       <c r="D55" s="99"/>
       <c r="E55" s="99"/>
@@ -5125,7 +5152,7 @@
       <c r="G55" s="99"/>
       <c r="H55" s="100"/>
     </row>
-    <row r="56" spans="3:8">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C56" s="98"/>
       <c r="D56" s="99"/>
       <c r="E56" s="99"/>
@@ -5133,7 +5160,7 @@
       <c r="G56" s="99"/>
       <c r="H56" s="100"/>
     </row>
-    <row r="57" spans="3:8">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C57" s="98"/>
       <c r="D57" s="99"/>
       <c r="E57" s="99"/>
@@ -5141,7 +5168,7 @@
       <c r="G57" s="99"/>
       <c r="H57" s="100"/>
     </row>
-    <row r="58" spans="3:8" ht="18" thickBot="1">
+    <row r="58" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="101"/>
       <c r="D58" s="102"/>
       <c r="E58" s="102"/>
@@ -5164,25 +5191,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C15" sqref="C15:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.3984375" customWidth="1"/>
-    <col min="4" max="4" width="16.09765625" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="10.8984375" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" customWidth="1"/>
-    <col min="8" max="8" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="18" thickBot="1"/>
-    <row r="2" spans="3:8">
+    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -5194,7 +5221,7 @@
       <c r="G2" s="108"/>
       <c r="H2" s="109"/>
     </row>
-    <row r="3" spans="3:8" ht="18" thickBot="1">
+    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -5206,14 +5233,14 @@
       <c r="G3" s="105"/>
       <c r="H3" s="106"/>
     </row>
-    <row r="5" spans="3:8" ht="18" thickBot="1">
+    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="18" thickBot="1">
+    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -5233,7 +5260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
         <v>126</v>
       </c>
@@ -5253,7 +5280,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="14" t="s">
         <v>68</v>
       </c>
@@ -5271,7 +5298,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="14" t="s">
         <v>129</v>
       </c>
@@ -5287,7 +5314,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="14" t="s">
         <v>131</v>
       </c>
@@ -5303,7 +5330,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:8">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="14" t="s">
         <v>133</v>
       </c>
@@ -5319,7 +5346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="18" thickBot="1">
+    <row r="12" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="30" t="s">
         <v>134</v>
       </c>
@@ -5337,8 +5364,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="18" thickBot="1"/>
-    <row r="15" spans="3:8" ht="17.399999999999999" customHeight="1">
+    <row r="14" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="95" t="s">
         <v>127</v>
       </c>
@@ -5348,7 +5375,7 @@
       <c r="G15" s="96"/>
       <c r="H15" s="97"/>
     </row>
-    <row r="16" spans="3:8" ht="17.399999999999999" customHeight="1">
+    <row r="16" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="98"/>
       <c r="D16" s="99"/>
       <c r="E16" s="99"/>
@@ -5356,7 +5383,7 @@
       <c r="G16" s="99"/>
       <c r="H16" s="100"/>
     </row>
-    <row r="17" spans="3:8">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" s="98"/>
       <c r="D17" s="99"/>
       <c r="E17" s="99"/>
@@ -5364,7 +5391,7 @@
       <c r="G17" s="99"/>
       <c r="H17" s="100"/>
     </row>
-    <row r="18" spans="3:8">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="98"/>
       <c r="D18" s="99"/>
       <c r="E18" s="99"/>
@@ -5372,7 +5399,7 @@
       <c r="G18" s="99"/>
       <c r="H18" s="100"/>
     </row>
-    <row r="19" spans="3:8">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" s="98"/>
       <c r="D19" s="99"/>
       <c r="E19" s="99"/>
@@ -5380,7 +5407,7 @@
       <c r="G19" s="99"/>
       <c r="H19" s="100"/>
     </row>
-    <row r="20" spans="3:8">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" s="98"/>
       <c r="D20" s="99"/>
       <c r="E20" s="99"/>
@@ -5388,7 +5415,7 @@
       <c r="G20" s="99"/>
       <c r="H20" s="100"/>
     </row>
-    <row r="21" spans="3:8">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="98"/>
       <c r="D21" s="99"/>
       <c r="E21" s="99"/>
@@ -5396,7 +5423,7 @@
       <c r="G21" s="99"/>
       <c r="H21" s="100"/>
     </row>
-    <row r="22" spans="3:8">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" s="98"/>
       <c r="D22" s="99"/>
       <c r="E22" s="99"/>
@@ -5404,7 +5431,7 @@
       <c r="G22" s="99"/>
       <c r="H22" s="100"/>
     </row>
-    <row r="23" spans="3:8">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23" s="98"/>
       <c r="D23" s="99"/>
       <c r="E23" s="99"/>
@@ -5412,7 +5439,7 @@
       <c r="G23" s="99"/>
       <c r="H23" s="100"/>
     </row>
-    <row r="24" spans="3:8">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24" s="98"/>
       <c r="D24" s="99"/>
       <c r="E24" s="99"/>
@@ -5420,7 +5447,7 @@
       <c r="G24" s="99"/>
       <c r="H24" s="100"/>
     </row>
-    <row r="25" spans="3:8">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C25" s="98"/>
       <c r="D25" s="99"/>
       <c r="E25" s="99"/>
@@ -5428,7 +5455,7 @@
       <c r="G25" s="99"/>
       <c r="H25" s="100"/>
     </row>
-    <row r="26" spans="3:8">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C26" s="98"/>
       <c r="D26" s="99"/>
       <c r="E26" s="99"/>
@@ -5436,7 +5463,7 @@
       <c r="G26" s="99"/>
       <c r="H26" s="100"/>
     </row>
-    <row r="27" spans="3:8">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27" s="98"/>
       <c r="D27" s="99"/>
       <c r="E27" s="99"/>
@@ -5444,7 +5471,7 @@
       <c r="G27" s="99"/>
       <c r="H27" s="100"/>
     </row>
-    <row r="28" spans="3:8">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C28" s="98"/>
       <c r="D28" s="99"/>
       <c r="E28" s="99"/>
@@ -5452,7 +5479,7 @@
       <c r="G28" s="99"/>
       <c r="H28" s="100"/>
     </row>
-    <row r="29" spans="3:8" ht="18" thickBot="1">
+    <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C29" s="101"/>
       <c r="D29" s="102"/>
       <c r="E29" s="102"/>
@@ -5472,21 +5499,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14:H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="23.59765625" customWidth="1"/>
+    <col min="8" max="8" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="18" thickBot="1"/>
-    <row r="2" spans="3:8">
+    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -5498,7 +5525,7 @@
       <c r="G2" s="108"/>
       <c r="H2" s="109"/>
     </row>
-    <row r="3" spans="3:8" ht="18" thickBot="1">
+    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -5510,14 +5537,14 @@
       <c r="G3" s="105"/>
       <c r="H3" s="106"/>
     </row>
-    <row r="5" spans="3:8" ht="18" thickBot="1">
+    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="18" thickBot="1">
+    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -5537,7 +5564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
         <v>150</v>
       </c>
@@ -5557,7 +5584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="14" t="s">
         <v>8</v>
       </c>
@@ -5575,7 +5602,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="14" t="s">
         <v>151</v>
       </c>
@@ -5589,7 +5616,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="14" t="s">
         <v>152</v>
       </c>
@@ -5605,7 +5632,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="3:8">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="14" t="s">
         <v>16</v>
       </c>
@@ -5621,8 +5648,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="18" thickBot="1"/>
-    <row r="14" spans="3:8">
+    <row r="13" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" s="95" t="s">
         <v>187</v>
       </c>
@@ -5632,7 +5659,7 @@
       <c r="G14" s="96"/>
       <c r="H14" s="97"/>
     </row>
-    <row r="15" spans="3:8">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C15" s="98"/>
       <c r="D15" s="99"/>
       <c r="E15" s="99"/>
@@ -5640,7 +5667,7 @@
       <c r="G15" s="99"/>
       <c r="H15" s="100"/>
     </row>
-    <row r="16" spans="3:8">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C16" s="98"/>
       <c r="D16" s="99"/>
       <c r="E16" s="99"/>
@@ -5648,7 +5675,7 @@
       <c r="G16" s="99"/>
       <c r="H16" s="100"/>
     </row>
-    <row r="17" spans="3:8">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" s="98"/>
       <c r="D17" s="99"/>
       <c r="E17" s="99"/>
@@ -5656,7 +5683,7 @@
       <c r="G17" s="99"/>
       <c r="H17" s="100"/>
     </row>
-    <row r="18" spans="3:8">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="98"/>
       <c r="D18" s="99"/>
       <c r="E18" s="99"/>
@@ -5664,7 +5691,7 @@
       <c r="G18" s="99"/>
       <c r="H18" s="100"/>
     </row>
-    <row r="19" spans="3:8">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" s="98"/>
       <c r="D19" s="99"/>
       <c r="E19" s="99"/>
@@ -5672,7 +5699,7 @@
       <c r="G19" s="99"/>
       <c r="H19" s="100"/>
     </row>
-    <row r="20" spans="3:8">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" s="98"/>
       <c r="D20" s="99"/>
       <c r="E20" s="99"/>
@@ -5680,7 +5707,7 @@
       <c r="G20" s="99"/>
       <c r="H20" s="100"/>
     </row>
-    <row r="21" spans="3:8">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="98"/>
       <c r="D21" s="99"/>
       <c r="E21" s="99"/>
@@ -5688,7 +5715,7 @@
       <c r="G21" s="99"/>
       <c r="H21" s="100"/>
     </row>
-    <row r="22" spans="3:8">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" s="98"/>
       <c r="D22" s="99"/>
       <c r="E22" s="99"/>
@@ -5696,7 +5723,7 @@
       <c r="G22" s="99"/>
       <c r="H22" s="100"/>
     </row>
-    <row r="23" spans="3:8">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23" s="98"/>
       <c r="D23" s="99"/>
       <c r="E23" s="99"/>
@@ -5704,7 +5731,7 @@
       <c r="G23" s="99"/>
       <c r="H23" s="100"/>
     </row>
-    <row r="24" spans="3:8">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24" s="98"/>
       <c r="D24" s="99"/>
       <c r="E24" s="99"/>
@@ -5712,7 +5739,7 @@
       <c r="G24" s="99"/>
       <c r="H24" s="100"/>
     </row>
-    <row r="25" spans="3:8">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C25" s="98"/>
       <c r="D25" s="99"/>
       <c r="E25" s="99"/>
@@ -5720,7 +5747,7 @@
       <c r="G25" s="99"/>
       <c r="H25" s="100"/>
     </row>
-    <row r="26" spans="3:8">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C26" s="98"/>
       <c r="D26" s="99"/>
       <c r="E26" s="99"/>
@@ -5728,7 +5755,7 @@
       <c r="G26" s="99"/>
       <c r="H26" s="100"/>
     </row>
-    <row r="27" spans="3:8">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27" s="98"/>
       <c r="D27" s="99"/>
       <c r="E27" s="99"/>
@@ -5736,7 +5763,7 @@
       <c r="G27" s="99"/>
       <c r="H27" s="100"/>
     </row>
-    <row r="28" spans="3:8" ht="18" thickBot="1">
+    <row r="28" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="101"/>
       <c r="D28" s="102"/>
       <c r="E28" s="102"/>
@@ -5756,12 +5783,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/문서파일/QuizBeeDB.xlsx
+++ b/문서파일/QuizBeeDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="194">
   <si>
     <t>auto</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -896,23 +896,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>deleted_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>create table quiz_reports (
 reports_no int not null auto_increment,
 user_no int not null,
 content varchar(100),
 report_day TIMESTAMP DEFAULT CURRENT_TIMESTAMP,
-user_nick varchar(45)
+user_nick varchar(45),
+quiz_no INT,
+comment_id INT,
+report_type_id int,
 primary key(reports_no)
 ) comment = '신고 테이블'
 engine=InnoDB;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>deleted_at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 삭제</t>
+    <t>퀴즈번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report_type_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고유형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -992,7 +1011,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1556,11 +1575,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1668,6 +1698,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1778,6 +1809,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2119,7 +2153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C18" sqref="C18:H37"/>
     </sheetView>
   </sheetViews>
@@ -2138,25 +2172,25 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
     </row>
     <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
     </row>
     <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -2309,10 +2343,10 @@
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C15" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>35</v>
@@ -2339,166 +2373,166 @@
     </row>
     <row r="17" spans="3:8" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="68"/>
     </row>
     <row r="19" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="68"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="70"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="71"/>
     </row>
     <row r="20" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="68"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="70"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="71"/>
     </row>
     <row r="21" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="68"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="70"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="71"/>
     </row>
     <row r="22" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="68"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="70"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="71"/>
     </row>
     <row r="23" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="68"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="70"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="71"/>
     </row>
     <row r="24" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="68"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="70"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
     </row>
     <row r="25" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="68"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="70"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="71"/>
     </row>
     <row r="26" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="68"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="70"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="71"/>
     </row>
     <row r="27" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="68"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="70"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="71"/>
     </row>
     <row r="28" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="68"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="70"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="71"/>
     </row>
     <row r="29" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="68"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="70"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="71"/>
     </row>
     <row r="30" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="68"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="70"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="71"/>
     </row>
     <row r="31" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="68"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="70"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="71"/>
     </row>
     <row r="32" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="68"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="70"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="71"/>
     </row>
     <row r="33" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="68"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="70"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="71"/>
     </row>
     <row r="34" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="68"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="70"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="71"/>
     </row>
     <row r="35" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="68"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="70"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="71"/>
     </row>
     <row r="36" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="68"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="70"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="71"/>
     </row>
     <row r="37" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="71"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="73"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2535,27 +2569,27 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="86" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="89" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
@@ -2580,10 +2614,10 @@
       <c r="F6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="91" t="s">
+      <c r="G6" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="92"/>
+      <c r="H6" s="93"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
@@ -2601,10 +2635,10 @@
       <c r="F7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="93" t="s">
+      <c r="G7" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="94"/>
+      <c r="H7" s="95"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
@@ -2620,8 +2654,8 @@
         <v>3</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="83"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
@@ -2637,8 +2671,8 @@
         <v>3</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="83"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
@@ -2652,10 +2686,10 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="81" t="b">
+      <c r="G10" s="82" t="b">
         <v>0</v>
       </c>
-      <c r="H10" s="82"/>
+      <c r="H10" s="83"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="10" t="s">
@@ -2669,10 +2703,10 @@
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="83" t="s">
+      <c r="G11" s="84" t="s">
         <v>178</v>
       </c>
-      <c r="H11" s="84"/>
+      <c r="H11" s="85"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="56"/>
@@ -2689,186 +2723,186 @@
       <c r="H16" s="55"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="68"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="70"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="71"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="68"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="70"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="71"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="68"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="70"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="71"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="68"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="70"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="71"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="68"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="70"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="71"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="68"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="70"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="71"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="68"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="70"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="71"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="68"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="70"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="71"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="68"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="70"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="71"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="68"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="70"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="71"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="68"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="70"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="71"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="68"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="70"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="71"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="68"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="70"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="71"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="68"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="70"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="71"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="68"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="70"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="71"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="68"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="70"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="71"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="68"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="70"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="71"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="68"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="70"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="71"/>
     </row>
     <row r="36" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="71"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="73"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2916,45 +2950,45 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="107" t="s">
+      <c r="E2" s="108" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="110"/>
       <c r="O2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="107" t="s">
+      <c r="P2" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="110"/>
     </row>
     <row r="3" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="104" t="s">
+      <c r="E3" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="107"/>
       <c r="O3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="104" t="s">
+      <c r="P3" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="5" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -3212,10 +3246,10 @@
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="110" t="s">
+      <c r="J13" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="K13" s="111"/>
+      <c r="K13" s="112"/>
       <c r="M13" t="s">
         <v>145</v>
       </c>
@@ -3465,312 +3499,312 @@
     </row>
     <row r="22" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="95" t="s">
+      <c r="D23" s="96" t="s">
         <v>185</v>
       </c>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="97"/>
-      <c r="O23" s="95" t="s">
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="98"/>
+      <c r="O23" s="96" t="s">
         <v>184</v>
       </c>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="96"/>
-      <c r="T23" s="97"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="97"/>
+      <c r="S23" s="97"/>
+      <c r="T23" s="98"/>
     </row>
     <row r="24" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="98"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="100"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="99"/>
-      <c r="S24" s="99"/>
-      <c r="T24" s="100"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="101"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="100"/>
+      <c r="S24" s="100"/>
+      <c r="T24" s="101"/>
     </row>
     <row r="25" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="98"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="100"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="99"/>
-      <c r="S25" s="99"/>
-      <c r="T25" s="100"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="101"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="100"/>
+      <c r="Q25" s="100"/>
+      <c r="R25" s="100"/>
+      <c r="S25" s="100"/>
+      <c r="T25" s="101"/>
     </row>
     <row r="26" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="98"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="100"/>
-      <c r="O26" s="98"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="99"/>
-      <c r="S26" s="99"/>
-      <c r="T26" s="100"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="101"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="100"/>
+      <c r="R26" s="100"/>
+      <c r="S26" s="100"/>
+      <c r="T26" s="101"/>
     </row>
     <row r="27" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="98"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="100"/>
-      <c r="O27" s="98"/>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="99"/>
-      <c r="R27" s="99"/>
-      <c r="S27" s="99"/>
-      <c r="T27" s="100"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="101"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="100"/>
+      <c r="R27" s="100"/>
+      <c r="S27" s="100"/>
+      <c r="T27" s="101"/>
     </row>
     <row r="28" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="98"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="100"/>
-      <c r="O28" s="98"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="99"/>
-      <c r="S28" s="99"/>
-      <c r="T28" s="100"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="101"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="100"/>
+      <c r="S28" s="100"/>
+      <c r="T28" s="101"/>
     </row>
     <row r="29" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="98"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="100"/>
-      <c r="O29" s="98"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="101"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="100"/>
+      <c r="Q29" s="100"/>
+      <c r="R29" s="100"/>
+      <c r="S29" s="100"/>
+      <c r="T29" s="101"/>
     </row>
     <row r="30" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="98"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="100"/>
-      <c r="O30" s="98"/>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="99"/>
-      <c r="R30" s="99"/>
-      <c r="S30" s="99"/>
-      <c r="T30" s="100"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="101"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="100"/>
+      <c r="Q30" s="100"/>
+      <c r="R30" s="100"/>
+      <c r="S30" s="100"/>
+      <c r="T30" s="101"/>
     </row>
     <row r="31" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="98"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="100"/>
-      <c r="O31" s="98"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="99"/>
-      <c r="R31" s="99"/>
-      <c r="S31" s="99"/>
-      <c r="T31" s="100"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="101"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="100"/>
+      <c r="R31" s="100"/>
+      <c r="S31" s="100"/>
+      <c r="T31" s="101"/>
     </row>
     <row r="32" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="98"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="100"/>
-      <c r="O32" s="98"/>
-      <c r="P32" s="99"/>
-      <c r="Q32" s="99"/>
-      <c r="R32" s="99"/>
-      <c r="S32" s="99"/>
-      <c r="T32" s="100"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="101"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="100"/>
+      <c r="Q32" s="100"/>
+      <c r="R32" s="100"/>
+      <c r="S32" s="100"/>
+      <c r="T32" s="101"/>
     </row>
     <row r="33" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="98"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="100"/>
-      <c r="O33" s="98"/>
-      <c r="P33" s="99"/>
-      <c r="Q33" s="99"/>
-      <c r="R33" s="99"/>
-      <c r="S33" s="99"/>
-      <c r="T33" s="100"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="101"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="100"/>
+      <c r="Q33" s="100"/>
+      <c r="R33" s="100"/>
+      <c r="S33" s="100"/>
+      <c r="T33" s="101"/>
     </row>
     <row r="34" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="98"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="100"/>
-      <c r="O34" s="98"/>
-      <c r="P34" s="99"/>
-      <c r="Q34" s="99"/>
-      <c r="R34" s="99"/>
-      <c r="S34" s="99"/>
-      <c r="T34" s="100"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="101"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="100"/>
+      <c r="Q34" s="100"/>
+      <c r="R34" s="100"/>
+      <c r="S34" s="100"/>
+      <c r="T34" s="101"/>
     </row>
     <row r="35" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="98"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="100"/>
-      <c r="O35" s="98"/>
-      <c r="P35" s="99"/>
-      <c r="Q35" s="99"/>
-      <c r="R35" s="99"/>
-      <c r="S35" s="99"/>
-      <c r="T35" s="100"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="101"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="100"/>
+      <c r="Q35" s="100"/>
+      <c r="R35" s="100"/>
+      <c r="S35" s="100"/>
+      <c r="T35" s="101"/>
     </row>
     <row r="36" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="98"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="100"/>
-      <c r="O36" s="98"/>
-      <c r="P36" s="99"/>
-      <c r="Q36" s="99"/>
-      <c r="R36" s="99"/>
-      <c r="S36" s="99"/>
-      <c r="T36" s="100"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="101"/>
+      <c r="O36" s="99"/>
+      <c r="P36" s="100"/>
+      <c r="Q36" s="100"/>
+      <c r="R36" s="100"/>
+      <c r="S36" s="100"/>
+      <c r="T36" s="101"/>
     </row>
     <row r="37" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="98"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="100"/>
-      <c r="O37" s="98"/>
-      <c r="P37" s="99"/>
-      <c r="Q37" s="99"/>
-      <c r="R37" s="99"/>
-      <c r="S37" s="99"/>
-      <c r="T37" s="100"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="101"/>
+      <c r="O37" s="99"/>
+      <c r="P37" s="100"/>
+      <c r="Q37" s="100"/>
+      <c r="R37" s="100"/>
+      <c r="S37" s="100"/>
+      <c r="T37" s="101"/>
     </row>
     <row r="38" spans="4:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="98"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="100"/>
-      <c r="O38" s="98"/>
-      <c r="P38" s="99"/>
-      <c r="Q38" s="99"/>
-      <c r="R38" s="99"/>
-      <c r="S38" s="99"/>
-      <c r="T38" s="100"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="101"/>
+      <c r="O38" s="99"/>
+      <c r="P38" s="100"/>
+      <c r="Q38" s="100"/>
+      <c r="R38" s="100"/>
+      <c r="S38" s="100"/>
+      <c r="T38" s="101"/>
     </row>
     <row r="39" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="98"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="100"/>
-      <c r="O39" s="98"/>
-      <c r="P39" s="99"/>
-      <c r="Q39" s="99"/>
-      <c r="R39" s="99"/>
-      <c r="S39" s="99"/>
-      <c r="T39" s="100"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="101"/>
+      <c r="O39" s="99"/>
+      <c r="P39" s="100"/>
+      <c r="Q39" s="100"/>
+      <c r="R39" s="100"/>
+      <c r="S39" s="100"/>
+      <c r="T39" s="101"/>
     </row>
     <row r="40" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="98"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="100"/>
-      <c r="O40" s="98"/>
-      <c r="P40" s="99"/>
-      <c r="Q40" s="99"/>
-      <c r="R40" s="99"/>
-      <c r="S40" s="99"/>
-      <c r="T40" s="100"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="101"/>
+      <c r="O40" s="99"/>
+      <c r="P40" s="100"/>
+      <c r="Q40" s="100"/>
+      <c r="R40" s="100"/>
+      <c r="S40" s="100"/>
+      <c r="T40" s="101"/>
     </row>
     <row r="41" spans="4:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="98"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="100"/>
-      <c r="O41" s="98"/>
-      <c r="P41" s="99"/>
-      <c r="Q41" s="99"/>
-      <c r="R41" s="99"/>
-      <c r="S41" s="99"/>
-      <c r="T41" s="100"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="101"/>
+      <c r="O41" s="99"/>
+      <c r="P41" s="100"/>
+      <c r="Q41" s="100"/>
+      <c r="R41" s="100"/>
+      <c r="S41" s="100"/>
+      <c r="T41" s="101"/>
     </row>
     <row r="42" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="101"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="102"/>
-      <c r="H42" s="102"/>
-      <c r="I42" s="103"/>
-      <c r="O42" s="98"/>
-      <c r="P42" s="99"/>
-      <c r="Q42" s="99"/>
-      <c r="R42" s="99"/>
-      <c r="S42" s="99"/>
-      <c r="T42" s="100"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="104"/>
+      <c r="O42" s="99"/>
+      <c r="P42" s="100"/>
+      <c r="Q42" s="100"/>
+      <c r="R42" s="100"/>
+      <c r="S42" s="100"/>
+      <c r="T42" s="101"/>
     </row>
     <row r="43" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="O43" s="98"/>
-      <c r="P43" s="99"/>
-      <c r="Q43" s="99"/>
-      <c r="R43" s="99"/>
-      <c r="S43" s="99"/>
-      <c r="T43" s="100"/>
+      <c r="O43" s="99"/>
+      <c r="P43" s="100"/>
+      <c r="Q43" s="100"/>
+      <c r="R43" s="100"/>
+      <c r="S43" s="100"/>
+      <c r="T43" s="101"/>
     </row>
     <row r="44" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="O44" s="98"/>
-      <c r="P44" s="99"/>
-      <c r="Q44" s="99"/>
-      <c r="R44" s="99"/>
-      <c r="S44" s="99"/>
-      <c r="T44" s="100"/>
+      <c r="O44" s="99"/>
+      <c r="P44" s="100"/>
+      <c r="Q44" s="100"/>
+      <c r="R44" s="100"/>
+      <c r="S44" s="100"/>
+      <c r="T44" s="101"/>
     </row>
     <row r="45" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O45" s="101"/>
-      <c r="P45" s="102"/>
-      <c r="Q45" s="102"/>
-      <c r="R45" s="102"/>
-      <c r="S45" s="102"/>
-      <c r="T45" s="103"/>
+      <c r="O45" s="102"/>
+      <c r="P45" s="103"/>
+      <c r="Q45" s="103"/>
+      <c r="R45" s="103"/>
+      <c r="S45" s="103"/>
+      <c r="T45" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3811,25 +3845,25 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
     </row>
     <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="84"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -3990,118 +4024,118 @@
     </row>
     <row r="15" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="95" t="s">
+      <c r="C16" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="98"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="98"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="100"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="101"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="98"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="100"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="101"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="98"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="100"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="101"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="98"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="100"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="101"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="98"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="100"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="101"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="98"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="100"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="101"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="98"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="100"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="101"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="98"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="100"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="101"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="98"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="100"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="101"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="98"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="100"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="101"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="98"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="100"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="101"/>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="98"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="100"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="101"/>
     </row>
     <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="103"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4137,25 +4171,25 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
     </row>
     <row r="3" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="84"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="5" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -4304,110 +4338,110 @@
     <row r="15" spans="3:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="3:11" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="98"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="98"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="100"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="101"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="98"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="100"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="101"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="98"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="100"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="101"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="98"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="100"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="101"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="98"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="100"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="101"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="98"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="100"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="101"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="98"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="100"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="101"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="98"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="100"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="101"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="98"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="100"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="101"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="98"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="100"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="101"/>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="98"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="100"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="101"/>
     </row>
     <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="103"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4460,13 +4494,13 @@
       <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="74" t="s">
+      <c r="M2" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="77"/>
     </row>
     <row r="3" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
@@ -4482,13 +4516,13 @@
       <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="83" t="s">
+      <c r="M3" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="N3" s="112"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="84"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="85"/>
     </row>
     <row r="5" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -4724,206 +4758,206 @@
     </row>
     <row r="14" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="98"/>
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C16" s="98"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="100"/>
-      <c r="L16" s="95" t="s">
+      <c r="C16" s="99"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="101"/>
+      <c r="L16" s="96" t="s">
         <v>183</v>
       </c>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="98"/>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C17" s="98"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="100"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="100"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="101"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="100"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="101"/>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C18" s="98"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="100"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="100"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="101"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="101"/>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C19" s="98"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="100"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="100"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="101"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="100"/>
+      <c r="Q19" s="101"/>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C20" s="98"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="100"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="100"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="101"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="101"/>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C21" s="98"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="100"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="100"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="101"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="101"/>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C22" s="98"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="100"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="100"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="101"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="101"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C23" s="98"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="100"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="100"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="101"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="101"/>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C24" s="98"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="100"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="100"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="101"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="101"/>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C25" s="98"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="100"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="100"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="101"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="100"/>
+      <c r="Q25" s="101"/>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C26" s="98"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="100"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="100"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="101"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="101"/>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C27" s="98"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="100"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="99"/>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="100"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="101"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="101"/>
     </row>
     <row r="28" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="101"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="103"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="100"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="104"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="101"/>
     </row>
     <row r="29" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L29" s="101"/>
-      <c r="M29" s="102"/>
-      <c r="N29" s="102"/>
-      <c r="O29" s="102"/>
-      <c r="P29" s="102"/>
-      <c r="Q29" s="103"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="104"/>
     </row>
     <row r="31" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="3:17" x14ac:dyDescent="0.3">
@@ -5063,118 +5097,118 @@
     </row>
     <row r="44" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C45" s="95" t="s">
+      <c r="C45" s="96" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="96"/>
-      <c r="H45" s="97"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="98"/>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C46" s="98"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="99"/>
-      <c r="G46" s="99"/>
-      <c r="H46" s="100"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="101"/>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C47" s="98"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="99"/>
-      <c r="H47" s="100"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="101"/>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C48" s="98"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="99"/>
-      <c r="H48" s="100"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="100"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="100"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="101"/>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C49" s="98"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="99"/>
-      <c r="H49" s="100"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="100"/>
+      <c r="E49" s="100"/>
+      <c r="F49" s="100"/>
+      <c r="G49" s="100"/>
+      <c r="H49" s="101"/>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C50" s="98"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="99"/>
-      <c r="G50" s="99"/>
-      <c r="H50" s="100"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="101"/>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C51" s="98"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="99"/>
-      <c r="F51" s="99"/>
-      <c r="G51" s="99"/>
-      <c r="H51" s="100"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="101"/>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C52" s="98"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="99"/>
-      <c r="F52" s="99"/>
-      <c r="G52" s="99"/>
-      <c r="H52" s="100"/>
+      <c r="C52" s="99"/>
+      <c r="D52" s="100"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="101"/>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C53" s="98"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="99"/>
-      <c r="G53" s="99"/>
-      <c r="H53" s="100"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="101"/>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C54" s="98"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="99"/>
-      <c r="F54" s="99"/>
-      <c r="G54" s="99"/>
-      <c r="H54" s="100"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="100"/>
+      <c r="E54" s="100"/>
+      <c r="F54" s="100"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="101"/>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C55" s="98"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="99"/>
-      <c r="F55" s="99"/>
-      <c r="G55" s="99"/>
-      <c r="H55" s="100"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="100"/>
+      <c r="H55" s="101"/>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C56" s="98"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="99"/>
-      <c r="F56" s="99"/>
-      <c r="G56" s="99"/>
-      <c r="H56" s="100"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="100"/>
+      <c r="G56" s="100"/>
+      <c r="H56" s="101"/>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C57" s="98"/>
-      <c r="D57" s="99"/>
-      <c r="E57" s="99"/>
-      <c r="F57" s="99"/>
-      <c r="G57" s="99"/>
-      <c r="H57" s="100"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="100"/>
+      <c r="E57" s="100"/>
+      <c r="F57" s="100"/>
+      <c r="G57" s="100"/>
+      <c r="H57" s="101"/>
     </row>
     <row r="58" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C58" s="101"/>
-      <c r="D58" s="102"/>
-      <c r="E58" s="102"/>
-      <c r="F58" s="102"/>
-      <c r="G58" s="102"/>
-      <c r="H58" s="103"/>
+      <c r="C58" s="102"/>
+      <c r="D58" s="103"/>
+      <c r="E58" s="103"/>
+      <c r="F58" s="103"/>
+      <c r="G58" s="103"/>
+      <c r="H58" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5213,25 +5247,25 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="105" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="107"/>
     </row>
     <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -5366,126 +5400,126 @@
     </row>
     <row r="14" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="96" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="98"/>
     </row>
     <row r="16" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="98"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="100"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="101"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="98"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="100"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="101"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="98"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="100"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="101"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="98"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="100"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="101"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="98"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="100"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="101"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="98"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="100"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="101"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="98"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="100"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="101"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="98"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="100"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="101"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="98"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="100"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="101"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="98"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="100"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="101"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="98"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="100"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="101"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="98"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="100"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="101"/>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="98"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="100"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="101"/>
     </row>
     <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="103"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5500,15 +5534,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:H28"/>
+  <dimension ref="C1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:H28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
     <col min="8" max="8" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5517,25 +5553,25 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="107"/>
     </row>
     <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -5612,7 +5648,7 @@
       <c r="E9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="32"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
@@ -5626,7 +5662,7 @@
       <c r="E10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="32"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="5"/>
       <c r="H10" s="6" t="s">
         <v>156</v>
@@ -5648,134 +5684,182 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="95" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="97"/>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="98"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="100"/>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="98"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="100"/>
-    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="114"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="98"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="100"/>
+      <c r="C17" s="96" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="98"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="98"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="100"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="101"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="98"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="100"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="101"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="98"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="100"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="101"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="98"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="100"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="101"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="98"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="100"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="101"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="98"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="100"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="101"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="98"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="100"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="101"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="98"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="100"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="101"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="98"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="100"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="101"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="98"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="100"/>
-    </row>
-    <row r="28" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="101"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="103"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="101"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="99"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="101"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="99"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="101"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="99"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="101"/>
+    </row>
+    <row r="31" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="102"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="D3:H3"/>
-    <mergeCell ref="C14:H28"/>
+    <mergeCell ref="C17:H31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
